--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.444</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.185</v>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3517631661.471</v>
+        <v>-0.548</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702390.888</v>
+        <v>35.713</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.834</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.846</v>
+        <v>16.616</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>478584.0700025141</v>
+        <v>16.01332534743236</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1430047.080447181</v>
+        <v>16.08192176344947</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1735719.575658544</v>
+        <v>16.10399550911642</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-250929.9500315851</v>
+        <v>16.00511958792628</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1648100.857710109</v>
+        <v>16.07643114077744</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1859402.164314429</v>
+        <v>16.10131326976273</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>173111.0926910883</v>
+        <v>16.04833256887856</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2753794.027649686</v>
+        <v>16.10587308971951</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3072090.820093641</v>
+        <v>16.12578955697197</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2026035.814242613</v>
+        <v>16.13335029755961</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2247688.079149487</v>
+        <v>16.19084088993433</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2354652.854038</v>
+        <v>16.21374062579141</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>903502.4957503572</v>
+        <v>16.04383124720815</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2233409.518157028</v>
+        <v>16.1712856377666</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2537991.714845385</v>
+        <v>16.21004573263112</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>366031.4618740188</v>
+        <v>16.03894599456065</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1339558.794541419</v>
+        <v>16.13622628775689</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1537725.256151733</v>
+        <v>16.16676950616369</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-28856.03191380464</v>
+        <v>16.01752228899832</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1308489.685081113</v>
+        <v>16.11936767918136</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1557150.175527009</v>
+        <v>16.15370259047472</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>204627.754730473</v>
+        <v>16.07871593020328</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2072739.156454897</v>
+        <v>16.16090531178435</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2398259.523038295</v>
+        <v>16.18842330162739</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1477549.520405432</v>
+        <v>16.20251947557648</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1764635.455131535</v>
+        <v>16.28782806759668</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1879577.043183935</v>
+        <v>16.32098730722992</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>527418.7266658477</v>
+        <v>16.08443339646516</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1774536.96538242</v>
+        <v>16.26446184034999</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1968361.047812299</v>
+        <v>16.31839451941806</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>611444.56276684</v>
+        <v>16.07572331190677</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1637375.767002229</v>
+        <v>16.18426673826479</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1843695.919851258</v>
+        <v>16.21902463024161</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>268901.3674866908</v>
+        <v>16.05949344558769</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1699024.724622265</v>
+        <v>16.17380439837698</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1912755.85031987</v>
+        <v>16.21281017419433</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>749383.5962911523</v>
+        <v>16.12785872620469</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2649321.931730829</v>
+        <v>16.22014682537132</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2987765.015243365</v>
+        <v>16.25144614997949</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2100465.866628346</v>
+        <v>16.28477819340548</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2354330.614490111</v>
+        <v>16.38351059714674</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2521391.707017922</v>
+        <v>16.42227901562159</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>902306.1387066599</v>
+        <v>16.1623146551302</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2226627.823856344</v>
+        <v>16.36246046165642</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2453237.091736817</v>
+        <v>16.42418253945648</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>285079.4988156568</v>
+        <v>16.02061792814646</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1580797.61494668</v>
+        <v>16.10203712950474</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1763218.354169962</v>
+        <v>16.12580228231457</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-56910.9223312764</v>
+        <v>16.0169910146676</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1895218.970723605</v>
+        <v>16.1018830397251</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1996101.980083842</v>
+        <v>16.12864020823765</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>407372.0950800273</v>
+        <v>16.06663801427365</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2958830.797096302</v>
+        <v>16.13515818385337</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3132618.600327596</v>
+        <v>16.15656489611205</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1811842.513525724</v>
+        <v>16.16586781151949</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2284727.210100691</v>
+        <v>16.23511186511053</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2330141.131964195</v>
+        <v>16.25875315466062</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>506805.5711925334</v>
+        <v>16.05984844771287</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2061014.963520518</v>
+        <v>16.21095264071214</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2180176.605269605</v>
+        <v>16.25274971622265</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>185666.8412837512</v>
+        <v>16.04731653280063</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1130113.251269502</v>
+        <v>16.16243990432374</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1259662.102124663</v>
+        <v>16.19553837175581</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-73259.64109966642</v>
+        <v>16.02992281290232</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1132121.97010283</v>
+        <v>16.15074673642821</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1285633.148769037</v>
+        <v>16.18790852791962</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>257639.7272942406</v>
+        <v>16.10060204958112</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1906614.487967385</v>
+        <v>16.1981336385309</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2117119.622988974</v>
+        <v>16.22790743635045</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1243386.336054013</v>
+        <v>16.24392673983919</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1539747.846433015</v>
+        <v>16.34606479041742</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1598948.364466831</v>
+        <v>16.38077368710617</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>354307.2952526144</v>
+        <v>16.10430629296362</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1494184.421442612</v>
+        <v>16.31716474937654</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1589458.936946427</v>
+        <v>16.37572561744271</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>321773.1118799138</v>
+        <v>16.10049951533036</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1287596.673245776</v>
+        <v>16.22872685834934</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1422865.42184377</v>
+        <v>16.26671365154871</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>76674.55348151521</v>
+        <v>16.08944409653807</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1359227.765259952</v>
+        <v>16.22478085182452</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1477405.182061885</v>
+        <v>16.26736007418056</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>537713.0415997829</v>
+        <v>16.16789939167842</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2207649.952710444</v>
+        <v>16.27718807175098</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2408927.970398828</v>
+        <v>16.31134944221989</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1602011.687522297</v>
+        <v>16.35147960475314</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1910588.127000168</v>
+        <v>16.46923082010634</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1963579.576513983</v>
+        <v>16.51036907276018</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>576159.045289635</v>
+        <v>16.20651429695596</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1789723.848453039</v>
+        <v>16.44280690127542</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1878433.761805909</v>
+        <v>16.51041113069759</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>285079.4988156568</v>
+        <v>16.02061792814646</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1580797.61494668</v>
+        <v>16.10203712950474</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1763218.354169962</v>
+        <v>16.12580228231457</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-56910.9223312764</v>
+        <v>16.0169910146676</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1895218.970723605</v>
+        <v>16.1018830397251</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1996101.980083842</v>
+        <v>16.12864020823765</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>407372.0950800273</v>
+        <v>16.06663801427365</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2958830.797096302</v>
+        <v>16.13515818385337</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3132618.600327596</v>
+        <v>16.15656489611205</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1811842.513525724</v>
+        <v>16.16586781151949</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2284727.210100691</v>
+        <v>16.23511186511053</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2330141.131964195</v>
+        <v>16.25875315466062</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>506805.5711925334</v>
+        <v>16.05984844771287</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2061014.963520518</v>
+        <v>16.21095264071214</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2180176.605269605</v>
+        <v>16.25274971622265</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>185666.8412837512</v>
+        <v>16.04731653280063</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1130113.251269502</v>
+        <v>16.16243990432374</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1259662.102124663</v>
+        <v>16.19553837175581</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-73259.64109966642</v>
+        <v>16.02992281290232</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1132121.97010283</v>
+        <v>16.15074673642821</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1285633.148769037</v>
+        <v>16.18790852791962</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>257639.7272942406</v>
+        <v>16.10060204958112</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1906614.487967385</v>
+        <v>16.1981336385309</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2117119.622988974</v>
+        <v>16.22790743635045</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1243386.336054013</v>
+        <v>16.24392673983919</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1539747.846433015</v>
+        <v>16.34606479041742</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1598948.364466831</v>
+        <v>16.38077368710617</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>354307.2952526144</v>
+        <v>16.10430629296362</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1494184.421442612</v>
+        <v>16.31716474937654</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1589458.936946427</v>
+        <v>16.37572561744271</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>321773.1118799138</v>
+        <v>16.10049951533036</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1287596.673245776</v>
+        <v>16.22872685834934</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1422865.42184377</v>
+        <v>16.26671365154871</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>76674.55348151521</v>
+        <v>16.08944409653807</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1359227.765259952</v>
+        <v>16.22478085182452</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1477405.182061885</v>
+        <v>16.26736007418056</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>537713.0415997829</v>
+        <v>16.16789939167842</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2207649.952710444</v>
+        <v>16.27718807175098</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2408927.970398828</v>
+        <v>16.31134944221989</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1602011.687522297</v>
+        <v>16.35147960475314</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1910588.127000168</v>
+        <v>16.46923082010634</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1963579.576513983</v>
+        <v>16.51036907276018</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>576159.045289635</v>
+        <v>16.20651429695596</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1789723.848453039</v>
+        <v>16.44280690127542</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1878433.761805909</v>
+        <v>16.51041113069759</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>298481.7009619977</v>
+        <v>15.97856525807361</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>898224.8927916726</v>
+        <v>16.04785300030422</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1135466.362064401</v>
+        <v>16.07007889530165</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-325646.6566881752</v>
+        <v>15.96699018960364</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1143687.852558075</v>
+        <v>16.03896925926654</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1297904.041206931</v>
+        <v>16.06400544101396</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-184377.7734097413</v>
+        <v>16.01283657114721</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1948430.522871314</v>
+        <v>16.07090904112988</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2200906.656087897</v>
+        <v>16.0909469867237</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1574254.435966566</v>
+        <v>16.08996573506173</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1631106.588236896</v>
+        <v>16.14781277701817</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1734043.511958614</v>
+        <v>16.17080311626659</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>778135.2383887467</v>
+        <v>15.99867828690248</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1720325.903934182</v>
+        <v>16.12743592614857</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1946991.430536163</v>
+        <v>16.1664342872296</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>205754.5207748648</v>
+        <v>15.99679647543073</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>978002.9537823992</v>
+        <v>16.09514024619781</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1146757.780931539</v>
+        <v>16.12593667187334</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-119118.3650664539</v>
+        <v>15.97100069743465</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>981227.6578427814</v>
+        <v>16.07389869128962</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1205866.10207341</v>
+        <v>16.10849509452164</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-44770.62319065333</v>
+        <v>16.03557369604418</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1571807.214646278</v>
+        <v>16.11860392240287</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1868551.048568422</v>
+        <v>16.14632975369383</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1160516.85858032</v>
+        <v>16.15002698177442</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1364980.933991723</v>
+        <v>16.23601603367038</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1487656.125578136</v>
+        <v>16.26938032300562</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>399942.0407746785</v>
+        <v>16.02960033498858</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1429254.260303438</v>
+        <v>16.21161420063545</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1590754.918037944</v>
+        <v>16.26596165576835</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>569866.397915114</v>
+        <v>16.0372147299441</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1427437.925492158</v>
+        <v>16.14704796823402</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1607919.189864684</v>
+        <v>16.18214345606462</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>201891.8634420526</v>
+        <v>16.01682033411246</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1438892.187622306</v>
+        <v>16.1324340470406</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1629054.782549627</v>
+        <v>16.17179492306084</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>580495.6093090402</v>
+        <v>16.08855783279238</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2274425.755003026</v>
+        <v>16.18188936414469</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2583297.075967865</v>
+        <v>16.21347232204219</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1845768.491173716</v>
+        <v>16.23736461060286</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2031946.2718701</v>
+        <v>16.33705204232547</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2196219.757463908</v>
+        <v>16.37612768715736</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>808224.4594883118</v>
+        <v>16.11240844635655</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1952782.494014204</v>
+        <v>16.31494594331663</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2146883.558068515</v>
+        <v>16.37723891716823</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>402566.9041695922</v>
+        <v>16.02432669874019</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1550179.919454596</v>
+        <v>16.09371869586317</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1849605.127552539</v>
+        <v>16.11570149741694</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-201915.3709166041</v>
+        <v>16.01758709361943</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1911111.653886606</v>
+        <v>16.08979551005778</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2114898.997148192</v>
+        <v>16.11456269332345</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>270744.3759155182</v>
+        <v>16.06025745325468</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3078626.522248831</v>
+        <v>16.11852784334497</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>3384695.126190843</v>
+        <v>16.13835273182154</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2028998.901256949</v>
+        <v>16.14811080265849</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2319145.176234704</v>
+        <v>16.20671110124389</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2415077.954558819</v>
+        <v>16.22957366327533</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>726300.8791558936</v>
+        <v>16.05818098917927</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>2221703.773276446</v>
+        <v>16.18708794446663</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2499216.272094123</v>
+        <v>16.22567494579574</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>415182.7912416881</v>
+        <v>16.05568947305102</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1528775.852646223</v>
+        <v>16.15400498986849</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1663319.325576962</v>
+        <v>16.18440673020865</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13930.0582481373</v>
+        <v>16.03639976674491</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1506075.229982078</v>
+        <v>16.13941212535058</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1695515.131364948</v>
+        <v>16.17357105820135</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>315086.8583516429</v>
+        <v>16.09675240397464</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2344649.053624176</v>
+        <v>16.17989150628644</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2607838.405827139</v>
+        <v>16.20726874118886</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1597122.680664498</v>
+        <v>16.22490538548772</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1942897.307062537</v>
+        <v>16.31165796139364</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2020532.684195959</v>
+        <v>16.34473692713679</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>577034.8722623948</v>
+        <v>16.10632482050851</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1947796.990989632</v>
+        <v>16.28824372518038</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>495090.5774122506</v>
+        <v>16.0918797527312</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1633256.168903042</v>
+        <v>16.20145865811983</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1800845.533147499</v>
+        <v>16.23607993353319</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>149591.8056298547</v>
+        <v>16.07773174325932</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1701812.87902255</v>
+        <v>16.193210081358</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1883615.404734116</v>
+        <v>16.23204534684159</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>633131.3222550726</v>
+        <v>16.14529377864316</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>2660374.214372932</v>
+        <v>16.23853193489978</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2964277.007265042</v>
+        <v>16.26969489663052</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2057802.761788368</v>
+        <v>16.30640327285778</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2365330.832304266</v>
+        <v>16.40659299042179</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>2509501.460535978</v>
+        <v>16.44528421381846</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>807140.8900660425</v>
+        <v>16.18344507754535</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>2232060.484682863</v>
+        <v>16.38548221113915</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2424942.152000983</v>
+        <v>16.44694316784686</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>161151.8097646061</v>
+        <v>16.02684836454333</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>788887.7977863854</v>
+        <v>16.13380941249878</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>891481.1659741258</v>
+        <v>16.1654467834077</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-49188.69649900734</v>
+        <v>16.02081674640478</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1018504.239014196</v>
+        <v>16.13229843128184</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1059354.212796006</v>
+        <v>16.16791624856102</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>194771.7200503514</v>
+        <v>16.08617437066865</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1595104.07761919</v>
+        <v>16.17615918262623</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1673735.582367741</v>
+        <v>16.20465646081145</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>875161.999022173</v>
+        <v>16.21694305422207</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1095813.628308269</v>
+        <v>16.30804879990922</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1113017.14559059</v>
+        <v>16.3399477311021</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>175464.9074721747</v>
+        <v>16.07854929395791</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>931553.1096647815</v>
+        <v>16.27716111695468</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>996444.4130030803</v>
+        <v>16.33271482910313</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>246404.7256514663</v>
+        <v>16.07281018905961</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>799719.4172609329</v>
+        <v>16.22413942041602</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>830297.2387285952</v>
+        <v>16.26806253177118</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>7470.232445241597</v>
+        <v>16.04914997544748</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>750791.0152211821</v>
+        <v>16.20792611073226</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>789937.2038727383</v>
+        <v>16.25723629386054</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>237901.2434535869</v>
+        <v>16.14153845262062</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1231605.969245546</v>
+        <v>16.26971028709458</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1298830.794084208</v>
+        <v>16.30921725352963</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>769920.6128990215</v>
+        <v>16.33317167608426</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>962526.3582154834</v>
+        <v>16.46764484689846</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>973420.2970221411</v>
+        <v>16.51423090913559</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>285751.7280851725</v>
+        <v>16.15093310465048</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>946532.9932832227</v>
+        <v>16.43086271141707</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>959360.1159635306</v>
+        <v>16.5084422618237</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>225088.6082967433</v>
+        <v>16.14094062326821</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>791715.9183990856</v>
+        <v>16.3094743418204</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>836228.8899510901</v>
+        <v>16.35979362202089</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>2637.84168323124</v>
+        <v>16.12574082129089</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>777443.3710380652</v>
+        <v>16.30356452234094</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>809687.6348151672</v>
+        <v>16.35996426414494</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>282282.9656638214</v>
+        <v>16.22841786166032</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1277977.693197355</v>
+        <v>16.3720208546887</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1355061.617789977</v>
+        <v>16.4172684114119</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>902130.2222712939</v>
+        <v>16.47276898645016</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1087955.641043934</v>
+        <v>16.6277754734277</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1093896.109999823</v>
+        <v>16.68279453971397</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>320764.300551451</v>
+        <v>16.28362963194287</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1021154.57142799</v>
+        <v>16.59431012074818</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1044533.856518808</v>
+        <v>16.68372064942617</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-186723.8467598416</v>
+        <v>15.99579864742332</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>197350.0457682441</v>
+        <v>16.10018715588447</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>287481.2382483037</v>
+        <v>16.13211891498436</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-424908.9860422551</v>
+        <v>15.98533757215788</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>374646.9856007851</v>
+        <v>16.0939154122793</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>404411.8076241981</v>
+        <v>16.12990764919921</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-342015.9051374889</v>
+        <v>16.05217713105843</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>775013.1053837631</v>
+        <v>16.13979823492781</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>847141.0283532509</v>
+        <v>16.16859350090002</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>581502.3485820687</v>
+        <v>16.17486873053048</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>708601.0436969551</v>
+        <v>16.26234641333539</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>719736.5106347369</v>
+        <v>16.2943541862078</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>101733.1613711836</v>
+        <v>16.03777455735822</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>642494.2717608945</v>
+        <v>16.23168554613744</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>716686.363604049</v>
+        <v>16.28780080047382</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>27363.01580037922</v>
+        <v>16.02453218547402</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>413057.1720230673</v>
+        <v>16.17251878084172</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>499965.9127808167</v>
+        <v>16.21690242959884</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-134096.4290639146</v>
+        <v>15.99436277661917</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>423781.1210581891</v>
+        <v>16.14936579114224</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>514510.4957332583</v>
+        <v>16.19925161991316</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-25212.40815782878</v>
+        <v>16.08911874677618</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>775089.9914240934</v>
+        <v>16.21421916149537</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>896959.88509794</v>
+        <v>16.25418618891137</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>542060.2840527082</v>
+        <v>16.26809181544603</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>664754.2538248231</v>
+        <v>16.3978500005374</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>704577.5313795046</v>
+        <v>16.44468445396402</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>145671.3065223025</v>
+        <v>16.08740321066011</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>654702.1164215386</v>
+        <v>16.36122329711129</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>720223.4629450253</v>
+        <v>16.43968283913896</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>184405.5461576718</v>
+        <v>16.09486978815612</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>619608.9078897409</v>
+        <v>16.26006476614591</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>698473.2991442836</v>
+        <v>16.31082932375718</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38149.03230087733</v>
+        <v>16.07335390329234</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>669293.3375024888</v>
+        <v>16.24740825552574</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>728507.3828447289</v>
+        <v>16.30436647942278</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>268905.5847489321</v>
+        <v>16.17826016885509</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1114750.17390245</v>
+        <v>16.31879481497564</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1221556.106382376</v>
+        <v>16.36448867319222</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>857928.5767051918</v>
+        <v>16.41054709627939</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>984694.2906653482</v>
+        <v>16.5607995095949</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1008860.602638139</v>
+        <v>16.6160578414715</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>349692.5086301725</v>
+        <v>16.22294990128474</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>929790.4204467911</v>
+        <v>16.5275262225494</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>981950.3249570815</v>
+        <v>16.61778970602522</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>16537.89481238294</v>
+        <v>16.00893658046883</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>836010.1210584221</v>
+        <v>16.08903389300567</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1035813.351143566</v>
+        <v>16.11417891258097</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-485921.8013042983</v>
+        <v>15.99985873530369</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1072689.762477403</v>
+        <v>16.08320500061087</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>1194156.879469823</v>
+        <v>16.11152870192536</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-216600.2790680596</v>
+        <v>16.05028200544411</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>1893890.163602102</v>
+        <v>16.11753988141809</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>2092887.882781385</v>
+        <v>16.14020941524662</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>1259180.970839482</v>
+        <v>16.14681385335601</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>1449961.620048718</v>
+        <v>16.21442615105832</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>1505791.52682627</v>
+        <v>16.24044770663938</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>299684.60198896</v>
+        <v>16.0426808228743</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1387160.847779323</v>
+        <v>16.19147198419105</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1555933.529972855</v>
+        <v>16.23560758666212</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>72105.57747890387</v>
+        <v>16.04008119746742</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>899726.8069076443</v>
+        <v>16.15357714672547</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>984726.1018930867</v>
+        <v>16.18838764969719</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-281233.8543255046</v>
+        <v>16.01616272336197</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>837794.5561141605</v>
+        <v>16.13507909712644</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>962004.8182121352</v>
+        <v>16.17418285876002</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-93861.19946608954</v>
+        <v>16.08733153464913</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1449964.335609779</v>
+        <v>16.18330567896669</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1630705.789045403</v>
+        <v>16.21464383396488</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>999961.1555364435</v>
+        <v>16.22910333880116</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>1250835.999111423</v>
+        <v>16.32922234213285</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>1298598.53920351</v>
+        <v>16.36694552163691</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>249453.6452137587</v>
+        <v>16.091814499262</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1279194.125702166</v>
+        <v>16.30181956016764</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>1354956.410182473</v>
+        <v>16.36326612627949</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>204794.2974239978</v>
+        <v>16.08419942821737</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1063607.863425501</v>
+        <v>16.2107290807167</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>1176906.991024668</v>
+        <v>16.25041993319116</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-126755.5415486966</v>
+        <v>16.0663180270274</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1055503.894821682</v>
+        <v>16.19966055311183</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1174483.634545847</v>
+        <v>16.24417314276048</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>220065.7244882029</v>
+        <v>16.14570784237391</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1777459.539614552</v>
+        <v>16.25336902715958</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1989768.861564456</v>
+        <v>16.28908608068962</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1403952.401457652</v>
+        <v>16.32604170748412</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1632139.331886467</v>
+        <v>16.44171080214104</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1725758.836434778</v>
+        <v>16.48591513064411</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>463375.4275885457</v>
+        <v>16.18364855132956</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>1550484.763577647</v>
+        <v>16.41693743592439</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1672036.018971563</v>
+        <v>16.48740433654962</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>191764.3338824722</v>
+        <v>16.06486702659887</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1137315.944524126</v>
+        <v>16.16189256614711</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1289900.453500739</v>
+        <v>16.19068164647262</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-11600.34272747446</v>
+        <v>16.06468345424868</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1501735.873352255</v>
+        <v>16.16587379741229</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1568026.491548831</v>
+        <v>16.19831137911966</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>438247.2283105968</v>
+        <v>16.12132639705041</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>2351018.791651957</v>
+        <v>16.20301380433367</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>2467110.02650672</v>
+        <v>16.228969948859</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>1409378.837589156</v>
+        <v>16.25092554169665</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1769099.356376051</v>
+        <v>16.33376511290018</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1788071.329242762</v>
+        <v>16.36263675486331</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>493901.8932101017</v>
+        <v>16.1266034154389</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>1590923.577594896</v>
+        <v>16.30675178363399</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1724171.295068114</v>
+        <v>16.35736038919424</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24489.94949194539</v>
+        <v>16.10674039301696</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>715311.7046749638</v>
+        <v>16.243872522163</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>796252.1067619616</v>
+        <v>16.28381397341871</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-212517.141169705</v>
+        <v>16.09128019526404</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>720921.7364574624</v>
+        <v>16.2352348766497</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>802248.7152091116</v>
+        <v>16.28011013316732</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>61846.22334467789</v>
+        <v>16.1722852387792</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1295891.800824652</v>
+        <v>16.28850420681952</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1413441.212665863</v>
+        <v>16.32446194291179</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>849693.2619548722</v>
+        <v>16.35737818712795</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1064889.838996707</v>
+        <v>16.47943486186253</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1093254.744712513</v>
+        <v>16.52158579608916</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>234805.3768130545</v>
+        <v>16.19370621740541</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1045846.942864409</v>
+        <v>16.44736410481847</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1110927.798784253</v>
+        <v>16.51798279563065</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>70686.94280813861</v>
+        <v>16.16481824712023</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>777874.1487380808</v>
+        <v>16.3174263548518</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>866033.4517154198</v>
+        <v>16.36311291276445</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-99240.55296511593</v>
+        <v>16.15683369710471</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>867937.0904277579</v>
+        <v>16.31792206848348</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>932687.7454323773</v>
+        <v>16.36916598704244</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>228496.8413966583</v>
+        <v>16.24728468201868</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1461546.328485376</v>
+        <v>16.37738441768788</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1581355.530247372</v>
+        <v>16.4184991666289</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1061954.74510269</v>
+        <v>16.47913815021002</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1273855.047219384</v>
+        <v>16.61964762307967</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1283236.5387155</v>
+        <v>16.66937182320476</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>333886.0958627895</v>
+        <v>16.3093044643345</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1194773.010312767</v>
+        <v>16.59062045344434</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1255822.464777801</v>
+        <v>16.67187008620319</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-279535.4474591928</v>
+        <v>15.95904288522283</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>196164.5784504616</v>
+        <v>16.04671484757878</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>319091.4659236322</v>
+        <v>16.0731087610171</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-486528.9130970338</v>
+        <v>15.94635581347372</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>358815.4556117802</v>
+        <v>16.03756762829724</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>442776.3916873428</v>
+        <v>16.06730684644355</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-507342.101222666</v>
+        <v>16.00493140023112</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>756012.2736724201</v>
+        <v>16.07852914571537</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>899303.4635250021</v>
+        <v>16.10231840928354</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>618277.4044049059</v>
+        <v>16.09711273349766</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>732320.5665630909</v>
+        <v>16.17038550448663</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>776057.6298917097</v>
+        <v>16.19669049412378</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-111630.6507059924</v>
+        <v>15.98010745101043</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>626504.3089243101</v>
+        <v>16.14283434771502</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>681136.6843569702</v>
+        <v>16.18929395188935</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-102771.3003849277</v>
+        <v>15.97000414975278</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>349892.4088287915</v>
+        <v>16.09427825901041</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>493392.1170339116</v>
+        <v>16.13111739215453</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-158131.3208457034</v>
+        <v>15.93945805576838</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>424972.6757215636</v>
+        <v>16.06964896395922</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>591751.4058730246</v>
+        <v>16.11104260276992</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-108812.2231788228</v>
+        <v>16.02234346715518</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>785574.5803296588</v>
+        <v>16.1274064652503</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>999348.8180068063</v>
+        <v>16.16056781505428</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>531959.8333126472</v>
+        <v>16.15792735013795</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>662404.542750557</v>
+        <v>16.26663525220001</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>731405.0232399853</v>
+        <v>16.30532767620227</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-17463.51065657002</v>
+        <v>16.00367230977562</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>622848.5609041995</v>
+        <v>16.23345208555318</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>721675.10611002</v>
+        <v>16.29869071341311</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>193612.1890777726</v>
+        <v>16.03058842966134</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>685222.7454962593</v>
+        <v>16.16937321531682</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>822830.7362417649</v>
+        <v>16.21165347324573</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>83630.33542630862</v>
+        <v>16.00706708301942</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>757532.3343860602</v>
+        <v>16.15333192018666</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>887653.6357045877</v>
+        <v>16.20075434795043</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>309157.1892506498</v>
+        <v>16.09845469041545</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1253453.524294051</v>
+        <v>16.21653918830852</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>1450218.042732543</v>
+        <v>16.25458366980443</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>981573.2503976208</v>
+        <v>16.27900013013913</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>1122924.003807464</v>
+        <v>16.404966785808</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>1220596.806831693</v>
+        <v>16.45083400983255</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>352271.3421971076</v>
+        <v>16.118807845035</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1053021.393008463</v>
+        <v>16.37454522992706</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1152814.754464954</v>
+        <v>16.44984543826352</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-261170.1298863966</v>
+        <v>15.9965538425405</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>633125.2008180057</v>
+        <v>16.08095619611856</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>744293.1504651284</v>
+        <v>16.10548773583195</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-531850.8054083122</v>
+        <v>15.98950256510364</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>872657.6072668617</v>
+        <v>16.07746757264604</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>927517.1496518294</v>
+        <v>16.10506861842233</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-395865.6841944687</v>
+        <v>16.04257737588367</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>1524628.46931073</v>
+        <v>16.11357105490002</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>1638602.977350383</v>
+        <v>16.13565071324897</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>886063.8287294904</v>
+        <v>16.13849797897429</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1168357.023638469</v>
+        <v>16.21013746945347</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>1197643.792145347</v>
+        <v>16.23460885185103</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-108432.7658975466</v>
+        <v>16.02763518614404</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1013574.366079784</v>
+        <v>16.18427335686244</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>1046064.834185733</v>
+        <v>16.22738936776276</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>126110.1192691768</v>
+        <v>16.0238175223112</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>873857.911117699</v>
+        <v>16.14324346517308</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>935875.8227328956</v>
+        <v>16.17744512909426</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>-93444.12341728742</v>
+        <v>16.0020189820394</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>854816.855159274</v>
+        <v>16.12731507093514</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>946991.8300473433</v>
+        <v>16.16569051491453</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>119422.7474046744</v>
+        <v>16.07701101490614</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1448826.5006553</v>
+        <v>16.1781440718886</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1588353.16178838</v>
+        <v>16.20888789025304</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>931642.0868076221</v>
+        <v>16.21832008300959</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1168749.466582133</v>
+        <v>16.32412619998123</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1196690.340272938</v>
+        <v>16.36009001352387</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>229482.7044703897</v>
+        <v>16.07229617248414</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1153431.603673426</v>
+        <v>16.29310167043888</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1180232.801124967</v>
+        <v>16.35357965680336</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>306385.8859806887</v>
+        <v>16.08166496465743</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1081305.831870659</v>
+        <v>16.21476312114185</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>1159803.338336329</v>
+        <v>16.2540741302975</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40401.44643981563</v>
+        <v>16.06655395165758</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1072011.181276795</v>
+        <v>16.20699314434146</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1143589.709232872</v>
+        <v>16.25103026530801</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>398665.1697721439</v>
+        <v>16.14952116437849</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1761992.201424241</v>
+        <v>16.26292177523938</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1904238.324981077</v>
+        <v>16.29825101365354</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1282871.339685947</v>
+        <v>16.33329382338066</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1536885.156824712</v>
+        <v>16.45539866655066</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1575437.931211388</v>
+        <v>16.49808136266219</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>451764.1013391243</v>
+        <v>16.18165021274051</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1447529.266838499</v>
+        <v>16.42691025993918</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1486368.823582547</v>
+        <v>16.49683753205656</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-209460.4630572394</v>
+        <v>15.96554068540094</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>357753.3368213851</v>
+        <v>16.04358221485594</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>457952.8861477966</v>
+        <v>16.06659732029648</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-493172.7403034433</v>
+        <v>15.95646931503368</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>594319.3978956121</v>
+        <v>16.0376901097229</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>630152.3147604249</v>
+        <v>16.06359668414899</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-527327.9614745427</v>
+        <v>16.00789170686724</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1102107.067789051</v>
+        <v>16.07343252640804</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>1203827.745082926</v>
+        <v>16.094155076847</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>839590.0871870416</v>
+        <v>16.09037747224622</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>979717.3727021709</v>
+        <v>16.15588335330659</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>1028553.042315515</v>
+        <v>16.17855345117167</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>114892.9708069619</v>
+        <v>15.9867691216264</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>916946.6332337258</v>
+        <v>16.13165078443097</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>968248.5976508112</v>
+        <v>16.17211548582461</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-297364.3584935376</v>
+        <v>15.97533997864092</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>178733.3885907957</v>
+        <v>16.08590847483939</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>334311.0945110748</v>
+        <v>16.11805296407563</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-408247.0948800006</v>
+        <v>15.95106835759581</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>259137.8328924433</v>
+        <v>16.06693359310491</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>440071.7637199673</v>
+        <v>16.10301674645815</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-414786.10610585</v>
+        <v>16.02394824775146</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>656098.3743644212</v>
+        <v>16.11745615244669</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>890087.7697690007</v>
+        <v>16.14636250055502</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>482850.2834183873</v>
+        <v>16.14514312323168</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>573237.5573734096</v>
+        <v>16.24221040757262</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>675494.2556985172</v>
+        <v>16.27565958693449</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-85657.80734673812</v>
+        <v>16.00861838949173</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>573875.9917441746</v>
+        <v>16.21309731249045</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>690444.5892527079</v>
+        <v>16.2699650480604</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>173647.9410802256</v>
+        <v>16.03288961119173</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>750795.13550985</v>
+        <v>16.15633419171177</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>888381.6262324555</v>
+        <v>16.19327341905786</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-61524.97482269938</v>
+        <v>16.01508618365173</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>779632.1440080232</v>
+        <v>16.14521153448038</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>897117.3376402182</v>
+        <v>16.18660840202516</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>205162.8218334491</v>
+        <v>16.09531560786345</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1399435.327196841</v>
+        <v>16.20037580195117</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1593343.003985195</v>
+        <v>16.23358586723898</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1109904.00906806</v>
+        <v>16.25715831559128</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>1246783.780371214</v>
+        <v>16.36955456067783</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1314889.940876434</v>
+        <v>16.40929883461518</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>368586.2552687439</v>
+        <v>16.11528119872598</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1182267.937000299</v>
+        <v>16.34278996386751</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1262983.804191964</v>
+        <v>16.40852892059208</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-605521.0418966521</v>
+        <v>15.93195041574386</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-422880.1343476753</v>
+        <v>16.01233973948184</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-398959.676185843</v>
+        <v>16.03597630936295</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-784044.346659982</v>
+        <v>15.91846539312459</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-222861.9681765519</v>
+        <v>16.00206908681194</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-238890.923073278</v>
+        <v>16.02865481547661</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1110718.495866114</v>
+        <v>15.97359920479174</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-90225.86555652769</v>
+        <v>16.04105347100855</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-53917.85000869567</v>
+        <v>16.06231650851244</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>61212.419310776</v>
+        <v>16.04980009426928</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15200.35813631612</v>
+        <v>16.11700180564283</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>44116.56381225814</v>
+        <v>16.14031714745706</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-369419.5857497987</v>
+        <v>15.94179308432491</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16961.53724647075</v>
+        <v>16.09103785985111</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-21628.76002423191</v>
+        <v>16.13256408130666</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-351161.0783985492</v>
+        <v>15.93961835550403</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-69716.43712807231</v>
+        <v>16.05363371949372</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>11683.97978743242</v>
+        <v>16.08669758253514</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-406589.2759301609</v>
+        <v>15.90971412475639</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7183.896505419111</v>
+        <v>16.0291206242786</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>119681.037985682</v>
+        <v>16.0662090908796</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-528997.5840691102</v>
+        <v>15.98724096067229</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>226294.0042704179</v>
+        <v>16.08359492531414</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>382296.356087975</v>
+        <v>16.11330379176648</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>188044.4318194845</v>
+        <v>16.10253927886966</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>214560.7596515774</v>
+        <v>16.20232676864873</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>280577.1756051373</v>
+        <v>16.23679172248363</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-196561.7095021131</v>
+        <v>15.96018129576729</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>247934.0834790663</v>
+        <v>16.17103257702711</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>290384.00693548</v>
+        <v>16.22949117214648</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>152689.714292623</v>
+        <v>16.00272726102713</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>538964.8711944011</v>
+        <v>16.13014447564808</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>615391.6268047672</v>
+        <v>16.16820656805701</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-92760.90180464456</v>
+        <v>15.97967008488565</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>498495.0490406968</v>
+        <v>16.11391991392488</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>564880.3292226618</v>
+        <v>16.15654688803022</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>69270.94351498078</v>
+        <v>16.06466032911383</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>958388.2193365165</v>
+        <v>16.17303891162453</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>1088852.90598924</v>
+        <v>16.20723361197482</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>793714.6281398855</v>
+        <v>16.22290411807391</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>871138.6110019183</v>
+        <v>16.33865325670629</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>921141.3618197505</v>
+        <v>16.37967772214845</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>245568.3832517512</v>
+        <v>16.07491716254366</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>840467.6965947924</v>
+        <v>16.30974347622125</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>867918.5623126784</v>
+        <v>16.37744687025652</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>91661.4939683752</v>
+        <v>15.99287195169978</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>704937.9802416703</v>
+        <v>16.07179403736878</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>908546.9505019106</v>
+        <v>16.09707219915844</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-525130.9931429576</v>
+        <v>15.98163964661231</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>808033.5336274037</v>
+        <v>16.06366077881124</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>934619.0679602865</v>
+        <v>16.09215309300638</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-311747.5867324391</v>
+        <v>16.03285316466813</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1559576.344426492</v>
+        <v>16.09903260511443</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1768456.255562021</v>
+        <v>16.12183642840746</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1255241.498215332</v>
+        <v>16.12524346494886</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1373110.727533621</v>
+        <v>16.19121386435372</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1437788.754241658</v>
+        <v>16.21728788969546</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>480443.787316244</v>
+        <v>16.02171707361399</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>1392495.417167448</v>
+        <v>16.16836220784728</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>1586195.583939947</v>
+        <v>16.21275138959111</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>36844.41523460631</v>
+        <v>16.01559283231868</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>718478.2126281082</v>
+        <v>16.12755987081441</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>867499.0734147902</v>
+        <v>16.1625778774943</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-300154.6390075177</v>
+        <v>15.9885363059998</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>657414.8475764142</v>
+        <v>16.10572880397093</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>841143.022960125</v>
+        <v>16.14509106800384</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-182657.876752083</v>
+        <v>16.06093269081866</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>1192752.717212501</v>
+        <v>16.15550383220416</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>1436166.274512474</v>
+        <v>16.1870486949841</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>890777.8627986819</v>
+        <v>16.19634068833141</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>1080994.755851259</v>
+        <v>16.29432357316724</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>1165786.312995079</v>
+        <v>16.33216225633881</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>211344.5124931589</v>
+        <v>16.05978118573991</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1111737.236350338</v>
+        <v>16.26699382241312</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1248163.497021741</v>
+        <v>16.32883630732173</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>331666.134784853</v>
+        <v>16.06059587284266</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>1073901.839567812</v>
+        <v>16.18559655730846</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>1226217.911921462</v>
+        <v>16.22548770623137</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>13514.01833514654</v>
+        <v>16.03965484800674</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>1068765.356917459</v>
+        <v>16.17127322702931</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>1219782.531658846</v>
+        <v>16.21603621293504</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>355929.8291933503</v>
+        <v>16.12021556937049</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1780878.345321336</v>
+        <v>16.22647353436521</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>2027906.691365218</v>
+        <v>16.26239078600964</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1457393.842940615</v>
+        <v>16.29442558121682</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1630708.358658891</v>
+        <v>16.40793917276491</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1747242.97290297</v>
+        <v>16.45225441037021</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>571396.6126694763</v>
+        <v>16.1527612731415</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1553690.025343386</v>
+        <v>16.38325700300099</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1709024.635230741</v>
+        <v>16.45410701765367</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>415837.6995810589</v>
+        <v>16.00625062388058</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1620589.267816896</v>
+        <v>16.08338520256141</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1835244.410321852</v>
+        <v>16.10602570175295</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>90883.72136586247</v>
+        <v>16.00054156606841</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1854453.263723132</v>
+        <v>16.08091471852225</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>2011015.435767754</v>
+        <v>16.10640629627192</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>510913.3124010371</v>
+        <v>16.04869395925874</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>2863618.814146327</v>
+        <v>16.11355782920439</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>3100785.48980516</v>
+        <v>16.13395094912914</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>1890814.626703535</v>
+        <v>16.13925243660399</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>2317170.414336938</v>
+        <v>16.20446235981042</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>2401700.401301885</v>
+        <v>16.2269318475984</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>606347.8864364652</v>
+        <v>16.03758222148697</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2132621.977488522</v>
+        <v>16.18070192421247</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>2264240.134923425</v>
+        <v>16.22055040803372</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>78884.9098521588</v>
+        <v>16.02621181910544</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>946775.9290502046</v>
+        <v>16.13535167266971</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>1121406.063205886</v>
+        <v>16.16694425545019</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-101255.1663859641</v>
+        <v>16.00653671362838</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>973179.3280179705</v>
+        <v>16.12101900165212</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>1180332.707417774</v>
+        <v>16.15649214062284</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>151021.6188384483</v>
+        <v>16.07508797607239</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1659448.49198922</v>
+        <v>16.16748899663542</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1930429.455016694</v>
+        <v>16.19590942699846</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1090076.78617617</v>
+        <v>16.20603464103179</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1361988.291672979</v>
+        <v>16.30238899655814</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1441291.508664467</v>
+        <v>16.33544961195295</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>216990.2468184007</v>
+        <v>16.07208351640932</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1314960.116988262</v>
+        <v>16.27383184796409</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>1443778.289706223</v>
+        <v>16.32977348777953</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>233334.3320788443</v>
+        <v>16.07726351457598</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>1113778.262033354</v>
+        <v>16.19894046034988</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1291739.359284027</v>
+        <v>16.23523322335939</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42519.17459879205</v>
+        <v>16.06354165765626</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1196848.024211626</v>
+        <v>16.1919122346874</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>1367351.72311595</v>
+        <v>16.23259323254581</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>441438.9524417549</v>
+        <v>16.13952257566635</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1972346.508361579</v>
+        <v>16.24317450167233</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>2232178.082585003</v>
+        <v>16.27581325905863</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1471605.125563908</v>
+        <v>16.3089593948355</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1755378.07948241</v>
+        <v>16.42023667073395</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1869491.225820966</v>
+        <v>16.45947983167201</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>500451.5286025782</v>
+        <v>16.16986727461022</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1653061.56798072</v>
+        <v>16.39404384423975</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1786365.123051899</v>
+        <v>16.45867845557208</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>667878.7332799723</v>
+        <v>16.03820943571002</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>2168079.915027158</v>
+        <v>16.1059963069994</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>2509853.846684344</v>
+        <v>16.12738459388495</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-18416.9559440441</v>
+        <v>16.03384680141988</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>2594802.18031914</v>
+        <v>16.10441832428856</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>2813362.956106941</v>
+        <v>16.1285232552083</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>719203.4412434453</v>
+        <v>16.0745187460612</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>4108212.858013211</v>
+        <v>16.13147284621902</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>4442809.908659291</v>
+        <v>16.15076829519924</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>2709052.099835334</v>
+        <v>16.16415380117952</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>3144875.268738415</v>
+        <v>16.22151817466877</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>3236941.753656918</v>
+        <v>16.24365167907608</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1141610.898442951</v>
+        <v>16.07676023188204</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>3022365.836998227</v>
+        <v>16.2026759617166</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>3357051.312970754</v>
+        <v>16.24024130837737</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>259225.2115161667</v>
+        <v>16.06889243687379</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1541103.592321633</v>
+        <v>16.16487103911669</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1712110.812861136</v>
+        <v>16.19445047325421</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-211126.254458637</v>
+        <v>16.05264452627529</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1510503.057482307</v>
+        <v>16.1532475246802</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1728137.535513027</v>
+        <v>16.18649228428739</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>163144.5162674593</v>
+        <v>16.11051039802697</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>2483111.302639062</v>
+        <v>16.19171068292669</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>2783821.534375377</v>
+        <v>16.21835618109948</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>1713921.739829255</v>
+        <v>16.23957665784811</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>2088229.328633112</v>
+        <v>16.32439812094922</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>2173638.841928505</v>
+        <v>16.35644071446733</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>536331.3962843902</v>
+        <v>16.12436725709328</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>2095077.553987592</v>
+        <v>16.30195464384458</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>2265207.109346275</v>
+        <v>16.35419532423542</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>374556.5719934068</v>
+        <v>16.1036300071048</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1680960.369958472</v>
+        <v>16.21055567944431</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1880370.520823804</v>
+        <v>16.24423071143363</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>9283.352184075575</v>
+        <v>16.09236664683289</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1790676.262737135</v>
+        <v>16.20508576993893</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1992616.879180523</v>
+        <v>16.24286982231771</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>564524.5201548869</v>
+        <v>16.15726764386947</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2875278.036818841</v>
+        <v>16.24828360383745</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>3211436.132859515</v>
+        <v>16.27860400523306</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2232166.343156746</v>
+        <v>16.3182617945547</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>2570384.469464294</v>
+        <v>16.41613703655083</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2710379.557502806</v>
+        <v>16.45362256584546</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>803836.028909385</v>
+        <v>16.19880280018954</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2424436.542284512</v>
+        <v>16.39594334202009</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2642588.582257413</v>
+        <v>16.45575507081017</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1731255.019163432</v>
+        <v>16.01302785425509</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>3481786.63383627</v>
+        <v>16.06285047886574</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>4083717.429322916</v>
+        <v>16.07892339381389</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>904580.2363972641</v>
+        <v>16.0072029510142</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>4413982.619724096</v>
+        <v>16.05898017565857</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>4850084.125054021</v>
+        <v>16.07709274219008</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>1730084.040794945</v>
+        <v>16.0383096718304</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>6460167.962218974</v>
+        <v>16.08008672931837</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>7089269.423440909</v>
+        <v>16.09458475333582</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>4480393.453219725</v>
+        <v>16.10066686707908</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>4916758.630863577</v>
+        <v>16.14236649190423</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>5163735.709411275</v>
+        <v>16.15908172961896</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>2468027.505063313</v>
+        <v>16.03544640974004</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>4869186.416166697</v>
+        <v>16.12802564730719</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>5489478.651914196</v>
+        <v>16.15623298197196</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>1051040.747278692</v>
+        <v>16.03366340925945</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>2831720.251624099</v>
+        <v>16.10433856967221</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>3179304.656026286</v>
+        <v>16.12657184587748</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>595781.7350379825</v>
+        <v>16.01834613852251</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>3055613.116489059</v>
+        <v>16.09231639320903</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>3502852.212648837</v>
+        <v>16.11730290933674</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>978068.4247628907</v>
+        <v>16.06237786295005</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>4392183.788545962</v>
+        <v>16.12207017706289</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>4977530.39234495</v>
+        <v>16.1420958648422</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>3034191.512014213</v>
+        <v>16.15336532789146</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>3570887.351484252</v>
+        <v>16.21527696048413</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3795177.330780519</v>
+        <v>16.23946737929519</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>1316045.212120393</v>
+        <v>16.06732582401146</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>3574363.637648918</v>
+        <v>16.19812497231586</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3928925.857441893</v>
+        <v>16.23736348902561</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>1289138.628301852</v>
+        <v>16.06033155629937</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>3145923.255375495</v>
+        <v>16.13920509647033</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>3505066.407920944</v>
+        <v>16.16450224326425</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>872581.0850931755</v>
+        <v>16.04878255105194</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>3475705.59919527</v>
+        <v>16.13182573022906</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>3858081.870555561</v>
+        <v>16.16020757839384</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>1683681.02748065</v>
+        <v>16.09804330762005</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>5133048.00765626</v>
+        <v>16.16508583315325</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>5741420.250605315</v>
+        <v>16.18786009313389</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>3977777.886736197</v>
+        <v>16.21310407775687</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>4440716.135817518</v>
+        <v>16.28479001876003</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>4756204.965971721</v>
+        <v>16.31305846010752</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>1801145.210451375</v>
+        <v>16.12386366024521</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>4183054.407302565</v>
+        <v>16.26930484272431</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>4597107.754636141</v>
+        <v>16.31420537879965</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>325110.5746405457</v>
+        <v>16.01277053570147</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1945354.239441058</v>
+        <v>16.08389966183599</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>2226009.745291721</v>
+        <v>16.10531714810513</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-257638.4291586455</v>
+        <v>16.00695339428369</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>2180998.060138191</v>
+        <v>16.08106103811802</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>2374099.816067962</v>
+        <v>16.10518814620551</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>349289.6928176884</v>
+        <v>16.05117235197166</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3566164.055705123</v>
+        <v>16.11097972833438</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>3869463.504340431</v>
+        <v>16.13028517307776</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>2347232.938315458</v>
+        <v>16.13693719462033</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2864257.991575365</v>
+        <v>16.19712728871258</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2922377.812462877</v>
+        <v>16.21876837773159</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>553688.0667482882</v>
+        <v>16.04386703868973</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>2615871.663308292</v>
+        <v>16.17587830441447</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>2792898.101783994</v>
+        <v>16.21355686543889</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1132.205212896636</v>
+        <v>16.03449415123087</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>1241694.939376979</v>
+        <v>16.13514565504215</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>1406783.300124206</v>
+        <v>16.16493538771812</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-356617.3099669512</v>
+        <v>16.01573138929641</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1189590.62746664</v>
+        <v>16.12130044619306</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>1396725.122187183</v>
+        <v>16.15476667323018</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-7520.331028472453</v>
+        <v>16.07860090751731</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2117941.18643126</v>
+        <v>16.16380827593018</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>2409740.117046659</v>
+        <v>16.19062408700628</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1411425.408350426</v>
+        <v>16.20258852410347</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1785736.023681137</v>
+        <v>16.29151998666185</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1826630.095138435</v>
+        <v>16.32315669912832</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>183080.7390800071</v>
+        <v>16.0799348464141</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1732037.10525966</v>
+        <v>16.26603391102498</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1845424.94855894</v>
+        <v>16.31874745473936</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>221492.7749450795</v>
+        <v>16.07686908307494</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>1457824.956454374</v>
+        <v>16.18903705613278</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>1640679.361809432</v>
+        <v>16.22314988090115</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-97494.05032505729</v>
+        <v>16.063419202694</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1515004.492621358</v>
+        <v>16.18174333576575</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>1691754.816435156</v>
+        <v>16.21999968038605</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>423420.9109860635</v>
+        <v>16.13336239122627</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2539662.396101759</v>
+        <v>16.22890273970124</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2840381.099652085</v>
+        <v>16.25959793646538</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>1935784.016972726</v>
+        <v>16.29188366218694</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>2301079.607123649</v>
+        <v>16.39453037622628</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>2413301.166701316</v>
+        <v>16.43187965283785</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>565711.6141879675</v>
+        <v>16.16461103328286</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2151568.883808122</v>
+        <v>16.37130380983547</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2298200.561544227</v>
+        <v>16.43201014526008</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>21434.16262978496</v>
+        <v>15.98817846120941</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>724431.9638857795</v>
+        <v>16.0565188640474</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>871853.0272841938</v>
+        <v>16.07834559112649</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-597061.5675773544</v>
+        <v>15.97812251250816</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>930951.1703082176</v>
+        <v>16.04912847866512</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>999876.5084479668</v>
+        <v>16.07371713202677</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-366990.8972376225</v>
+        <v>16.02285988303627</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>1781574.021034139</v>
+        <v>16.08014852467697</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>1947748.687065107</v>
+        <v>16.09982685811472</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>1357990.832368138</v>
+        <v>16.10106528171151</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>1482376.474526175</v>
+        <v>16.15810510451545</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>1540133.416350746</v>
+        <v>16.18042072548163</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>370108.1789070533</v>
+        <v>16.01067215737936</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>1403150.95590758</v>
+        <v>16.13768061077764</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>1533520.038026373</v>
+        <v>16.17598173884465</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>128464.8905548406</v>
+        <v>16.00735838757022</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>955978.0429749489</v>
+        <v>16.10436611806091</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>1162750.509634903</v>
+        <v>16.13466431381587</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>-76663.17731434904</v>
+        <v>15.98356266050886</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1067646.325507192</v>
+        <v>16.08507751073446</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>1323762.117148885</v>
+        <v>16.11911699148645</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>101791.4781668221</v>
+        <v>16.04671618213597</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>1729748.879515268</v>
+        <v>16.12863194576135</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>2058951.309536775</v>
+        <v>16.15591046664997</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1230337.235091047</v>
+        <v>16.16197592006687</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1443346.534371259</v>
+        <v>16.24677902182477</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1604678.547799456</v>
+        <v>16.27928183135357</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>340549.7376805599</v>
+        <v>16.04273792218685</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1412182.7707228</v>
+        <v>16.22229352671483</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>1607493.137923284</v>
+        <v>16.27577002816861</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>488059.5478882223</v>
+        <v>16.0463998851624</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>1388748.000665301</v>
+        <v>16.15475711630337</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>1620004.487062474</v>
+        <v>16.18932950726982</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>186367.8708176768</v>
+        <v>16.02780744930831</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1452277.084218221</v>
+        <v>16.14188364192544</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1686049.758816344</v>
+        <v>16.18066053504222</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>572931.9479341297</v>
+        <v>16.09808068834364</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2266228.519290766</v>
+        <v>16.19017306363397</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>2615380.606030451</v>
+        <v>16.22128710406206</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1747461.449289518</v>
+        <v>16.24699439403751</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1935043.665271752</v>
+        <v>16.3453216874601</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>2146148.990572573</v>
+        <v>16.3835082240867</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>639605.5998436541</v>
+        <v>16.12329774151618</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1811234.061764187</v>
+        <v>16.32312826130171</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>2044026.952044102</v>
+        <v>16.38450218368795</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>265300.0234663449</v>
+        <v>16.00729973997846</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1802637.719253974</v>
+        <v>16.05668475091207</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>2482321.328031612</v>
+        <v>16.07271928985962</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-718941.7857535901</v>
+        <v>16.00091339261077</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2548529.715363603</v>
+        <v>16.05222001016624</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>3071446.607834326</v>
+        <v>16.07029180460948</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-171818.0317546293</v>
+        <v>16.03218199115656</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>4299306.734938355</v>
+        <v>16.07357792786296</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>5017585.544376155</v>
+        <v>16.08804361627475</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>3280524.012692828</v>
+        <v>16.09286476168853</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>3624432.915369541</v>
+        <v>16.13410113929141</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>3939361.705486355</v>
+        <v>16.15077464063789</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>1459402.580983497</v>
+        <v>16.02810042061335</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>3659688.549153334</v>
+        <v>16.11987216841974</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>4372284.316664085</v>
+        <v>16.14801680276283</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>79044.78913048486</v>
+        <v>16.02562759849122</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1722654.500098431</v>
+        <v>16.09570386522385</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>2186927.79510638</v>
+        <v>16.11788723209858</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-409996.254544525</v>
+        <v>16.00957097775429</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1895272.540636935</v>
+        <v>16.0828956544058</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>2463923.432569059</v>
+        <v>16.10782954196785</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-209129.7752331724</v>
+        <v>16.05382272684879</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>3039756.153915154</v>
+        <v>16.11299227297495</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>3748363.293366041</v>
+        <v>16.13297622465756</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2236243.251920469</v>
+        <v>16.14244659562014</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>2714035.263311617</v>
+        <v>16.20371698801836</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>3027500.146235415</v>
+        <v>16.22784970767774</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>617518.6851970635</v>
+        <v>16.05699893724062</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>2744872.407465018</v>
+        <v>16.18669513779374</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>3218482.749842267</v>
+        <v>16.22585206244314</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>452508.1894265492</v>
+        <v>16.05205887072118</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>2186133.547081569</v>
+        <v>16.13028942777967</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>2651169.513064626</v>
+        <v>16.15552253504841</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-1611.95424427796</v>
+        <v>16.03974493096697</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>2462443.561172748</v>
+        <v>16.12209359737734</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>2954827.386602454</v>
+        <v>16.15040724941315</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>659195.6123955385</v>
+        <v>16.08920390064467</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>3960582.456915838</v>
+        <v>16.15568401831385</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>4680418.388658565</v>
+        <v>16.17840394724914</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3282517.564163066</v>
+        <v>16.20176113517972</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>3684884.018154317</v>
+        <v>16.27275020161879</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>4086470.968292912</v>
+        <v>16.30094319713578</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1198353.697772671</v>
+        <v>16.11313209632917</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>3458488.778344147</v>
+        <v>16.25739113435595</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>3981260.008517939</v>
+        <v>16.302184043906</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>569636.8406464132</v>
+        <v>16.02107111471178</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1455519.06333764</v>
+        <v>16.09624120814164</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1690056.400696637</v>
+        <v>16.11983757946855</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>252292.7320879902</v>
+        <v>16.0143349526751</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>1999182.040347154</v>
+        <v>16.09246418740277</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>2122708.279789737</v>
+        <v>16.11906270040566</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>652246.9806282341</v>
+        <v>16.0610032479356</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>2993124.196436042</v>
+        <v>16.12404796884283</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>3205183.706779714</v>
+        <v>16.14533188560626</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>2017779.534825993</v>
+        <v>16.1552191026226</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>2324790.100481793</v>
+        <v>16.21799943299082</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>2382924.204828397</v>
+        <v>16.24201629160189</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>1016763.3139269</v>
+        <v>16.05626406793742</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>2212355.392970271</v>
+        <v>16.19592518062674</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>2441674.998811865</v>
+        <v>16.23736546422932</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>217972.2201128515</v>
+        <v>16.04989160195212</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>1045124.807092499</v>
+        <v>16.15651107583717</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>1193015.845939652</v>
+        <v>16.18923332315268</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-44035.28955472254</v>
+        <v>16.02921284880054</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>1135661.346725751</v>
+        <v>16.14081632803626</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>1298344.259124709</v>
+        <v>16.17759880171303</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>167474.2630403595</v>
+        <v>16.09549616684814</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>1806515.486877299</v>
+        <v>16.18556382103986</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>2032489.707729779</v>
+        <v>16.21503662244979</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1237410.722981333</v>
+        <v>16.23225360919388</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1499502.559064603</v>
+        <v>16.32548176802511</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1565923.24688194</v>
+        <v>16.36045009287191</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>427356.3328851263</v>
+        <v>16.10177500274154</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>1491429.930446656</v>
+        <v>16.29907802153786</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1615204.999315436</v>
+        <v>16.35687972723688</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>350200.5835112922</v>
+        <v>16.09618555542282</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>1232523.670658382</v>
+        <v>16.21522465873069</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>1365122.163182403</v>
+        <v>16.2525531364611</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>122238.7251131008</v>
+        <v>16.08152907559417</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1389887.312101268</v>
+        <v>16.20687976519666</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>1497760.747573744</v>
+        <v>16.24876689590871</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>533715.1608103572</v>
+        <v>16.15539203268262</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>2209274.733886673</v>
+        <v>16.25659675118321</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>2415468.071539085</v>
+        <v>16.2902024110348</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>1695412.235825262</v>
+        <v>16.3297356505991</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1938178.961670934</v>
+        <v>16.43775850078288</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1999648.543048709</v>
+        <v>16.47882982814624</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>667737.8257386915</v>
+        <v>16.19431108341362</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>1818936.674831446</v>
+        <v>16.41380366325328</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1931623.516230458</v>
+        <v>16.48012267740238</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>344819.1615642362</v>
+        <v>16.0134815916397</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>1898939.41111237</v>
+        <v>16.08621192387102</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>2132649.350079834</v>
+        <v>16.10834403856266</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-123103.6486578808</v>
+        <v>16.00755606652098</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>2264899.954741564</v>
+        <v>16.08332666707553</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>2408649.353999743</v>
+        <v>16.1082643728726</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>449365.4927384341</v>
+        <v>16.05275697951307</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>3570989.906750076</v>
+        <v>16.11390742664054</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>3821179.3686391</v>
+        <v>16.13386338758002</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>2352123.362982346</v>
+        <v>16.14087058603925</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>2843312.262774983</v>
+        <v>16.20240805801742</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>2849941.317141585</v>
+        <v>16.22491075585327</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>575825.6866013771</v>
+        <v>16.04594288699888</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>2547336.683357169</v>
+        <v>16.18094473269586</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>2700647.24858375</v>
+        <v>16.21987714388957</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-17607.70580760605</v>
+        <v>16.03507647015415</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>1175174.218729841</v>
+        <v>16.13799121736158</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>1315920.307355933</v>
+        <v>16.16873738823</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-308834.5058873692</v>
+        <v>16.01584960181724</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>1198679.056349162</v>
+        <v>16.12378573956506</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>1380107.30719538</v>
+        <v>16.15833414718868</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>-276.5035184650289</v>
+        <v>16.08015038638333</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>2057191.462474013</v>
+        <v>16.16726962032543</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>2319434.865312776</v>
+        <v>16.1949544080487</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1395981.732887863</v>
+        <v>16.20730391934176</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>1741344.819937832</v>
+        <v>16.29822087008716</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1766925.359192993</v>
+        <v>16.33104242559262</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>192062.6560618413</v>
+        <v>16.08220597571861</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>1675091.468661562</v>
+        <v>16.2725119206485</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>1778233.295403209</v>
+        <v>16.32690972471007</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>205648.3893704994</v>
+        <v>16.07531636908736</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>1369664.927882894</v>
+        <v>16.1899739704812</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>1536752.334240658</v>
+        <v>16.22514079397691</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>-118049.9796826821</v>
+        <v>16.06135255266171</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1413929.801195321</v>
+        <v>16.18229276307288</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>1578053.418335601</v>
+        <v>16.22174015943175</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>340733.9163245065</v>
+        <v>16.13305622108694</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>2352651.354667271</v>
+        <v>16.23071011738036</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>2636415.58157064</v>
+        <v>16.26236216560208</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>1803882.534433211</v>
+        <v>16.29483332364671</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>2117668.515405219</v>
+        <v>16.39973887427027</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>2217385.23712716</v>
+        <v>16.43840919780606</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>465836.2562796648</v>
+        <v>16.16505592799235</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>1948840.554975855</v>
+        <v>16.37635550775964</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>2097302.873555578</v>
+        <v>16.43892685769482</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.383</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>18.185</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.548</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.713</v>
+        <v>16.545</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.611</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.616</v>
+        <v>10.846</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.01332534743236</v>
+        <v>15.0919737104475</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.08192176344947</v>
+        <v>29.51808550328133</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.10399550911642</v>
+        <v>34.15270139428898</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16.00511958792628</v>
+        <v>3.629502509133141</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.07643114077744</v>
+        <v>35.46154328243615</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.10131326976273</v>
+        <v>39.00342990158113</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.04833256887856</v>
+        <v>10.3752380866719</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.10587308971951</v>
+        <v>48.23426468625569</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.12578955697197</v>
+        <v>52.90372894645665</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.13335029755961</v>
+        <v>53.39898019881315</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.19084088993433</v>
+        <v>58.3837016884811</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.21374062579141</v>
+        <v>60.78922464692681</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.04383124720815</v>
+        <v>28.68225532134053</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.1712856377666</v>
+        <v>59.36740183658291</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16.21004573263112</v>
+        <v>66.39507307513853</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.03894599456065</v>
+        <v>16.96311185043941</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.13622628775689</v>
+        <v>41.23941701310523</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>16.16676950616369</v>
+        <v>46.18098293902301</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.01752228899832</v>
+        <v>7.04005902229674</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.11936767918136</v>
+        <v>43.90836795026343</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.15370259047472</v>
+        <v>50.76350769717805</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.07871593020328</v>
+        <v>12.77274762593177</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.16090531178435</v>
+        <v>57.84555605380272</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.18842330162739</v>
+        <v>65.69954008754179</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>16.20251947557648</v>
+        <v>62.48520144988922</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>16.28782806759668</v>
+        <v>73.10356754807529</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16.32098730722992</v>
+        <v>77.35487948716951</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16.08443339646516</v>
+        <v>27.84974791530977</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>16.26446184034999</v>
+        <v>75.17485521681968</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.31839451941806</v>
+        <v>82.53000825190978</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.07572331190677</v>
+        <v>24.67670839478401</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>16.18426673826479</v>
+        <v>52.93413404082698</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>16.21902463024161</v>
+        <v>58.61685073211288</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16.05949344558769</v>
+        <v>16.02363442649922</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16.17380439837698</v>
+        <v>59.57110574287017</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16.21281017419433</v>
+        <v>66.0792506656792</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.12785872620469</v>
+        <v>27.80639935255855</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>16.22014682537132</v>
+        <v>78.43912060680378</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.25144614997949</v>
+        <v>87.45851559887473</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>16.28477819340548</v>
+        <v>93.64614179203804</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>16.38351059714674</v>
+        <v>104.0173199023896</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>16.42227901562159</v>
+        <v>110.8422940687791</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.1623146551302</v>
+        <v>45.65513351747523</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>16.36246046165642</v>
+        <v>101.163363940903</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>16.42418253945648</v>
+        <v>110.6615693985696</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.02061792814646</v>
+        <v>13.50804461857056</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16.10203712950474</v>
+        <v>39.28980154718018</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>16.12580228231457</v>
+        <v>42.91954716764339</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16.0169910146676</v>
+        <v>6.583704779952425</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>16.1018830397251</v>
+        <v>49.52605191744854</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>16.12864020823765</v>
+        <v>51.74524502731283</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.06663801427365</v>
+        <v>15.67842649850671</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.13515818385337</v>
+        <v>64.79950924437196</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>16.15656489611205</v>
+        <v>68.14529926480157</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>16.16586781151949</v>
+        <v>61.30845801237155</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>16.23511186511053</v>
+        <v>75.2647028158173</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>16.25875315466062</v>
+        <v>76.60500377205554</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.05984844771287</v>
+        <v>23.18146750900188</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16.21095264071214</v>
+        <v>70.24245605149623</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>16.25274971622265</v>
+        <v>73.85063438624334</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.04731653280063</v>
+        <v>13.91146819779427</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16.16243990432374</v>
+        <v>44.81843269980418</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>16.19553837175581</v>
+        <v>49.05791277228036</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16.02992281290232</v>
+        <v>5.185056775896941</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>16.15074673642821</v>
+        <v>48.79431332248901</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>16.18790852791962</v>
+        <v>54.3481630834307</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.10060204958112</v>
+        <v>15.99326682528304</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>16.1981336385309</v>
+        <v>68.2052814343604</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>16.22790743635045</v>
+        <v>74.87057277000763</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>16.24392673983919</v>
+        <v>68.18807227886221</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.34606479041742</v>
+        <v>82.57314868885668</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>16.38077368710617</v>
+        <v>85.4466796488602</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>16.10430629296362</v>
+        <v>25.47986767139784</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>16.31716474937654</v>
+        <v>82.24564767985093</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>16.37572561744271</v>
+        <v>86.99031012041939</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.10049951533036</v>
+        <v>19.46627891522125</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>16.22872685834934</v>
+        <v>54.37683321072957</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>16.26671365154871</v>
+        <v>59.26624281028337</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16.08944409653807</v>
+        <v>10.89944834605593</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>16.22478085182452</v>
+        <v>62.15128448993392</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>16.26736007418056</v>
+        <v>66.87374711075086</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>16.16789939167842</v>
+        <v>26.64110035869373</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>16.27718807175098</v>
+        <v>85.04427058260819</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>16.31134944221989</v>
+        <v>92.08362293847725</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>16.35147960475314</v>
+        <v>93.72405393444993</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>16.46923082010634</v>
+        <v>110.2677694196271</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16.51036907276018</v>
+        <v>113.1088011762501</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.20651429695596</v>
+        <v>39.52744421176644</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>16.44280690127542</v>
+        <v>106.280547204035</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16.51041113069759</v>
+        <v>111.1601069663482</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.02061792814646</v>
+        <v>13.50804461857056</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>16.10203712950474</v>
+        <v>39.28980154718018</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>16.12580228231457</v>
+        <v>42.91954716764339</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>16.0169910146676</v>
+        <v>6.583704779952425</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16.1018830397251</v>
+        <v>49.52605191744854</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>16.12864020823765</v>
+        <v>51.74524502731283</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.06663801427365</v>
+        <v>15.67842649850671</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16.13515818385337</v>
+        <v>64.79950924437196</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>16.15656489611205</v>
+        <v>68.14529926480157</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>16.16586781151949</v>
+        <v>61.30845801237155</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>16.23511186511053</v>
+        <v>75.2647028158173</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>16.25875315466062</v>
+        <v>76.60500377205554</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.05984844771287</v>
+        <v>23.18146750900188</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>16.21095264071214</v>
+        <v>70.24245605149623</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>16.25274971622265</v>
+        <v>73.85063438624334</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.04731653280063</v>
+        <v>13.91146819779427</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16.16243990432374</v>
+        <v>44.81843269980418</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>16.19553837175581</v>
+        <v>49.05791277228036</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>16.02992281290232</v>
+        <v>5.185056775896941</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>16.15074673642821</v>
+        <v>48.79431332248901</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>16.18790852791962</v>
+        <v>54.3481630834307</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.10060204958112</v>
+        <v>15.99326682528304</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.1981336385309</v>
+        <v>68.2052814343604</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>16.22790743635045</v>
+        <v>74.87057277000763</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>16.24392673983919</v>
+        <v>68.18807227886221</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>16.34606479041742</v>
+        <v>82.57314868885668</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>16.38077368710617</v>
+        <v>85.4466796488602</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.10430629296362</v>
+        <v>25.47986767139784</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.31716474937654</v>
+        <v>82.24564767985093</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>16.37572561744271</v>
+        <v>86.99031012041939</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.10049951533036</v>
+        <v>19.46627891522125</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>16.22872685834934</v>
+        <v>54.37683321072957</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>16.26671365154871</v>
+        <v>59.26624281028337</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.08944409653807</v>
+        <v>10.89944834605593</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>16.22478085182452</v>
+        <v>62.15128448993392</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>16.26736007418056</v>
+        <v>66.87374711075086</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>16.16789939167842</v>
+        <v>26.64110035869373</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>16.27718807175098</v>
+        <v>85.04427058260819</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>16.31134944221989</v>
+        <v>92.08362293847725</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>16.35147960475314</v>
+        <v>93.72405393444993</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>16.46923082010634</v>
+        <v>110.2677694196271</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>16.51036907276018</v>
+        <v>113.1088011762501</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.20651429695596</v>
+        <v>39.52744421176644</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>16.44280690127542</v>
+        <v>106.280547204035</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>16.51041113069759</v>
+        <v>111.1601069663482</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.97856525807361</v>
+        <v>12.51470510593493</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>16.04785300030422</v>
+        <v>21.91636548442942</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.07007889530165</v>
+        <v>25.63539681681279</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>15.96699018960364</v>
+        <v>2.191988821382855</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.03896925926654</v>
+        <v>27.65647977029318</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.06400544101396</v>
+        <v>30.32914328925407</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>16.01283657114721</v>
+        <v>5.039100230039635</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>16.07090904112988</v>
+        <v>37.38866655338576</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.0909469867237</v>
+        <v>41.21812156384917</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>16.08996573506173</v>
+        <v>44.4393468295083</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.14781277701817</v>
+        <v>45.76124342235245</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16.17080311626659</v>
+        <v>48.15467908506118</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>15.99867828690248</v>
+        <v>26.39841472882421</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>16.12743592614857</v>
+        <v>48.87485690286317</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>16.1664342872296</v>
+        <v>54.28207944053941</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15.99679647543073</v>
+        <v>13.14034310203783</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>16.09514024619781</v>
+        <v>33.05043765824058</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>16.12593667187334</v>
+        <v>37.40127143368007</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15.97100069743465</v>
+        <v>4.440325572172251</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16.07389869128962</v>
+        <v>35.80354617203246</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16.10849509452164</v>
+        <v>42.20642757017941</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.03557369604418</v>
+        <v>6.718761082015222</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>16.11860392240287</v>
+        <v>47.04524122840299</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>16.14632975369383</v>
+        <v>54.44768981277268</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>16.15002698177442</v>
+        <v>52.21464662936862</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>16.23601603367038</v>
+        <v>60.03352829210223</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>16.26938032300562</v>
+        <v>64.72473286697338</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.02960033498858</v>
+        <v>23.52692149054062</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>16.21161420063545</v>
+        <v>63.91125809997982</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>16.26596165576835</v>
+        <v>70.24762213108389</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.0372147299441</v>
+        <v>24.06372171456012</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>16.14704796823402</v>
+        <v>48.48489670895835</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>16.18214345606462</v>
+        <v>53.6244849517151</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.01682033411246</v>
+        <v>14.19163025625312</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>16.1324340470406</v>
+        <v>53.13567929989041</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16.17179492306084</v>
+        <v>59.12250184015281</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>16.08855783279238</v>
+        <v>23.83013936908658</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>16.18188936414469</v>
+        <v>70.50350384404935</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>16.21347232204219</v>
+        <v>79.01392782811949</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>16.23736461060286</v>
+        <v>85.79777787475942</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>16.33705204232547</v>
+        <v>93.66163096638991</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.37612768715736</v>
+        <v>100.6002815009879</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>16.11240844635655</v>
+        <v>42.86041294178732</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>16.31494594331663</v>
+        <v>92.46062785999329</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>16.37723891716823</v>
+        <v>100.8721318663681</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.02432669874019</v>
+        <v>13.93939907491834</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.09371869586317</v>
+        <v>31.33954334923283</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.11570149741694</v>
+        <v>35.879437678497</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>16.01758709361943</v>
+        <v>4.451097437723712</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.08979551005778</v>
+        <v>39.87019760945988</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.11456269332345</v>
+        <v>43.28613325059321</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.06025745325468</v>
+        <v>11.80753378504141</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>16.11852784334497</v>
+        <v>52.99960873021654</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>16.13835273182154</v>
+        <v>57.489683532101</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>16.14811080265849</v>
+        <v>53.4656168448351</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>16.20671110124389</v>
+        <v>59.99069509132591</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>16.22957366327533</v>
+        <v>62.14812029009414</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.05818098917927</v>
+        <v>24.59365553479685</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.18708794446663</v>
+        <v>59.09731340883619</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.22567494579574</v>
+        <v>65.5004014011225</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>16.05568947305102</v>
+        <v>18.18877098792324</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>16.15400498986849</v>
+        <v>45.95781668243209</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>16.18440673020865</v>
+        <v>49.31285181797604</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.03639976674491</v>
+        <v>8.219597543915237</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>16.13941212535058</v>
+        <v>49.35545976546292</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>16.17357105820135</v>
+        <v>54.57799027399999</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16.09675240397464</v>
+        <v>15.43784672658123</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16.17989150628644</v>
+        <v>64.40605490491241</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.20726874118886</v>
+        <v>70.75614903802177</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16.22490538548772</v>
+        <v>66.90782003745288</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>16.31165796139364</v>
+        <v>79.69688814022496</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>16.34473692713679</v>
+        <v>82.5683658298525</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.10632482050851</v>
+        <v>29.73256009891629</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>16.28824372518038</v>
+        <v>81.7496522556028</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>16.0918797527312</v>
+        <v>21.47194761139266</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>16.20145865811983</v>
+        <v>52.82066713729423</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>16.23607993353319</v>
+        <v>57.43661407374975</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>16.07773174325932</v>
+        <v>12.39064032371109</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>16.193210081358</v>
+        <v>59.65600546370424</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>16.23204534684159</v>
+        <v>65.19191971484743</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.14529377864316</v>
+        <v>24.70831512705755</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>16.23853193489978</v>
+        <v>78.73366024305648</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>16.26969489663052</v>
+        <v>86.83256804120458</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16.30640327285778</v>
+        <v>91.90321898467093</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>16.40659299042179</v>
+        <v>104.4667136018466</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>16.44528421381846</v>
+        <v>110.3565398824419</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>16.18344507754535</v>
+        <v>41.66633335730375</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>16.38548221113915</v>
+        <v>101.3910709945225</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>16.44694316784686</v>
+        <v>109.4756022334378</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16.02684836454333</v>
+        <v>13.38941253325793</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>16.13380941249878</v>
+        <v>35.02355241307404</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.1654467834077</v>
+        <v>38.55930521435952</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.02081674640478</v>
+        <v>5.961343172735971</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>16.13229843128184</v>
+        <v>46.64163530735199</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>16.16791624856102</v>
+        <v>48.19806488730348</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>16.08617437066865</v>
+        <v>14.33032664102028</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>16.17615918262623</v>
+        <v>61.02540832588098</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>16.20465646081145</v>
+        <v>63.64743196004359</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>16.21694305422207</v>
+        <v>52.5719260155872</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>16.30804879990922</v>
+        <v>63.85119841049018</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>16.3399477311021</v>
+        <v>64.73060799475938</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16.07854929395791</v>
+        <v>17.03780271916055</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.27716111695468</v>
+        <v>56.69158385712661</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.33271482910313</v>
+        <v>60.09487137420789</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>16.07281018905961</v>
+        <v>21.80187741939029</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.22413942041602</v>
+        <v>53.16446321211617</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>16.26806253177118</v>
+        <v>54.89765331835077</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.04914997544748</v>
+        <v>8.303405945366977</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>16.20792611073226</v>
+        <v>54.88249856254973</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>16.25723629386054</v>
+        <v>57.33553632102386</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>16.14153845262062</v>
+        <v>20.88244992564779</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>16.26971028709458</v>
+        <v>75.3796795086825</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>16.30921725352963</v>
+        <v>79.0664554873195</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>16.33317167608426</v>
+        <v>72.56383659970172</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>16.46764484689846</v>
+        <v>88.75657272508826</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.51423090913559</v>
+        <v>89.67244715121262</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>16.15093310465048</v>
+        <v>32.48290452804137</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.43086271141707</v>
+        <v>89.47923809835821</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16.5084422618237</v>
+        <v>90.58565409642539</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>16.14094062326821</v>
+        <v>21.92731021455619</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.3094743418204</v>
+        <v>57.40187520450987</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>16.35979362202089</v>
+        <v>60.18867752424534</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>16.12574082129089</v>
+        <v>8.017819472365391</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>16.30356452234094</v>
+        <v>61.6452976916183</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>16.35996426414494</v>
+        <v>63.87705583981074</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>16.22841786166032</v>
+        <v>24.93474219400585</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>16.3720208546887</v>
+        <v>85.24944505641059</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>16.4172684114119</v>
+        <v>89.91884209017148</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.47276898645016</v>
+        <v>91.60730225105911</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>16.6277754734277</v>
+        <v>108.8631395211473</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>16.68279453971397</v>
+        <v>109.4147743098007</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>16.28362963194287</v>
+        <v>38.39516545594837</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>16.59431012074818</v>
+        <v>105.1233360308971</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>16.68372064942617</v>
+        <v>107.3507469306975</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>15.99579864742332</v>
+        <v>1.400310812717452</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16.10018715588447</v>
+        <v>14.63693970398626</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>16.13211891498436</v>
+        <v>17.74319912331902</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>15.98533757215788</v>
+        <v>-8.354019073413392</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>16.0939154122793</v>
+        <v>22.10995556062917</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.12990764919921</v>
+        <v>23.24402849018924</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.05217713105843</v>
+        <v>-3.569239751261884</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>16.13979823492781</v>
+        <v>33.67888967224049</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.16859350090002</v>
+        <v>36.08404673128621</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16.17486873053048</v>
+        <v>37.56062879823342</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>16.26234641333539</v>
+        <v>44.0576612827827</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>16.2943541862078</v>
+        <v>44.62688420327996</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>16.03777455735822</v>
+        <v>13.17086958313179</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.23168554613744</v>
+        <v>41.53161196363443</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>16.28780080047382</v>
+        <v>45.42268837983327</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.02453218547402</v>
+        <v>9.386312603283338</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.17251878084172</v>
+        <v>31.2479516446996</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>16.21690242959884</v>
+        <v>36.17405044432773</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>15.99436277661917</v>
+        <v>-0.5676585946477726</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>16.14936579114224</v>
+        <v>34.39090933230002</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.19925161991316</v>
+        <v>40.07633081386454</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.08911874677618</v>
+        <v>6.452645270271207</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>16.21421916149537</v>
+        <v>50.34321202902862</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>16.25418618891137</v>
+        <v>57.02685899418365</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>16.26809181544603</v>
+        <v>53.40717970774314</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>16.3978500005374</v>
+        <v>63.72229815568445</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>16.44468445396402</v>
+        <v>67.07031783200176</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.08740321066011</v>
+        <v>20.40013091660101</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>16.36122329711129</v>
+        <v>64.30708071470916</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>16.43968283913896</v>
+        <v>69.95868846922575</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>16.09486978815612</v>
+        <v>19.38028520162396</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>16.26006476614591</v>
+        <v>46.62685391505257</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.31082932375718</v>
+        <v>51.56427913807004</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16.07335390329234</v>
+        <v>10.47569506725417</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>16.24740825552574</v>
+        <v>54.15978894380427</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>16.30436647942278</v>
+        <v>58.2582366271954</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16.17826016885509</v>
+        <v>24.12440069811228</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>16.31879481497564</v>
+        <v>75.36185697042191</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>16.36448867319222</v>
+        <v>81.83167940025845</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>16.41054709627939</v>
+        <v>87.50271630153227</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>16.5607995095949</v>
+        <v>99.27424113366749</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>16.6160578414715</v>
+        <v>101.5183364225412</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>16.22294990128474</v>
+        <v>41.15123801059396</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>16.5275262225494</v>
+        <v>96.41881384574623</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>16.61778970602522</v>
+        <v>101.3882361093929</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>16.00893658046883</v>
+        <v>8.164695418275072</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.08903389300567</v>
+        <v>24.47027414238229</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>16.11417891258097</v>
+        <v>28.44589063448886</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>15.99985873530369</v>
+        <v>-2.853543302862581</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.08320500061087</v>
+        <v>31.43230983762733</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.11152870192536</v>
+        <v>34.10430575461319</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.05028200544411</v>
+        <v>3.665612574675093</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.11753988141809</v>
+        <v>44.29710529170113</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.14020941524662</v>
+        <v>48.12824056437046</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.14681385335601</v>
+        <v>44.99775935994684</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.21442615105832</v>
+        <v>50.62826815713969</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>16.24044770663938</v>
+        <v>52.27597604869852</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.0426808228743</v>
+        <v>16.909907443337</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.19147198419105</v>
+        <v>49.8383580086243</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.23560758666212</v>
+        <v>54.94874358614111</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>16.04008119746742</v>
+        <v>10.19518116222119</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>16.15357714672547</v>
+        <v>37.27904710593769</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>16.18838764969719</v>
+        <v>40.06064505054228</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>16.01616272336197</v>
+        <v>-2.339200053118018</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>16.13507909712644</v>
+        <v>38.14590157799235</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>16.17418285876002</v>
+        <v>42.63967942826442</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.08733153464913</v>
+        <v>4.863580694953834</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>16.18330567896669</v>
+        <v>53.74622178422601</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>16.21464383396488</v>
+        <v>59.46909616187084</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16.22910333880116</v>
+        <v>56.37246971500494</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.32922234213285</v>
+        <v>68.54967109839802</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>16.36694552163691</v>
+        <v>70.86801462377747</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>16.091814499262</v>
+        <v>20.25816517871084</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>16.30181956016764</v>
+        <v>71.53914997799168</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>16.36326612627949</v>
+        <v>75.31210504036886</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>16.08419942821737</v>
+        <v>15.2379753027905</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.2107290807167</v>
+        <v>46.28055784572901</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>16.25041993319116</v>
+        <v>50.3758558938395</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>16.0663180270274</v>
+        <v>2.770221580673047</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.19966055311183</v>
+        <v>50.01423949427317</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.24417314276048</v>
+        <v>54.76876357076788</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16.14570784237391</v>
+        <v>15.53193197694586</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>16.25336902715958</v>
+        <v>69.99910105699799</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>16.28908608068962</v>
+        <v>77.42425429929797</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>16.32604170748412</v>
+        <v>83.10549704332874</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>16.44171080214104</v>
+        <v>95.33928799911365</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>16.48591513064411</v>
+        <v>100.3585125702767</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>16.18364855132956</v>
+        <v>33.32369107999121</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.41693743592439</v>
+        <v>93.12100992111139</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>16.48740433654962</v>
+        <v>99.8070339793281</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.06486702659887</v>
+        <v>13.23172537868059</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.16189256614711</v>
+        <v>39.83911169218655</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.19068164647262</v>
+        <v>44.13276941547812</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.06468345424868</v>
+        <v>7.474662118829171</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>16.16587379741229</v>
+        <v>54.55369033364268</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>16.19831137911966</v>
+        <v>56.61595372977033</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.12132639705041</v>
+        <v>19.76758137003488</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>16.20301380433367</v>
+        <v>71.84596450724904</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>16.228969948859</v>
+        <v>75.00674121655774</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>16.25092554169665</v>
+        <v>66.65966342324352</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>16.33376511290018</v>
+        <v>81.67356373527981</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.36263675486331</v>
+        <v>82.46540988935574</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>16.1266034154389</v>
+        <v>28.9852961891401</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.30675178363399</v>
+        <v>75.96191193054028</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>16.35736038919424</v>
+        <v>81.66784000038598</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>16.10674039301696</v>
+        <v>8.968819942823432</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>16.243872522163</v>
+        <v>40.94010088949454</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>16.28381397341871</v>
+        <v>44.68602857002748</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.09128019526404</v>
+        <v>-3.037957866943215</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.2352348766497</v>
+        <v>44.72101787455289</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.28011013316732</v>
+        <v>48.88207576320654</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.1722852387792</v>
+        <v>10.60482828927273</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.28850420681952</v>
+        <v>65.86377979828698</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>16.32446194291179</v>
+        <v>71.12748915180916</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.35737818712795</v>
+        <v>66.16196688019775</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>16.47943486186253</v>
+        <v>80.93401557343545</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>16.52158579608916</v>
+        <v>82.88110866465837</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>16.19370621740541</v>
+        <v>24.37203913186317</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.44736410481847</v>
+        <v>81.49183954838648</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>16.51798279563065</v>
+        <v>86.07533521208549</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>16.16481824712023</v>
+        <v>11.44876130885623</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>16.3174263548518</v>
+        <v>47.59876462259049</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>16.36311291276445</v>
+        <v>52.10529283470395</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>16.15683369710471</v>
+        <v>2.2269530751775</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>16.31792206848348</v>
+        <v>56.88514778174833</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>16.36916598704244</v>
+        <v>60.54440720817967</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>16.24728468201868</v>
+        <v>19.13678043730908</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>16.37738441768788</v>
+        <v>80.12302100407501</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>16.4184991666289</v>
+        <v>86.04874651410469</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.47913815021002</v>
+        <v>88.35287995028391</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>16.61964762307967</v>
+        <v>104.4192165964212</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>16.66937182320476</v>
+        <v>105.1305237494219</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>16.3093044643345</v>
+        <v>33.8081586128185</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>16.59062045344434</v>
+        <v>100.7765073824739</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>16.67187008620319</v>
+        <v>105.5255413034075</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>15.95904288522283</v>
+        <v>0.7205230622097663</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>16.04671484757878</v>
+        <v>12.82859698239525</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.0731087610171</v>
+        <v>15.95747602220576</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.94635581347372</v>
+        <v>-5.855133818751741</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.03756762829724</v>
+        <v>17.93246691402684</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.06730684644355</v>
+        <v>20.29508893937965</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.00493140023112</v>
+        <v>-4.658944999765781</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>16.07852914571537</v>
+        <v>26.45424108745274</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>16.10231840928354</v>
+        <v>29.98313649727716</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.09711273349766</v>
+        <v>31.17741161240078</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>16.17038550448663</v>
+        <v>35.48290057093615</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.19669049412378</v>
+        <v>37.13411261799718</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>15.98010745101043</v>
+        <v>3.511589987379077</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>16.14283434771502</v>
+        <v>32.10244882549598</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.18929395188935</v>
+        <v>34.21857476372262</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>15.97000414975278</v>
+        <v>3.533255951798902</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>16.09427825901041</v>
+        <v>22.48261919833045</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.13111739215453</v>
+        <v>28.48978973399376</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>15.93945805576838</v>
+        <v>0.5170943030494772</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>16.06964896395922</v>
+        <v>27.50318956641618</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>16.11104260276992</v>
+        <v>35.22172129705885</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.02234346715518</v>
+        <v>3.428154127800569</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>16.1274064652503</v>
+        <v>39.65426693286813</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>16.16056781505428</v>
+        <v>48.31294751551036</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>16.15792735013795</v>
+        <v>40.86534133082302</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.26663525220001</v>
+        <v>48.96481416910998</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>16.30532767620227</v>
+        <v>53.24913907551275</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.00367230977562</v>
+        <v>6.722786733404293</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.23345208555318</v>
+        <v>47.51339395987907</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.29869071341311</v>
+        <v>53.80906597371054</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>16.03058842966134</v>
+        <v>16.78766027833349</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.16937321531682</v>
+        <v>39.51873965466552</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.21165347324573</v>
+        <v>45.88145526281019</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>16.00706708301942</v>
+        <v>12.11040179402327</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.15333192018666</v>
+        <v>46.55893153445089</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>16.20075434795043</v>
+        <v>53.21047363589933</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>16.09845469041545</v>
+        <v>21.66650024973656</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.21653918830852</v>
+        <v>63.91240076082375</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.25458366980443</v>
+        <v>72.7152457593544</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>16.27900013013913</v>
+        <v>75.15351342719427</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.404966785808</v>
+        <v>84.84763198096221</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>16.45083400983255</v>
+        <v>91.5462289757092</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>16.118807845035</v>
+        <v>32.62233410708789</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>16.37454522992706</v>
+        <v>81.92966957699795</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.44984543826352</v>
+        <v>88.95149532686567</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>15.9965538425405</v>
+        <v>2.04562327681756</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>16.08095619611856</v>
+        <v>21.87162745112086</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.10548773583195</v>
+        <v>24.3361558435636</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>15.98950256510364</v>
+        <v>-5.199649331871898</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>16.07746757264604</v>
+        <v>29.22374269450255</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.10506861842233</v>
+        <v>30.56830675468112</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.04257737588367</v>
+        <v>-0.6557859719350585</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>16.11357105490002</v>
+        <v>40.53922555663134</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.13565071324897</v>
+        <v>42.98400320101846</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.13849797897429</v>
+        <v>36.9715718903121</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.21013746945347</v>
+        <v>46.25409372454808</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>16.23460885185103</v>
+        <v>47.21711753462448</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.02763518614404</v>
+        <v>4.177348053601831</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.18427335686244</v>
+        <v>42.03026791647677</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>16.22738936776276</v>
+        <v>43.12639204124547</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16.0238175223112</v>
+        <v>12.43362998214721</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>16.14324346517308</v>
+        <v>39.6974322821497</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>16.17744512909426</v>
+        <v>41.9586814623742</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>16.0020189820394</v>
+        <v>4.06879320412086</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>16.12731507093514</v>
+        <v>42.29262770331942</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>16.16569051491453</v>
+        <v>46.00814596747821</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>16.07701101490614</v>
+        <v>12.04855115648119</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>16.1781440718886</v>
+        <v>58.94776841973873</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>16.20888789025304</v>
+        <v>63.87004367170452</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.21832008300959</v>
+        <v>58.21925559596102</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>16.32412619998123</v>
+        <v>71.04219814014273</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>16.36009001352387</v>
+        <v>72.55326126399285</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>16.07229617248414</v>
+        <v>20.56835242502198</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>16.29310167043888</v>
+        <v>71.83427470754278</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>16.35357965680336</v>
+        <v>73.32135706330195</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>16.08166496465743</v>
+        <v>20.17447011778383</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>16.21476312114185</v>
+        <v>51.38262117785403</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>16.2540741302975</v>
+        <v>54.54393100426135</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>16.06655395165758</v>
+        <v>9.634238407340449</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>16.20699314434146</v>
+        <v>55.56479619491381</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>16.25103026530801</v>
+        <v>58.75170070309381</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>16.14952116437849</v>
+        <v>23.36996716776432</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>16.26292177523938</v>
+        <v>76.49370871442582</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>16.29825101365354</v>
+        <v>82.03650668468538</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>16.33329382338066</v>
+        <v>84.46652084141513</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>16.45539866655066</v>
+        <v>99.63981513356553</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>16.49808136266219</v>
+        <v>101.9427315581027</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>16.18165021274051</v>
+        <v>35.5220860686469</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>16.42691025993918</v>
+        <v>96.54847425054753</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.49683753205656</v>
+        <v>98.92879237052463</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>15.96554068540094</v>
+        <v>3.667857212248196</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.04358221485594</v>
+        <v>14.95408384824588</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.06659732029648</v>
+        <v>16.94782028900759</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.95646931503368</v>
+        <v>-3.013047207120929</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16.0376901097229</v>
+        <v>20.90926711939766</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.06359668414899</v>
+        <v>21.69750849638289</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.00789170686724</v>
+        <v>-2.316565458170876</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.07343252640804</v>
+        <v>29.05357305836274</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>16.094155076847</v>
+        <v>31.01191547729039</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>16.09037747224622</v>
+        <v>32.61437471679781</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.15588335330659</v>
+        <v>36.7499509248118</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>16.17855345117167</v>
+        <v>38.19123791337086</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>15.9867691216264</v>
+        <v>11.31447295379513</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>16.13165078443097</v>
+        <v>35.60041434898481</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>16.17211548582461</v>
+        <v>37.15382225628215</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>15.97533997864092</v>
+        <v>-1.895705175991734</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>16.08590847483939</v>
+        <v>13.68457128336174</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>16.11805296407563</v>
+        <v>18.7758444179168</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>15.95106835759581</v>
+        <v>-6.934386291786657</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>16.06693359310491</v>
+        <v>17.21079749073802</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>16.10301674645815</v>
+        <v>23.75676943365569</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.02394824775146</v>
+        <v>-5.297967142834812</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>16.11745615244669</v>
+        <v>28.60979025431991</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>16.14636250055502</v>
+        <v>36.01867122849181</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.14514312323168</v>
+        <v>31.27245116555221</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.24221040757262</v>
+        <v>35.65975449881257</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>16.27565958693449</v>
+        <v>40.62318722311687</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>16.00861838949173</v>
+        <v>3.569644497577402</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.21309731249045</v>
+        <v>36.41436932548321</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>16.2699650480604</v>
+        <v>42.21947516542415</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>16.03288961119173</v>
+        <v>14.11216246518147</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>16.15633419171177</v>
+        <v>34.97366271596323</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>16.19327341905786</v>
+        <v>39.94684917240411</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.01508618365173</v>
+        <v>5.376886385466095</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>16.14521153448038</v>
+        <v>38.99018712780403</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.18660840202516</v>
+        <v>43.68498796575277</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>16.09531560786345</v>
+        <v>15.01072859806969</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>16.20037580195117</v>
+        <v>56.77835464454196</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>16.23358586723898</v>
+        <v>63.55994200862021</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>16.25715831559128</v>
+        <v>67.34067406852907</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>16.36955456067783</v>
+        <v>74.67921227950507</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>16.40929883461518</v>
+        <v>78.33058937132924</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>16.11528119872598</v>
+        <v>28.10973681406735</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.34278996386751</v>
+        <v>72.866948758557</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.40852892059208</v>
+        <v>77.30678961559994</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>15.93195041574386</v>
+        <v>-5.58843494145813</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>16.01233973948184</v>
+        <v>-1.539392895570566</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.03597630936295</v>
+        <v>-1.009090335460106</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>15.91846539312459</v>
+        <v>-11.38071386568914</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.00206908681194</v>
+        <v>2.373423054036868</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.02865481547661</v>
+        <v>1.980566027900293</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.97359920479174</v>
+        <v>-15.9895321144616</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>16.04105347100855</v>
+        <v>5.900253695978988</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.06231650851244</v>
+        <v>6.679068417358545</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.04980009426928</v>
+        <v>9.848349099226779</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.11700180564283</v>
+        <v>8.335354913773104</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.14031714745706</v>
+        <v>9.286193670753013</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.94179308432491</v>
+        <v>-4.627509683551063</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.09103785985111</v>
+        <v>8.40774942351034</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>16.13256408130666</v>
+        <v>7.105836638437451</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>15.93961835550403</v>
+        <v>-4.968263702529343</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>16.05363371949372</v>
+        <v>5.293553372216808</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.08669758253514</v>
+        <v>8.26151248638728</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>15.90971412475639</v>
+        <v>-8.553901132454664</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.0291206242786</v>
+        <v>8.125048672193296</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.0662090908796</v>
+        <v>12.65974135144916</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.98724096067229</v>
+        <v>-10.82667085889712</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.08359492531414</v>
+        <v>15.81879648841778</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.11330379176648</v>
+        <v>21.32230749745086</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.10253927886966</v>
+        <v>18.00494419429243</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>16.20232676864873</v>
+        <v>19.43896682402963</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>16.23679172248363</v>
+        <v>23.00918344718705</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.96018129576729</v>
+        <v>-3.071006672073514</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.17103257702711</v>
+        <v>21.59213952306826</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>16.22949117214648</v>
+        <v>23.94750190154208</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>16.00272726102713</v>
+        <v>13.9847038472971</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.13014447564808</v>
+        <v>29.54106358649375</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.16820656805701</v>
+        <v>32.61897859793426</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>15.97967008488565</v>
+        <v>3.705425674547927</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>16.11391991392488</v>
+        <v>30.03002760537832</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>16.15654688803022</v>
+        <v>32.98571214835558</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>16.06466032911383</v>
+        <v>10.53470949562976</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>16.17303891162453</v>
+        <v>45.18027528344632</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>16.20723361197482</v>
+        <v>50.26399484140661</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.22290411807391</v>
+        <v>55.24717040264382</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.33865325670629</v>
+        <v>59.87202463486116</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>16.37967772214845</v>
+        <v>62.8588954363084</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.07491716254366</v>
+        <v>22.88519097587955</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.30974347622125</v>
+        <v>59.34414503761678</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>16.37744687025652</v>
+        <v>61.02649670573285</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>15.99287195169978</v>
+        <v>9.65947915937056</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.07179403736878</v>
+        <v>21.8622454110002</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.09707219915844</v>
+        <v>25.9135872224504</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>15.98163964661231</v>
+        <v>-3.716054928185363</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>16.06366077881124</v>
+        <v>25.61048430654462</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.09215309300638</v>
+        <v>28.39507357862797</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.03285316466813</v>
+        <v>1.833821697898598</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>16.09903260511443</v>
+        <v>37.86084325781457</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>16.12183642840746</v>
+        <v>41.88223203856609</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>16.12524346494886</v>
+        <v>44.88149371478757</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>16.19121386435372</v>
+        <v>48.36016796893044</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>16.21728788969546</v>
+        <v>50.26901040067243</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.02171707361399</v>
+        <v>22.38324069664983</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.16836220784728</v>
+        <v>49.99988715012391</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.21275138959111</v>
+        <v>55.86506939272021</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>16.01559283231868</v>
+        <v>9.041261280413499</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>16.12755987081441</v>
+        <v>31.34769535298021</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>16.1625778774943</v>
+        <v>36.22439603784272</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.9885363059998</v>
+        <v>-3.023731280058199</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.10572880397093</v>
+        <v>31.6199807307495</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.14509106800384</v>
+        <v>38.26704508005766</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>16.06093269081866</v>
+        <v>2.051983136114069</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>16.15550383220416</v>
+        <v>45.60204814515058</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>16.1870486949841</v>
+        <v>53.30932936793338</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>16.19634068833141</v>
+        <v>51.07282737373978</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.29432357316724</v>
+        <v>60.3057555550474</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.33216225633881</v>
+        <v>64.42144867213</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.05978118573991</v>
+        <v>18.36033374176532</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.26699382241312</v>
+        <v>63.19981170771833</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.32883630732173</v>
+        <v>69.99382741581968</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>16.06059587284266</v>
+        <v>19.82387105428644</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.18559655730846</v>
+        <v>46.6526427972823</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>16.22548770623137</v>
+        <v>52.15824312293698</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>16.03965484800674</v>
+        <v>8.375503633012636</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>16.17127322702931</v>
+        <v>50.54417796085181</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>16.21603621293504</v>
+        <v>56.57894316488223</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>16.12021556937049</v>
+        <v>20.28354527538974</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>16.22647353436521</v>
+        <v>70.11866790429481</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>16.26239078600964</v>
+        <v>78.75805927779625</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>16.29442558121682</v>
+        <v>85.97065422937663</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>16.40793917276491</v>
+        <v>95.26256919977726</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16.45225441037021</v>
+        <v>101.5103420546689</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>16.1527612731415</v>
+        <v>39.26548279498566</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.38325700300099</v>
+        <v>93.29731790912238</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.45410701765367</v>
+        <v>101.8416224119068</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>16.00625062388058</v>
+        <v>15.68523019570033</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.08338520256141</v>
+        <v>38.42681538440714</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>16.10602570175295</v>
+        <v>42.47876961146355</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>16.00054156606841</v>
+        <v>9.732260312170874</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>16.08091471852225</v>
+        <v>46.53591192423632</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>16.10640629627192</v>
+        <v>49.80318293179525</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.04869395925874</v>
+        <v>17.1670655016836</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>16.11355782920439</v>
+        <v>60.13734818121403</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>16.13395094912914</v>
+        <v>64.46900766331161</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>16.13925243660399</v>
+        <v>60.77551657485411</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>16.20446235981042</v>
+        <v>72.71283383987246</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>16.2269318475984</v>
+        <v>75.07954563804121</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.03758222148697</v>
+        <v>25.25341458635204</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.18070192421247</v>
+        <v>69.09692334884518</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>16.22055040803372</v>
+        <v>72.87776577592042</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.02621181910544</v>
+        <v>10.28457333379251</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.13535167266971</v>
+        <v>37.22878504955646</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>16.16694425545019</v>
+        <v>42.65028521784373</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>16.00653671362838</v>
+        <v>4.360214865490294</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>16.12101900165212</v>
+        <v>41.23719238809497</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>16.15649214062284</v>
+        <v>48.34715633252056</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>16.07508797607239</v>
+        <v>12.3720077766403</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.16748899663542</v>
+        <v>57.68283157016482</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>16.19590942699846</v>
+        <v>65.82268301785267</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>16.20603464103179</v>
+        <v>58.03137992003391</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>16.30238899655814</v>
+        <v>70.55238560717267</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>16.33544961195295</v>
+        <v>74.20414734173247</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.07208351640932</v>
+        <v>18.08697767550775</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.27383184796409</v>
+        <v>69.95984423879113</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>16.32977348777953</v>
+        <v>76.04577434112757</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>16.07726351457598</v>
+        <v>15.83678580554233</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>16.19894046034988</v>
+        <v>46.02809229324172</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.23523322335939</v>
+        <v>52.13055702403091</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>16.06354165765626</v>
+        <v>9.447396390050658</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>16.1919122346874</v>
+        <v>53.20815489998278</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>16.23259323254581</v>
+        <v>59.67197255065164</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>16.13952257566635</v>
+        <v>22.48183741548952</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>16.24317450167233</v>
+        <v>73.27515491269631</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>16.27581325905863</v>
+        <v>81.89599396616833</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>16.3089593948355</v>
+        <v>82.68384159319407</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>16.42023667073395</v>
+        <v>97.11703876883116</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>16.45947983167201</v>
+        <v>102.9210363616018</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>16.16986727461022</v>
+        <v>33.95048113751297</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>16.39404384423975</v>
+        <v>94.09722748861402</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>16.45867845557208</v>
+        <v>101.0534180826955</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>16.03820943571002</v>
+        <v>17.23257548885276</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>16.1059963069994</v>
+        <v>38.34006023187346</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>16.12738459388495</v>
+        <v>43.1487406514041</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>16.03384680141988</v>
+        <v>7.549193553223853</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>16.10441832428856</v>
+        <v>48.19707342963432</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>16.1285232552083</v>
+        <v>51.59672408908287</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.0745187460612</v>
+        <v>17.62643345545993</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>16.13147284621902</v>
+        <v>63.76213890108396</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.15076829519924</v>
+        <v>68.31711915436895</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.16415380117952</v>
+        <v>64.3703987856418</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>16.22151817466877</v>
+        <v>73.46552301381439</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>16.24365167907608</v>
+        <v>75.38684380934488</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>16.07676023188204</v>
+        <v>32.27862475381971</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>16.2026759617166</v>
+        <v>72.54742860238817</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>16.24024130837737</v>
+        <v>79.71337218526736</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>16.06889243687379</v>
+        <v>13.83408542149878</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>16.16487103911669</v>
+        <v>43.49679765130837</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>16.19445047325421</v>
+        <v>47.4539109375887</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>16.05264452627529</v>
+        <v>2.434496081809323</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>16.1532475246802</v>
+        <v>46.47768654429463</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>16.18649228428739</v>
+        <v>52.04527109959041</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>16.11051039802697</v>
+        <v>11.48830983842432</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>16.19171068292669</v>
+        <v>63.43085332715206</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>16.21835618109948</v>
+        <v>70.16355932158638</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>16.23957665784811</v>
+        <v>66.66111670613834</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>16.32439812094922</v>
+        <v>79.50818426656403</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>16.35644071446733</v>
+        <v>82.43962840616088</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>16.12436725709328</v>
+        <v>26.72180610458268</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>16.30195464384458</v>
+        <v>81.6112674804711</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>16.35419532423542</v>
+        <v>87.60218499555103</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>16.1036300071048</v>
+        <v>17.40887913779501</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.21055567944431</v>
+        <v>50.79926094158326</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>16.24423071143363</v>
+        <v>55.89598607612172</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>16.09236664683289</v>
+        <v>8.097879978940606</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>16.20508576993893</v>
+        <v>58.43388661591358</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>16.24286982231771</v>
+        <v>64.14003047072852</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>16.15726764386947</v>
+        <v>21.79619494559563</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>16.24828360383745</v>
+        <v>78.94076673017601</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>16.27860400523306</v>
+        <v>87.25390368382668</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>16.3182617945547</v>
+        <v>92.4572085396556</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>16.41613703655083</v>
+        <v>105.2791021915211</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>16.45362256584546</v>
+        <v>110.5863343916826</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>16.19880280018954</v>
+        <v>39.10066283151033</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>16.39594334202009</v>
+        <v>102.133878097269</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.45575507081017</v>
+        <v>110.6188960784336</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>16.01302785425509</v>
+        <v>21.96459065042617</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.06285047886574</v>
+        <v>36.25077667450305</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.07892339381389</v>
+        <v>41.16316742819244</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.0072029510142</v>
+        <v>15.99718781216423</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.05898017565857</v>
+        <v>47.6603727010083</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>16.07709274219008</v>
+        <v>51.59504906049298</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>16.0383096718304</v>
+        <v>21.49699019611813</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.08008672931837</v>
+        <v>58.84716147245592</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>16.09458475333582</v>
+        <v>63.81473661851381</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.10066686707908</v>
+        <v>62.06996581922745</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>16.14236649190423</v>
+        <v>67.35207980587239</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>16.15908172961896</v>
+        <v>70.34168839018398</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>16.03544640974004</v>
+        <v>38.48677525611629</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>16.12802564730719</v>
+        <v>68.30740312066214</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>16.15623298197196</v>
+        <v>76.01097652596458</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.03366340925945</v>
+        <v>21.94294985585709</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>16.10433856967221</v>
+        <v>45.84356930061929</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>16.12657184587748</v>
+        <v>50.50891337532746</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.01834613852251</v>
+        <v>16.67634964356142</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.09231639320903</v>
+        <v>53.17727062070855</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>16.11730290933674</v>
+        <v>59.81375758885432</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>16.06237786295005</v>
+        <v>20.53762383106269</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.12207017706289</v>
+        <v>64.87591980759818</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>16.1420958648422</v>
+        <v>72.47767551961101</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>16.15336532789146</v>
+        <v>68.24130282751743</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>16.21527696048413</v>
+        <v>78.92601840561275</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>16.23946737929519</v>
+        <v>83.39125636640057</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>16.06732582401146</v>
+        <v>34.71652211736345</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>16.19812497231586</v>
+        <v>80.84383041630491</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>16.23736348902561</v>
+        <v>88.0859450085924</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>16.06033155629937</v>
+        <v>26.94752884548645</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>16.13920509647033</v>
+        <v>54.47490668898085</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>16.16450224326425</v>
+        <v>59.79930948501037</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.04878255105194</v>
+        <v>22.13724327575601</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>16.13182573022906</v>
+        <v>64.80239969228636</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>16.16020757839384</v>
+        <v>71.06953879346055</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>16.09804330762005</v>
+        <v>31.98697504714979</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>16.16508583315325</v>
+        <v>81.46588498871108</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>16.18786009313389</v>
+        <v>90.19258632052001</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>16.21310407775687</v>
+        <v>95.3048191450183</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>16.28479001876003</v>
+        <v>105.4845833244564</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>16.31305846010752</v>
+        <v>112.4220137454459</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>16.12386366024521</v>
+        <v>48.47073206370739</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.26930484272431</v>
+        <v>102.2083054640006</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>16.31420537879965</v>
+        <v>111.5496448288186</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>16.01277053570147</v>
+        <v>12.80524297532923</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>16.08389966183599</v>
+        <v>37.57197148765947</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>16.10531714810513</v>
+        <v>41.86201678757109</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>16.00695339428369</v>
+        <v>3.481797718227773</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>16.08106103811802</v>
+        <v>44.69254286393962</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>16.10518814620551</v>
+        <v>47.95578742118373</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>16.05117235197166</v>
+        <v>13.00163542931185</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>16.11097972833438</v>
+        <v>60.57893850394542</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>16.13028517307776</v>
+        <v>65.06471201023534</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>16.13693719462033</v>
+        <v>61.05327665572002</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>16.19712728871258</v>
+        <v>72.775533690093</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>16.21876837773159</v>
+        <v>74.09325606145433</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>16.04386703868973</v>
+        <v>20.71522257617952</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>16.17587830441447</v>
+        <v>68.68472097918718</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>16.21355686543889</v>
+        <v>72.80262273726392</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>16.03449415123087</v>
+        <v>7.864052597855908</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.13514565504215</v>
+        <v>39.05180639589344</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>16.16493538771812</v>
+        <v>43.2021286715145</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>16.01573138929641</v>
+        <v>-2.076011450428174</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>16.12130044619306</v>
+        <v>40.89824313782096</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.15476667323018</v>
+        <v>46.6551987804799</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>16.07860090751731</v>
+        <v>7.652667534189854</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>16.16380827593018</v>
+        <v>59.35331972431572</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.19062408700628</v>
+        <v>66.45116407353598</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.20258852410347</v>
+        <v>60.46564739706655</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>16.29151998666185</v>
+        <v>74.42318640467903</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>16.32315669912832</v>
+        <v>75.94807128415987</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>16.0799348464141</v>
+        <v>14.83967039955523</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>16.26603391102498</v>
+        <v>74.09863892824239</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>16.31874745473936</v>
+        <v>78.43655753222619</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>16.07686908307494</v>
+        <v>13.98598937578623</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>16.18903705613278</v>
+        <v>48.31651520697269</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>16.22314988090115</v>
+        <v>53.39402429415419</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>16.063419202694</v>
+        <v>4.842602143023671</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>16.18174333576575</v>
+        <v>54.34425499352409</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>16.21999968038605</v>
+        <v>59.77026496352808</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>16.13336239122627</v>
+        <v>19.21171711800148</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.22890273970124</v>
+        <v>76.06923733026159</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>16.25959793646538</v>
+        <v>84.14871213764147</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>16.29188366218694</v>
+        <v>87.56395002802104</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>16.39453037622628</v>
+        <v>102.609256935725</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>16.43187965283785</v>
+        <v>107.2312886575091</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>16.16461103328286</v>
+        <v>31.74051902082033</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>16.37130380983547</v>
+        <v>98.7534967926953</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>16.43201014526008</v>
+        <v>104.9496567807495</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>15.98817846120941</v>
+        <v>8.171668120142256</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.0565188640474</v>
+        <v>19.19196257996261</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.07834559112649</v>
+        <v>21.5029563346089</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>15.97812251250816</v>
+        <v>-2.511802247468689</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>16.04912847866512</v>
+        <v>23.96961930008281</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>16.07371713202677</v>
+        <v>25.16413874964229</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.02285988303627</v>
+        <v>2.269298850747651</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.08014852467697</v>
+        <v>34.85785518975181</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.09982685811472</v>
+        <v>37.37832474597032</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>16.10106528171151</v>
+        <v>39.4108983128485</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.15810510451545</v>
+        <v>42.30304838986383</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.18042072548163</v>
+        <v>43.64598267752083</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.01067215737936</v>
+        <v>16.66471968889856</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>16.13768061077764</v>
+        <v>41.30848563740177</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>16.17598173884465</v>
+        <v>44.41850704037103</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.00735838757022</v>
+        <v>11.14766331127974</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>16.10436611806091</v>
+        <v>32.48259182258883</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>16.13466431381587</v>
+        <v>37.81359566391395</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>15.98356266050886</v>
+        <v>5.650428022998161</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>16.08507751073446</v>
+        <v>38.26674200450251</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>16.11911699148645</v>
+        <v>45.56682389250054</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.04671618213597</v>
+        <v>10.37483846489408</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>16.12863194576135</v>
+        <v>50.98518848212732</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>16.15591046664997</v>
+        <v>59.19733574016492</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>16.16197592006687</v>
+        <v>54.88463772920098</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>16.24677902182477</v>
+        <v>63.03029608400988</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>16.27928183135357</v>
+        <v>69.19977069155422</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.04273792218685</v>
+        <v>21.19670650361972</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.22229352671483</v>
+        <v>63.2414702857861</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>16.27577002816861</v>
+        <v>70.90433434461632</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>16.0463998851624</v>
+        <v>21.73409749547008</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>16.15475711630337</v>
+        <v>47.38311872970505</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>16.18932950726982</v>
+        <v>53.96863951868433</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>16.02780744930831</v>
+        <v>13.70289381997198</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>16.14188364192544</v>
+        <v>53.55707132322384</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.18066053504222</v>
+        <v>60.9168547660008</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>16.09808068834364</v>
+        <v>23.62173554262937</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>16.19017306363397</v>
+        <v>70.27764295417587</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>16.22128710406206</v>
+        <v>79.89793493789682</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>16.24699439403751</v>
+        <v>81.64544491453978</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>16.3453216874601</v>
+        <v>89.56861911699349</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>16.3835082240867</v>
+        <v>98.48537201207552</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>16.12329774151618</v>
+        <v>35.55319790737974</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>16.32312826130171</v>
+        <v>86.32652854029622</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>16.38450218368795</v>
+        <v>96.41476962638038</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>16.00729973997846</v>
+        <v>9.990803510300656</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.05668475091207</v>
+        <v>22.47888228889384</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.07271928985962</v>
+        <v>28.00007810304672</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.00091339261077</v>
+        <v>1.37924512994986</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>16.05222001016624</v>
+        <v>30.7228353831081</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>16.07029180460948</v>
+        <v>35.41890052823884</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.03218199115656</v>
+        <v>6.485293035920927</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.07357792786296</v>
+        <v>41.62681379106748</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>16.08804361627475</v>
+        <v>47.2722410620413</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>16.09286476168853</v>
+        <v>47.36151393185743</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>16.13410113929141</v>
+        <v>51.50514530163015</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>16.15077464063789</v>
+        <v>55.299605996929</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.02810042061335</v>
+        <v>25.87629007115687</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.11987216841974</v>
+        <v>53.07542054587814</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>16.14801680276283</v>
+        <v>61.88426882135577</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>16.02562759849122</v>
+        <v>8.891712225186692</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.09570386522385</v>
+        <v>30.85018374621718</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>16.11788723209858</v>
+        <v>37.05283140542819</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>16.00957097775429</v>
+        <v>1.780053409835384</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>16.0828956544058</v>
+        <v>35.82871676028543</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>16.10782954196785</v>
+        <v>44.22765176681276</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>16.05382272684879</v>
+        <v>5.132369444797741</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>16.11299227297495</v>
+        <v>47.12908052643932</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>16.13297622465756</v>
+        <v>56.28888790500539</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>16.14244659562014</v>
+        <v>52.14889990396127</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.20371698801836</v>
+        <v>61.61679925704446</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>16.22784970767774</v>
+        <v>67.82840156827048</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>16.05699893724062</v>
+        <v>20.39023151553084</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.18669513779374</v>
+        <v>63.64088296915607</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>16.22585206244314</v>
+        <v>73.26972636673577</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>16.05205887072118</v>
+        <v>14.51310681650494</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.13028942777967</v>
+        <v>40.09534712173065</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.15552253504841</v>
+        <v>46.95764974081953</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>16.03974493096697</v>
+        <v>7.809360814405851</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>16.12209359737734</v>
+        <v>48.0077730459796</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.15040724941315</v>
+        <v>56.04048491749726</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>16.08920390064467</v>
+        <v>17.24752501235887</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>16.15568401831385</v>
+        <v>64.38400515579558</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>16.17840394724914</v>
+        <v>74.66166533350452</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>16.20176113517972</v>
+        <v>79.68147025426913</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>16.27275020161879</v>
+        <v>88.48823569365121</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>16.30094319713578</v>
+        <v>97.27793980120302</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>16.11313209632917</v>
+        <v>34.74586921794107</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.25739113435595</v>
+        <v>85.4995165220046</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>16.302184043906</v>
+        <v>97.23887974195011</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>16.02107111471178</v>
+        <v>18.08803117295609</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.09624120814164</v>
+        <v>34.03223645941159</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>16.11983757946855</v>
+        <v>38.25346514918665</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>16.0143349526751</v>
+        <v>12.85566472226788</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>16.09246418740277</v>
+        <v>47.61467207581577</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>16.11906270040566</v>
+        <v>50.072555036593</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>16.0610032479356</v>
+        <v>19.19402905275315</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.12404796884283</v>
+        <v>59.95860553383781</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>16.14533188560626</v>
+        <v>63.65145882386449</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>16.1552191026226</v>
+        <v>61.7012316299511</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>16.21799943299082</v>
+        <v>69.89703542532135</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>16.24201629160189</v>
+        <v>71.44895502139941</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>16.05626406793742</v>
+        <v>35.68371792743215</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>16.19592518062674</v>
+        <v>68.42980842058599</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>16.23736546422932</v>
+        <v>74.71064675697272</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>16.04989160195212</v>
+        <v>14.28771347224467</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>16.15651107583717</v>
+        <v>38.77211977611774</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>16.18923332315268</v>
+        <v>43.1498178463799</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>16.02921284880054</v>
+        <v>6.394476731884376</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>16.14081632803626</v>
+        <v>44.99999386357922</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>16.17759880171303</v>
+        <v>50.3237845471396</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>16.09549616684814</v>
+        <v>12.63211653787075</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>16.18556382103986</v>
+        <v>59.57515876250467</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>16.21503662244979</v>
+        <v>66.04718474750631</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>16.23225360919388</v>
+        <v>62.16412286765381</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>16.32548176802511</v>
+        <v>73.67129948967333</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>16.36045009287191</v>
+        <v>76.58750854636241</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>16.10177500274154</v>
+        <v>27.08600447833543</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>16.29907802153786</v>
+        <v>75.01796031360485</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>16.35687972723688</v>
+        <v>80.59349676908809</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>16.09618555542282</v>
+        <v>19.28540424155842</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>16.21522465873069</v>
+        <v>48.13312489879963</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>16.2525531364611</v>
+        <v>52.46845775773377</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>16.08152907559417</v>
+        <v>12.25393048876873</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>16.20687976519666</v>
+        <v>58.07421961185688</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>16.24876689590871</v>
+        <v>61.97340117746591</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>16.15539203268262</v>
+        <v>24.71936180134016</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>16.25659675118321</v>
+        <v>77.72488716771295</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>16.2902024110348</v>
+        <v>84.24771474420017</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>16.3297356505991</v>
+        <v>90.05408864735016</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>16.43775850078288</v>
+        <v>101.827013237694</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>16.47882982814624</v>
+        <v>104.8079684886161</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>16.19431108341362</v>
+        <v>41.05843669454146</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>16.41380366325328</v>
+        <v>98.33589597121117</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>16.48012267740238</v>
+        <v>103.9425867478208</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>16.0134815916397</v>
+        <v>13.33677445482784</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>16.08621192387102</v>
+        <v>38.13061676047057</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.10834403856266</v>
+        <v>41.85913607787808</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>16.00755606652098</v>
+        <v>5.664420753897305</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>16.08332666707553</v>
+        <v>47.78257019151226</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>16.1082643728726</v>
+        <v>50.31793432200039</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>16.05275697951307</v>
+        <v>14.77210036227859</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>16.11390742664054</v>
+        <v>62.95770061860284</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>16.13386338758002</v>
+        <v>66.81964164674926</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>16.14087058603925</v>
+        <v>63.49399206380817</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>16.20240805801742</v>
+        <v>75.11701513053733</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>16.22491075585327</v>
+        <v>75.27387871569761</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>16.04594288699888</v>
+        <v>21.81535801827386</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>16.18094473269586</v>
+        <v>69.679244201196</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>16.21987714388957</v>
+        <v>73.40128250416085</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>16.03507647015415</v>
+        <v>7.373583465590039</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>16.13799121736158</v>
+        <v>38.67019500030487</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>16.16873738823</v>
+        <v>42.36313800199166</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>16.01584960181724</v>
+        <v>-1.122980086867079</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>16.12378573956506</v>
+        <v>42.6063260047387</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>16.15833414718868</v>
+        <v>47.86911880055137</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>16.08015038638333</v>
+        <v>7.828567384326876</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>16.16726962032543</v>
+        <v>60.06178282391971</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>16.1949544080487</v>
+        <v>66.71939129437091</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>16.20730391934176</v>
+        <v>62.16393489291758</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>16.29822087008716</v>
+        <v>75.60468566448807</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>16.33104242559262</v>
+        <v>76.60022243613844</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>16.08220597571861</v>
+        <v>15.50429649852357</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>16.2725119206485</v>
+        <v>74.71979593318733</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>16.32690972471007</v>
+        <v>78.83812103328918</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>16.07531636908736</v>
+        <v>13.79549350613411</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>16.1899739704812</v>
+        <v>47.53007574490497</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>16.22514079397691</v>
+        <v>52.37246729549528</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>16.06135255266171</v>
+        <v>4.053224285472632</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>16.18229276307288</v>
+        <v>53.13771698449369</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>16.22174015943175</v>
+        <v>58.396222734909</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>16.13305622108694</v>
+        <v>17.39008810965879</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>16.23071011738036</v>
+        <v>73.80627763949522</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>16.26236216560208</v>
+        <v>81.76331210904958</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>16.29483332364671</v>
+        <v>85.37723149666597</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>16.39973887427027</v>
+        <v>98.86565094001089</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>16.43840919780606</v>
+        <v>103.1520787910378</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>16.16505592799235</v>
+        <v>28.38010281098526</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>16.37635550775964</v>
+        <v>93.78467858718506</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>16.43892685769482</v>
+        <v>100.3322759029817</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.0919737104475</v>
+        <v>15.09197371044342</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.51808550328133</v>
+        <v>29.51808550327981</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.15270139428898</v>
+        <v>34.15270139428708</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.629502509133141</v>
+        <v>3.629502509134271</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35.46154328243615</v>
+        <v>35.46154328243774</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>39.00342990158113</v>
+        <v>39.00342990158292</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.3752380866719</v>
+        <v>10.37523808667272</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>48.23426468625569</v>
+        <v>48.23426468625579</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>52.90372894645665</v>
+        <v>52.90372894645508</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.39898019881315</v>
+        <v>53.39898019881387</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>58.3837016884811</v>
+        <v>58.38370168848022</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60.78922464692681</v>
+        <v>60.78922464692984</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.68225532134053</v>
+        <v>28.68225532133922</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>59.36740183658291</v>
+        <v>59.36740183658407</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>66.39507307513853</v>
+        <v>66.39507307513819</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.96311185043941</v>
+        <v>16.96311185043745</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>41.23941701310523</v>
+        <v>41.23941701310697</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>46.18098293902301</v>
+        <v>46.18098293902437</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.04005902229674</v>
+        <v>7.040059022299717</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>43.90836795026343</v>
+        <v>43.90836795026579</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50.76350769717805</v>
+        <v>50.76350769717885</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.77274762593177</v>
+        <v>12.77274762593523</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>57.84555605380272</v>
+        <v>57.84555605380402</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>65.69954008754179</v>
+        <v>65.69954008754328</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62.48520144988922</v>
+        <v>62.48520144988619</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>73.10356754807529</v>
+        <v>73.10356754807532</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>77.35487948716951</v>
+        <v>77.35487948716805</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.84974791530977</v>
+        <v>27.84974791530584</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>75.17485521681968</v>
+        <v>75.17485521681924</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>82.53000825190978</v>
+        <v>82.53000825191103</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.67670839478401</v>
+        <v>24.67670839478186</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>52.93413404082698</v>
+        <v>52.93413404082673</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>58.61685073211288</v>
+        <v>58.61685073211299</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16.02363442649922</v>
+        <v>16.02363442649683</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>59.57110574287017</v>
+        <v>59.57110574287004</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>66.0792506656792</v>
+        <v>66.07925066567857</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.80639935255855</v>
+        <v>27.80639935255843</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>78.43912060680378</v>
+        <v>78.43912060680522</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>87.45851559887473</v>
+        <v>87.45851559887417</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>93.64614179203804</v>
+        <v>93.64614179204095</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>104.0173199023896</v>
+        <v>104.0173199023917</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>110.8422940687791</v>
+        <v>110.8422940687826</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>45.65513351747523</v>
+        <v>45.65513351747406</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>101.163363940903</v>
+        <v>101.1633639409015</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>110.6615693985696</v>
+        <v>110.66156939857</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.50804461857056</v>
+        <v>13.50804461857025</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>39.28980154718018</v>
+        <v>39.28980154718117</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.91954716764339</v>
+        <v>42.91954716764375</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.583704779952425</v>
+        <v>6.583704779950454</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>49.52605191744854</v>
+        <v>49.52605191744883</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>51.74524502731283</v>
+        <v>51.74524502731042</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.67842649850671</v>
+        <v>15.67842649850569</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>64.79950924437196</v>
+        <v>64.79950924437092</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>68.14529926480157</v>
+        <v>68.14529926480219</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>61.30845801237155</v>
+        <v>61.30845801237285</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>75.2647028158173</v>
+        <v>75.26470281581794</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>76.60500377205554</v>
+        <v>76.60500377205619</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>23.18146750900188</v>
+        <v>23.1814675090022</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>70.24245605149623</v>
+        <v>70.24245605149898</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>73.85063438624334</v>
+        <v>73.85063438624292</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.91146819779427</v>
+        <v>13.9114681977936</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>44.81843269980418</v>
+        <v>44.81843269980643</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>49.05791277228036</v>
+        <v>49.05791277228253</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.185056775896941</v>
+        <v>5.18505677589547</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>48.79431332248901</v>
+        <v>48.79431332249108</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>54.3481630834307</v>
+        <v>54.34816308343309</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.99326682528304</v>
+        <v>15.99326682528132</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>68.2052814343604</v>
+        <v>68.20528143436124</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>74.87057277000763</v>
+        <v>74.8705727700102</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>68.18807227886221</v>
+        <v>68.18807227886441</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>82.57314868885668</v>
+        <v>82.57314868885487</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>85.4466796488602</v>
+        <v>85.44667964885986</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.47986767139784</v>
+        <v>25.47986767139754</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>82.24564767985093</v>
+        <v>82.24564767984977</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>86.99031012041939</v>
+        <v>86.99031012041975</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>19.46627891522125</v>
+        <v>19.46627891522015</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>54.37683321072957</v>
+        <v>54.37683321073043</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>59.26624281028337</v>
+        <v>59.26624281028676</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>10.89944834605593</v>
+        <v>10.89944834605677</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>62.15128448993392</v>
+        <v>62.15128448993585</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>66.87374711075086</v>
+        <v>66.87374711075138</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.64110035869373</v>
+        <v>26.64110035869265</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>85.04427058260819</v>
+        <v>85.04427058260795</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>92.08362293847725</v>
+        <v>92.08362293847895</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>93.72405393444993</v>
+        <v>93.72405393445082</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>110.2677694196271</v>
+        <v>110.2677694196286</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>113.1088011762501</v>
+        <v>113.1088011762497</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>39.52744421176644</v>
+        <v>39.52744421176827</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>106.280547204035</v>
+        <v>106.2805472040339</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>111.1601069663482</v>
+        <v>111.160106966347</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.50804461857056</v>
+        <v>13.50804461857025</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.28980154718018</v>
+        <v>39.28980154718117</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42.91954716764339</v>
+        <v>42.91954716764375</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.583704779952425</v>
+        <v>6.583704779950454</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>49.52605191744854</v>
+        <v>49.52605191744883</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>51.74524502731283</v>
+        <v>51.74524502731042</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.67842649850671</v>
+        <v>15.67842649850569</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>64.79950924437196</v>
+        <v>64.79950924437092</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>68.14529926480157</v>
+        <v>68.14529926480219</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>61.30845801237155</v>
+        <v>61.30845801237285</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>75.2647028158173</v>
+        <v>75.26470281581794</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>76.60500377205554</v>
+        <v>76.60500377205619</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.18146750900188</v>
+        <v>23.1814675090022</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>70.24245605149623</v>
+        <v>70.24245605149898</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>73.85063438624334</v>
+        <v>73.85063438624292</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>13.91146819779427</v>
+        <v>13.9114681977936</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.81843269980418</v>
+        <v>44.81843269980643</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.05791277228036</v>
+        <v>49.05791277228253</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.185056775896941</v>
+        <v>5.18505677589547</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48.79431332248901</v>
+        <v>48.79431332249108</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>54.3481630834307</v>
+        <v>54.34816308343309</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.99326682528304</v>
+        <v>15.99326682528132</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>68.2052814343604</v>
+        <v>68.20528143436124</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>74.87057277000763</v>
+        <v>74.8705727700102</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>68.18807227886221</v>
+        <v>68.18807227886441</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>82.57314868885668</v>
+        <v>82.57314868885487</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>85.4466796488602</v>
+        <v>85.44667964885986</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.47986767139784</v>
+        <v>25.47986767139754</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>82.24564767985093</v>
+        <v>82.24564767984977</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>86.99031012041939</v>
+        <v>86.99031012041975</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>19.46627891522125</v>
+        <v>19.46627891522015</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>54.37683321072957</v>
+        <v>54.37683321073043</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>59.26624281028337</v>
+        <v>59.26624281028676</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.89944834605593</v>
+        <v>10.89944834605677</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>62.15128448993392</v>
+        <v>62.15128448993585</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>66.87374711075086</v>
+        <v>66.87374711075138</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.64110035869373</v>
+        <v>26.64110035869265</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>85.04427058260819</v>
+        <v>85.04427058260795</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>92.08362293847725</v>
+        <v>92.08362293847895</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>93.72405393444993</v>
+        <v>93.72405393445082</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>110.2677694196271</v>
+        <v>110.2677694196286</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>113.1088011762501</v>
+        <v>113.1088011762497</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.52744421176644</v>
+        <v>39.52744421176827</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>106.280547204035</v>
+        <v>106.2805472040339</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>111.1601069663482</v>
+        <v>111.160106966347</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>12.51470510593493</v>
+        <v>12.51470510593694</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.91636548442942</v>
+        <v>21.91636548443259</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.63539681681279</v>
+        <v>25.63539681681038</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.191988821382855</v>
+        <v>2.191988821376347</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>27.65647977029318</v>
+        <v>27.65647977028857</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.32914328925407</v>
+        <v>30.32914328925367</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.039100230039635</v>
+        <v>5.039100230037745</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>37.38866655338576</v>
+        <v>37.38866655338572</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>41.21812156384917</v>
+        <v>41.21812156384804</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>44.4393468295083</v>
+        <v>44.43934682950835</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.76124342235245</v>
+        <v>45.76124342235101</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>48.15467908506118</v>
+        <v>48.15467908506103</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.39841472882421</v>
+        <v>26.3984147288252</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.87485690286317</v>
+        <v>48.87485690286447</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>54.28207944053941</v>
+        <v>54.28207944053857</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.14034310203783</v>
+        <v>13.14034310203561</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.05043765824058</v>
+        <v>33.05043765823994</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>37.40127143368007</v>
+        <v>37.40127143368083</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4.440325572172251</v>
+        <v>4.440325572168961</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>35.80354617203246</v>
+        <v>35.80354617203371</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>42.20642757017941</v>
+        <v>42.20642757018017</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>6.718761082015222</v>
+        <v>6.718761082012401</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.04524122840299</v>
+        <v>47.04524122840073</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>54.44768981277268</v>
+        <v>54.44768981277014</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>52.21464662936862</v>
+        <v>52.21464662936705</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>60.03352829210223</v>
+        <v>60.03352829210165</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>64.72473286697338</v>
+        <v>64.72473286697014</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.52692149054062</v>
+        <v>23.52692149054074</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>63.91125809997982</v>
+        <v>63.91125809998057</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>70.24762213108389</v>
+        <v>70.2476221310839</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.06372171456012</v>
+        <v>24.06372171455908</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>48.48489670895835</v>
+        <v>48.484896708959</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>53.6244849517151</v>
+        <v>53.62448495171241</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>14.19163025625312</v>
+        <v>14.19163025625373</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>53.13567929989041</v>
+        <v>53.13567929988987</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>59.12250184015281</v>
+        <v>59.12250184015133</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.83013936908658</v>
+        <v>23.83013936908491</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>70.50350384404935</v>
+        <v>70.50350384404788</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>79.01392782811949</v>
+        <v>79.01392782811959</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>85.79777787475942</v>
+        <v>85.79777787475851</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>93.66163096638991</v>
+        <v>93.6616309663893</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>100.6002815009879</v>
+        <v>100.6002815009853</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.86041294178732</v>
+        <v>42.86041294178877</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>92.46062785999329</v>
+        <v>92.46062785999244</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>100.8721318663681</v>
+        <v>100.8721318663686</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.93939907491834</v>
+        <v>13.9393990749154</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.33954334923283</v>
+        <v>31.33954334923511</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>35.879437678497</v>
+        <v>35.87943767849765</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.451097437723712</v>
+        <v>4.45109743772109</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>39.87019760945988</v>
+        <v>39.87019760946015</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>43.28613325059321</v>
+        <v>43.28613325059409</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.80753378504141</v>
+        <v>11.80753378503869</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>52.99960873021654</v>
+        <v>52.99960873021755</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>57.489683532101</v>
+        <v>57.48968353210107</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>53.4656168448351</v>
+        <v>53.46561684483434</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>59.99069509132591</v>
+        <v>59.99069509132713</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>62.14812029009414</v>
+        <v>62.14812029009342</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.59365553479685</v>
+        <v>24.59365553479599</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>59.09731340883619</v>
+        <v>59.09731340883372</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>65.5004014011225</v>
+        <v>65.50040140111824</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18.18877098792324</v>
+        <v>18.18877098792299</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>45.95781668243209</v>
+        <v>45.95781668243229</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>49.31285181797604</v>
+        <v>49.31285181797676</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.219597543915237</v>
+        <v>8.219597543917986</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>49.35545976546292</v>
+        <v>49.35545976546511</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>54.57799027399999</v>
+        <v>54.57799027399806</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.43784672658123</v>
+        <v>15.43784672658514</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>64.40605490491241</v>
+        <v>64.40605490491086</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>70.75614903802177</v>
+        <v>70.75614903802116</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>66.90782003745288</v>
+        <v>66.90782003745501</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>79.69688814022496</v>
+        <v>79.69688814022595</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>82.5683658298525</v>
+        <v>82.5683658298512</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.73256009891629</v>
+        <v>29.73256009891844</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>81.7496522556028</v>
+        <v>81.74965225560213</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>21.47194761139266</v>
+        <v>21.47194761139455</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>52.82066713729423</v>
+        <v>52.82066713729539</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>57.43661407374975</v>
+        <v>57.43661407375122</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>12.39064032371109</v>
+        <v>12.39064032371092</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>59.65600546370424</v>
+        <v>59.65600546370309</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>65.19191971484743</v>
+        <v>65.191919714848</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>24.70831512705755</v>
+        <v>24.70831512705912</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>78.73366024305648</v>
+        <v>78.73366024305632</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>86.83256804120458</v>
+        <v>86.83256804120352</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>91.90321898467093</v>
+        <v>91.90321898467373</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>104.4667136018466</v>
+        <v>104.4667136018476</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>110.3565398824419</v>
+        <v>110.3565398824432</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>41.66633335730375</v>
+        <v>41.666333357304</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>101.3910709945225</v>
+        <v>101.3910709945243</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>109.4756022334378</v>
+        <v>109.4756022334392</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.38941253325793</v>
+        <v>13.38941253325775</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.02355241307404</v>
+        <v>35.02355241307453</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>38.55930521435952</v>
+        <v>38.55930521435886</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>5.961343172735971</v>
+        <v>5.961343172734145</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>46.64163530735199</v>
+        <v>46.64163530735244</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>48.19806488730348</v>
+        <v>48.19806488730382</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>14.33032664102028</v>
+        <v>14.33032664102278</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>61.02540832588098</v>
+        <v>61.02540832588223</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>63.64743196004359</v>
+        <v>63.6474319600439</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>52.5719260155872</v>
+        <v>52.57192601558526</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>63.85119841049018</v>
+        <v>63.85119841049214</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>64.73060799475938</v>
+        <v>64.73060799475923</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>17.03780271916055</v>
+        <v>17.03780271915935</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>56.69158385712661</v>
+        <v>56.69158385712939</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>60.09487137420789</v>
+        <v>60.09487137420806</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.80187741939029</v>
+        <v>21.8018774193899</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>53.16446321211617</v>
+        <v>53.1644632121163</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>54.89765331835077</v>
+        <v>54.89765331835065</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>8.303405945366977</v>
+        <v>8.303405945369464</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>54.88249856254973</v>
+        <v>54.88249856254841</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>57.33553632102386</v>
+        <v>57.33553632102243</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.88244992564779</v>
+        <v>20.88244992564736</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>75.3796795086825</v>
+        <v>75.37967950868088</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>79.0664554873195</v>
+        <v>79.06645548731865</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>72.56383659970172</v>
+        <v>72.56383659970147</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>88.75657272508826</v>
+        <v>88.75657272508812</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>89.67244715121262</v>
+        <v>89.6724471512121</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.48290452804137</v>
+        <v>32.48290452804198</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>89.47923809835821</v>
+        <v>89.47923809835876</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>90.58565409642539</v>
+        <v>90.58565409642324</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.92731021455619</v>
+        <v>21.92731021455647</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>57.40187520450987</v>
+        <v>57.40187520451261</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>60.18867752424534</v>
+        <v>60.1886775242471</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.017819472365391</v>
+        <v>8.017819472366059</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>61.6452976916183</v>
+        <v>61.64529769161962</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>63.87705583981074</v>
+        <v>63.87705583981193</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>24.93474219400585</v>
+        <v>24.93474219400881</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>85.24944505641059</v>
+        <v>85.24944505641372</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>89.91884209017148</v>
+        <v>89.91884209017182</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>91.60730225105911</v>
+        <v>91.60730225105843</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>108.8631395211473</v>
+        <v>108.8631395211462</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>109.4147743098007</v>
+        <v>109.4147743098009</v>
       </c>
     </row>
     <row r="268">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>105.1233360308971</v>
+        <v>105.1233360308951</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>107.3507469306975</v>
+        <v>107.3507469306959</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1.400310812717452</v>
+        <v>1.400310812717384</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.63693970398626</v>
+        <v>14.63693970398688</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>17.74319912331902</v>
+        <v>17.74319912331993</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-8.354019073413392</v>
+        <v>-8.354019073412632</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.10995556062917</v>
+        <v>22.10995556062986</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.24402849018924</v>
+        <v>23.24402849018731</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-3.569239751261884</v>
+        <v>-3.569239751266005</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>33.67888967224049</v>
+        <v>33.67888967223879</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.08404673128621</v>
+        <v>36.08404673128326</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.56062879823342</v>
+        <v>37.560628798235</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>44.0576612827827</v>
+        <v>44.05766128278392</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>44.62688420327996</v>
+        <v>44.62688420328197</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.17086958313179</v>
+        <v>13.1708695831323</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>41.53161196363443</v>
+        <v>41.53161196363551</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>45.42268837983327</v>
+        <v>45.42268837983458</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>9.386312603283338</v>
+        <v>9.38631260328574</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>31.2479516446996</v>
+        <v>31.24795164470142</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.17405044432773</v>
+        <v>36.17405044432702</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-0.5676585946477726</v>
+        <v>-0.5676585946459678</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.39090933230002</v>
+        <v>34.39090933230138</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>40.07633081386454</v>
+        <v>40.07633081386379</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>6.452645270271207</v>
+        <v>6.452645270267654</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.34321202902862</v>
+        <v>50.34321202902712</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>57.02685899418365</v>
+        <v>57.02685899418404</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>53.40717970774314</v>
+        <v>53.4071797077432</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>63.72229815568445</v>
+        <v>63.72229815568375</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>67.07031783200176</v>
+        <v>67.07031783200152</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>20.40013091660101</v>
+        <v>20.40013091660236</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>64.30708071470916</v>
+        <v>64.30708071470717</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>69.95868846922575</v>
+        <v>69.95868846922599</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.38028520162396</v>
+        <v>19.38028520162258</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>46.62685391505257</v>
+        <v>46.62685391505315</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>51.56427913807004</v>
+        <v>51.56427913807333</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>10.47569506725417</v>
+        <v>10.47569506725449</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>54.15978894380427</v>
+        <v>54.15978894380559</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>58.2582366271954</v>
+        <v>58.25823662719625</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>24.12440069811228</v>
+        <v>24.12440069811149</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>75.36185697042191</v>
+        <v>75.36185697042151</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>81.83167940025845</v>
+        <v>81.83167940025788</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>87.50271630153227</v>
+        <v>87.50271630153307</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>99.27424113366749</v>
+        <v>99.2742411336702</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>101.5183364225412</v>
+        <v>101.5183364225436</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>41.15123801059396</v>
+        <v>41.15123801059521</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>96.41881384574623</v>
+        <v>96.41881384574711</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>101.3882361093929</v>
+        <v>101.3882361093946</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>8.164695418275072</v>
+        <v>8.164695418277111</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>24.47027414238229</v>
+        <v>24.47027414238409</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.44589063448886</v>
+        <v>28.44589063448957</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2.853543302862581</v>
+        <v>-2.853543302861086</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>31.43230983762733</v>
+        <v>31.43230983762253</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.10430575461319</v>
+        <v>34.10430575461418</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>3.665612574675093</v>
+        <v>3.66561257467446</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>44.29710529170113</v>
+        <v>44.29710529170101</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.12824056437046</v>
+        <v>48.12824056436861</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>44.99775935994684</v>
+        <v>44.99775935994769</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>50.62826815713969</v>
+        <v>50.628268157138</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>52.27597604869852</v>
+        <v>52.27597604869664</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.909907443337</v>
+        <v>16.90990744333354</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>49.8383580086243</v>
+        <v>49.83835800862279</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>54.94874358614111</v>
+        <v>54.94874358614063</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>10.19518116222119</v>
+        <v>10.19518116221924</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>37.27904710593769</v>
+        <v>37.27904710593582</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>40.06064505054228</v>
+        <v>40.06064505054216</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-2.339200053118018</v>
+        <v>-2.339200053117926</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>38.14590157799235</v>
+        <v>38.14590157799166</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>42.63967942826442</v>
+        <v>42.63967942826592</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>4.863580694953834</v>
+        <v>4.863580694953706</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>53.74622178422601</v>
+        <v>53.74622178422417</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>59.46909616187084</v>
+        <v>59.46909616187026</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>56.37246971500494</v>
+        <v>56.3724697150045</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>68.54967109839802</v>
+        <v>68.54967109839714</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>70.86801462377747</v>
+        <v>70.86801462377899</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>20.25816517871084</v>
+        <v>20.2581651787099</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>71.53914997799168</v>
+        <v>71.53914997799171</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>75.31210504036886</v>
+        <v>75.31210504037033</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>15.2379753027905</v>
+        <v>15.23797530279146</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>46.28055784572901</v>
+        <v>46.28055784572959</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>50.3758558938395</v>
+        <v>50.37585589384211</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>2.770221580673047</v>
+        <v>2.770221580675924</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>50.01423949427317</v>
+        <v>50.01423949427438</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>54.76876357076788</v>
+        <v>54.76876357076924</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>15.53193197694586</v>
+        <v>15.53193197694692</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>69.99910105699799</v>
+        <v>69.99910105699961</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>77.42425429929797</v>
+        <v>77.4242542993028</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>83.10549704332874</v>
+        <v>83.1054970433277</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>95.33928799911365</v>
+        <v>95.33928799911574</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>100.3585125702767</v>
+        <v>100.3585125702783</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>33.32369107999121</v>
+        <v>33.32369107999017</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>93.12100992111139</v>
+        <v>93.12100992111083</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>99.8070339793281</v>
+        <v>99.80703397932719</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.23172537868059</v>
+        <v>13.23172537868122</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>39.83911169218655</v>
+        <v>39.8391116921855</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>44.13276941547812</v>
+        <v>44.13276941547745</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.474662118829171</v>
+        <v>7.474662118826414</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>54.55369033364268</v>
+        <v>54.55369033364296</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>56.61595372977033</v>
+        <v>56.61595372976883</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.76758137003488</v>
+        <v>19.76758137003397</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>71.84596450724904</v>
+        <v>71.84596450724921</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>75.00674121655774</v>
+        <v>75.00674121655942</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>66.65966342324352</v>
+        <v>66.65966342324242</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>81.67356373527981</v>
+        <v>81.67356373528033</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>82.46540988935574</v>
+        <v>82.46540988935487</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.9852961891401</v>
+        <v>28.98529618913955</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>75.96191193054028</v>
+        <v>75.96191193053997</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>81.66784000038598</v>
+        <v>81.66784000038498</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>8.968819942823432</v>
+        <v>8.968819942820454</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>40.94010088949454</v>
+        <v>40.94010088949166</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>44.68602857002748</v>
+        <v>44.68602857002828</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-3.037957866943215</v>
+        <v>-3.037957866943264</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>44.72101787455289</v>
+        <v>44.72101787455245</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>48.88207576320654</v>
+        <v>48.88207576320524</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>10.60482828927273</v>
+        <v>10.60482828927289</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>65.86377979828698</v>
+        <v>65.86377979828552</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>71.12748915180916</v>
+        <v>71.12748915180501</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>66.16196688019775</v>
+        <v>66.16196688019636</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>80.93401557343545</v>
+        <v>80.93401557343878</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>82.88110866465837</v>
+        <v>82.88110866465956</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.37203913186317</v>
+        <v>24.37203913186458</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>81.49183954838648</v>
+        <v>81.49183954838435</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>86.07533521208549</v>
+        <v>86.07533521208512</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>11.44876130885623</v>
+        <v>11.44876130885562</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>47.59876462259049</v>
+        <v>47.59876462258971</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>52.10529283470395</v>
+        <v>52.10529283470218</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>2.2269530751775</v>
+        <v>2.22695307517821</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>56.88514778174833</v>
+        <v>56.88514778175043</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>60.54440720817967</v>
+        <v>60.54440720817939</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>19.13678043730908</v>
+        <v>19.13678043730727</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>80.12302100407501</v>
+        <v>80.12302100407513</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>86.04874651410469</v>
+        <v>86.04874651410549</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>88.35287995028391</v>
+        <v>88.35287995028426</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>104.4192165964212</v>
+        <v>104.4192165964194</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>105.1305237494219</v>
+        <v>105.1305237494212</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>33.8081586128185</v>
+        <v>33.8081586128178</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>100.7765073824739</v>
+        <v>100.7765073824711</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>105.5255413034075</v>
+        <v>105.5255413034047</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>0.7205230622097663</v>
+        <v>0.7205230622106686</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>12.82859698239525</v>
+        <v>12.82859698239612</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.95747602220576</v>
+        <v>15.95747602220706</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-5.855133818751741</v>
+        <v>-5.855133818751019</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.93246691402684</v>
+        <v>17.93246691402714</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.29508893937965</v>
+        <v>20.29508893938011</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-4.658944999765781</v>
+        <v>-4.658944999763849</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.45424108745274</v>
+        <v>26.45424108745296</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.98313649727716</v>
+        <v>29.98313649727767</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.17741161240078</v>
+        <v>31.17741161240073</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.48290057093615</v>
+        <v>35.48290057093885</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>37.13411261799718</v>
+        <v>37.13411261799883</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.511589987379077</v>
+        <v>3.511589987379589</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.10244882549598</v>
+        <v>32.10244882549638</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>34.21857476372262</v>
+        <v>34.21857476372241</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>3.533255951798902</v>
+        <v>3.533255951798219</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.48261919833045</v>
+        <v>22.482619198332</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.48978973399376</v>
+        <v>28.48978973399319</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.5170943030494772</v>
+        <v>0.5170943030513246</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.50318956641618</v>
+        <v>27.50318956641664</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.22172129705885</v>
+        <v>35.22172129705798</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>3.428154127800569</v>
+        <v>3.428154127802829</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.65426693286813</v>
+        <v>39.65426693286731</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>48.31294751551036</v>
+        <v>48.3129475155103</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>40.86534133082302</v>
+        <v>40.86534133082483</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>48.96481416910998</v>
+        <v>48.96481416911126</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>53.24913907551275</v>
+        <v>53.24913907551598</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>6.722786733404293</v>
+        <v>6.722786733404449</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>47.51339395987907</v>
+        <v>47.51339395987981</v>
       </c>
     </row>
     <row r="435">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>39.51873965466552</v>
+        <v>39.51873965466449</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.88145526281019</v>
+        <v>45.88145526281043</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>12.11040179402327</v>
+        <v>12.11040179402475</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>46.55893153445089</v>
+        <v>46.55893153445071</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>53.21047363589933</v>
+        <v>53.21047363590073</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.66650024973656</v>
+        <v>21.66650024973764</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>63.91240076082375</v>
+        <v>63.91240076082645</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>72.7152457593544</v>
+        <v>72.71524575935467</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>75.15351342719427</v>
+        <v>75.15351342719325</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>84.84763198096221</v>
+        <v>84.84763198096292</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>91.5462289757092</v>
+        <v>91.54622897571215</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.62233410708789</v>
+        <v>32.62233410708737</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>81.92966957699795</v>
+        <v>81.92966957699717</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>88.95149532686567</v>
+        <v>88.95149532686591</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>2.04562327681756</v>
+        <v>2.045623276819102</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.87162745112086</v>
+        <v>21.87162745111765</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.3361558435636</v>
+        <v>24.33615584356123</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-5.199649331871898</v>
+        <v>-5.199649331871251</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.22374269450255</v>
+        <v>29.22374269450566</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.56830675468112</v>
+        <v>30.56830675468458</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-0.6557859719350585</v>
+        <v>-0.6557859719351722</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>40.53922555663134</v>
+        <v>40.53922555663156</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>42.98400320101846</v>
+        <v>42.98400320101775</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.9715718903121</v>
+        <v>36.97157189031061</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>46.25409372454808</v>
+        <v>46.25409372454632</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>47.21711753462448</v>
+        <v>47.21711753462651</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>4.177348053601831</v>
+        <v>4.177348053600772</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>42.03026791647677</v>
+        <v>42.03026791647738</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>43.12639204124547</v>
+        <v>43.12639204124615</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>12.43362998214721</v>
+        <v>12.43362998214622</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>39.6974322821497</v>
+        <v>39.69743228215206</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.9586814623742</v>
+        <v>41.95868146237561</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>4.06879320412086</v>
+        <v>4.06879320412123</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>42.29262770331942</v>
+        <v>42.29262770331708</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>46.00814596747821</v>
+        <v>46.00814596747531</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>12.04855115648119</v>
+        <v>12.04855115648128</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>58.94776841973873</v>
+        <v>58.94776841973875</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>63.87004367170452</v>
+        <v>63.8700436717044</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>58.21925559596102</v>
+        <v>58.21925559595957</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>71.04219814014273</v>
+        <v>71.04219814014037</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>72.55326126399285</v>
+        <v>72.55326126399666</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.56835242502198</v>
+        <v>20.56835242501913</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>71.83427470754278</v>
+        <v>71.83427470754367</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>73.32135706330195</v>
+        <v>73.32135706329936</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>20.17447011778383</v>
+        <v>20.17447011778582</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>51.38262117785403</v>
+        <v>51.3826211778533</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>54.54393100426135</v>
+        <v>54.54393100426214</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>9.634238407340449</v>
+        <v>9.634238407343675</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>55.56479619491381</v>
+        <v>55.5647961949134</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>58.75170070309381</v>
+        <v>58.75170070309365</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>23.36996716776432</v>
+        <v>23.36996716776045</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>76.49370871442582</v>
+        <v>76.49370871442318</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>82.03650668468538</v>
+        <v>82.03650668468589</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>84.46652084141513</v>
+        <v>84.46652084141422</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>99.63981513356553</v>
+        <v>99.63981513356485</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>101.9427315581027</v>
+        <v>101.9427315580996</v>
       </c>
     </row>
     <row r="493">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>96.54847425054753</v>
+        <v>96.54847425054878</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>98.92879237052463</v>
+        <v>98.92879237052304</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>3.667857212248196</v>
+        <v>3.667857212248419</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.95408384824588</v>
+        <v>14.95408384824576</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.94782028900759</v>
+        <v>16.94782028900686</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-3.013047207120929</v>
+        <v>-3.013047207119302</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.90926711939766</v>
+        <v>20.90926711939631</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.69750849638289</v>
+        <v>21.69750849638304</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-2.316565458170876</v>
+        <v>-2.316565458171025</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.05357305836274</v>
+        <v>29.05357305836094</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.01191547729039</v>
+        <v>31.01191547728798</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.61437471679781</v>
+        <v>32.61437471679838</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.7499509248118</v>
+        <v>36.74995092481112</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.19123791337086</v>
+        <v>38.19123791337026</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>11.31447295379513</v>
+        <v>11.31447295379659</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.60041434898481</v>
+        <v>35.600414348988</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>37.15382225628215</v>
+        <v>37.15382225628167</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1.895705175991734</v>
+        <v>-1.895705175990214</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.68457128336174</v>
+        <v>13.6845712833647</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>18.7758444179168</v>
+        <v>18.77584441791821</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-6.934386291786657</v>
+        <v>-6.934386291787822</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>17.21079749073802</v>
+        <v>17.21079749073733</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.75676943365569</v>
+        <v>23.75676943365171</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-5.297967142834812</v>
+        <v>-5.297967142835502</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.60979025431991</v>
+        <v>28.60979025432062</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.01867122849181</v>
+        <v>36.01867122849312</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.27245116555221</v>
+        <v>31.27245116555171</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.65975449881257</v>
+        <v>35.65975449881292</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.62318722311687</v>
+        <v>40.62318722311564</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>3.569644497577402</v>
+        <v>3.569644497578617</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>36.41436932548321</v>
+        <v>36.41436932548325</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>42.21947516542415</v>
+        <v>42.21947516542523</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>14.11216246518147</v>
+        <v>14.1121624651817</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>34.97366271596323</v>
+        <v>34.97366271596387</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.94684917240411</v>
+        <v>39.9468491724061</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.376886385466095</v>
+        <v>5.376886385466451</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>38.99018712780403</v>
+        <v>38.99018712780447</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>43.68498796575277</v>
+        <v>43.6849879657528</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.01072859806969</v>
+        <v>15.01072859806884</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>56.77835464454196</v>
+        <v>56.77835464454349</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>63.55994200862021</v>
+        <v>63.55994200862004</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>67.34067406852907</v>
+        <v>67.34067406852763</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>74.67921227950507</v>
+        <v>74.67921227950467</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>78.33058937132924</v>
+        <v>78.33058937132866</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.10973681406735</v>
+        <v>28.10973681406843</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>72.866948758557</v>
+        <v>72.86694875855888</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>77.30678961559994</v>
+        <v>77.30678961559948</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-5.58843494145813</v>
+        <v>-5.588434941459829</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.539392895570566</v>
+        <v>-1.539392895572062</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1.009090335460106</v>
+        <v>-1.009090335460522</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-11.38071386568914</v>
+        <v>-11.38071386568718</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.373423054036868</v>
+        <v>2.373423054034765</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>1.980566027900293</v>
+        <v>1.980566027900087</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-15.9895321144616</v>
+        <v>-15.98953211446027</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.900253695978988</v>
+        <v>5.900253695979101</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>6.679068417358545</v>
+        <v>6.679068417357486</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>9.848349099226779</v>
+        <v>9.84834909922599</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.335354913773104</v>
+        <v>8.335354913773907</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>9.286193670753013</v>
+        <v>9.286193670753638</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-4.627509683551063</v>
+        <v>-4.627509683551187</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>8.40774942351034</v>
+        <v>8.407749423512039</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.105836638437451</v>
+        <v>7.105836638435365</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.968263702529343</v>
+        <v>-4.968263702530512</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.293553372216808</v>
+        <v>5.293553372216779</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>8.26151248638728</v>
+        <v>8.26151248638992</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-8.553901132454664</v>
+        <v>-8.55390113245455</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.125048672193296</v>
+        <v>8.125048672190966</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.65974135144916</v>
+        <v>12.65974135144712</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-10.82667085889712</v>
+        <v>-10.82667085889658</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>15.81879648841778</v>
+        <v>15.81879648841816</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.32230749745086</v>
+        <v>21.32230749745204</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.00494419429243</v>
+        <v>18.00494419429185</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.43896682402963</v>
+        <v>19.43896682402786</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.00918344718705</v>
+        <v>23.00918344718619</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-3.071006672073514</v>
+        <v>-3.071006672071929</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.59213952306826</v>
+        <v>21.59213952306791</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.94750190154208</v>
+        <v>23.94750190154279</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>13.9847038472971</v>
+        <v>13.98470384729813</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.54106358649375</v>
+        <v>29.54106358649284</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.61897859793426</v>
+        <v>32.61897859793503</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>3.705425674547927</v>
+        <v>3.705425674549611</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.03002760537832</v>
+        <v>30.03002760537817</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.98571214835558</v>
+        <v>32.98571214835451</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.53470949562976</v>
+        <v>10.53470949562722</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>45.18027528344632</v>
+        <v>45.18027528344317</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>50.26399484140661</v>
+        <v>50.26399484140435</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>55.24717040264382</v>
+        <v>55.24717040264396</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>59.87202463486116</v>
+        <v>59.87202463486271</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>62.8588954363084</v>
+        <v>62.85889543630897</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.88519097587955</v>
+        <v>22.8851909758813</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>59.34414503761678</v>
+        <v>59.34414503761788</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>61.02649670573285</v>
+        <v>61.02649670573429</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.65947915937056</v>
+        <v>9.659479159372145</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.8622454110002</v>
+        <v>21.8622454109987</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.9135872224504</v>
+        <v>25.91358722244997</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-3.716054928185363</v>
+        <v>-3.716054928187505</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.61048430654462</v>
+        <v>25.61048430654011</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.39507357862797</v>
+        <v>28.39507357862689</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>1.833821697898598</v>
+        <v>1.83382169789842</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.86084325781457</v>
+        <v>37.8608432578135</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>41.88223203856609</v>
+        <v>41.88223203856475</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.88149371478757</v>
+        <v>44.88149371478773</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>48.36016796893044</v>
+        <v>48.36016796892864</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>50.26901040067243</v>
+        <v>50.26901040067163</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.38324069664983</v>
+        <v>22.38324069665137</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>49.99988715012391</v>
+        <v>49.99988715012741</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>55.86506939272021</v>
+        <v>55.86506939272501</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.041261280413499</v>
+        <v>9.041261280414014</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.34769535298021</v>
+        <v>31.34769535298363</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>36.22439603784272</v>
+        <v>36.22439603784294</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-3.023731280058199</v>
+        <v>-3.023731280058106</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.6199807307495</v>
+        <v>31.61998073075114</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>38.26704508005766</v>
+        <v>38.26704508005592</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>2.051983136114069</v>
+        <v>2.051983136112975</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>45.60204814515058</v>
+        <v>45.60204814515019</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>53.30932936793338</v>
+        <v>53.30932936793381</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>51.07282737373978</v>
+        <v>51.07282737374003</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>60.3057555550474</v>
+        <v>60.30575555504691</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>64.42144867213</v>
+        <v>64.42144867213084</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>18.36033374176532</v>
+        <v>18.36033374176387</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>63.19981170771833</v>
+        <v>63.19981170771808</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>69.99382741581968</v>
+        <v>69.99382741581995</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.82387105428644</v>
+        <v>19.82387105428874</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>46.6526427972823</v>
+        <v>46.65264279728316</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>52.15824312293698</v>
+        <v>52.15824312293766</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.375503633012636</v>
+        <v>8.375503633012217</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>50.54417796085181</v>
+        <v>50.54417796085347</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>56.57894316488223</v>
+        <v>56.57894316488296</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.28354527538974</v>
+        <v>20.28354527538876</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>70.11866790429481</v>
+        <v>70.11866790429632</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>78.75805927779625</v>
+        <v>78.75805927780063</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>85.97065422937663</v>
+        <v>85.97065422937662</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>95.26256919977726</v>
+        <v>95.26256919977776</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>101.5103420546689</v>
+        <v>101.5103420546672</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>39.26548279498566</v>
+        <v>39.26548279498633</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>93.29731790912238</v>
+        <v>93.29731790912034</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>101.8416224119068</v>
+        <v>101.8416224119071</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>15.68523019570033</v>
+        <v>15.68523019569927</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.42681538440714</v>
+        <v>38.42681538440771</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>42.47876961146355</v>
+        <v>42.47876961146287</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.732260312170874</v>
+        <v>9.732260312170039</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>46.53591192423632</v>
+        <v>46.53591192423691</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>49.80318293179525</v>
+        <v>49.80318293179582</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.1670655016836</v>
+        <v>17.16706550168434</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>60.13734818121403</v>
+        <v>60.13734818121613</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>64.46900766331161</v>
+        <v>64.46900766331224</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>60.77551657485411</v>
+        <v>60.77551657485336</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>72.71283383987246</v>
+        <v>72.71283383987389</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>75.07954563804121</v>
+        <v>75.07954563804537</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.25341458635204</v>
+        <v>25.25341458635427</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>69.09692334884518</v>
+        <v>69.09692334884842</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>72.87776577592042</v>
+        <v>72.87776577592157</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>10.28457333379251</v>
+        <v>10.28457333379208</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>37.22878504955646</v>
+        <v>37.22878504955571</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.65028521784373</v>
+        <v>42.65028521784443</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>4.360214865490294</v>
+        <v>4.360214865487061</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>41.23719238809497</v>
+        <v>41.23719238809618</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>48.34715633252056</v>
+        <v>48.34715633252008</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>12.3720077766403</v>
+        <v>12.37200777663998</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>57.68283157016482</v>
+        <v>57.68283157016844</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>65.82268301785267</v>
+        <v>65.82268301785348</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>58.03137992003391</v>
+        <v>58.03137992003414</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>70.55238560717267</v>
+        <v>70.55238560717309</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>74.20414734173247</v>
+        <v>74.20414734173107</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>18.08697767550775</v>
+        <v>18.08697767550834</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>69.95984423879113</v>
+        <v>69.95984423879014</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>76.04577434112757</v>
+        <v>76.04577434112693</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>15.83678580554233</v>
+        <v>15.83678580554144</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>46.02809229324172</v>
+        <v>46.02809229324178</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>52.13055702403091</v>
+        <v>52.13055702403027</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>9.447396390050658</v>
+        <v>9.447396390053308</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>53.20815489998278</v>
+        <v>53.20815489998322</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>59.67197255065164</v>
+        <v>59.67197255065167</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>22.48183741548952</v>
+        <v>22.48183741548949</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>73.27515491269631</v>
+        <v>73.2751549126973</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>81.89599396616833</v>
+        <v>81.89599396616987</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>82.68384159319407</v>
+        <v>82.6838415931913</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>97.11703876883116</v>
+        <v>97.1170387688307</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>102.9210363616018</v>
+        <v>102.9210363616019</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>33.95048113751297</v>
+        <v>33.95048113751182</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>94.09722748861402</v>
+        <v>94.09722748861391</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>101.0534180826955</v>
+        <v>101.0534180826967</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>17.23257548885276</v>
+        <v>17.2325754888538</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.34006023187346</v>
+        <v>38.3400602318743</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>43.1487406514041</v>
+        <v>43.14874065140477</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.549193553223853</v>
+        <v>7.549193553224713</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>48.19707342963432</v>
+        <v>48.1970734296336</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>51.59672408908287</v>
+        <v>51.59672408908321</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.62643345545993</v>
+        <v>17.62643345545743</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>63.76213890108396</v>
+        <v>63.76213890108126</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>68.31711915436895</v>
+        <v>68.31711915436856</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>64.3703987856418</v>
+        <v>64.37039878563742</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>73.46552301381439</v>
+        <v>73.46552301381348</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>75.38684380934488</v>
+        <v>75.38684380934477</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.27862475381971</v>
+        <v>32.27862475381955</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>72.54742860238817</v>
+        <v>72.54742860238827</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>79.71337218526736</v>
+        <v>79.71337218526773</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>13.83408542149878</v>
+        <v>13.83408542149656</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>43.49679765130837</v>
+        <v>43.49679765130545</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>47.4539109375887</v>
+        <v>47.45391093758623</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2.434496081809323</v>
+        <v>2.434496081811853</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>46.47768654429463</v>
+        <v>46.47768654429278</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>52.04527109959041</v>
+        <v>52.04527109958975</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>11.48830983842432</v>
+        <v>11.48830983842458</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>63.43085332715206</v>
+        <v>63.43085332714984</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>70.16355932158638</v>
+        <v>70.16355932158172</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>66.66111670613834</v>
+        <v>66.66111670613323</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>79.50818426656403</v>
+        <v>79.50818426656176</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>82.43962840616088</v>
+        <v>82.43962840615626</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.72180610458268</v>
+        <v>26.72180610458051</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>81.6112674804711</v>
+        <v>81.61126748047019</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>87.60218499555103</v>
+        <v>87.60218499554819</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>17.40887913779501</v>
+        <v>17.40887913779684</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>50.79926094158326</v>
+        <v>50.79926094158144</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>55.89598607612172</v>
+        <v>55.89598607612162</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>8.097879978940606</v>
+        <v>8.09787997894337</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>58.43388661591358</v>
+        <v>58.4338866159124</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>64.14003047072852</v>
+        <v>64.14003047072946</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>21.79619494559563</v>
+        <v>21.79619494559224</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>78.94076673017601</v>
+        <v>78.94076673017419</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>87.25390368382668</v>
+        <v>87.25390368382679</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>92.4572085396556</v>
+        <v>92.45720853965145</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>105.2791021915211</v>
+        <v>105.2791021915196</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>110.5863343916826</v>
+        <v>110.586334391682</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>39.10066283151033</v>
+        <v>39.10066283150881</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>102.133878097269</v>
+        <v>102.1338780972682</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>110.6188960784336</v>
+        <v>110.6188960784332</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>21.96459065042617</v>
+        <v>21.96459065042416</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>36.25077667450305</v>
+        <v>36.250776674505</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>41.16316742819244</v>
+        <v>41.16316742819039</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.99718781216423</v>
+        <v>15.9971878121642</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>47.6603727010083</v>
+        <v>47.66037270100928</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>51.59504906049298</v>
+        <v>51.59504906049325</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>21.49699019611813</v>
+        <v>21.49699019611844</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>58.84716147245592</v>
+        <v>58.84716147245673</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>63.81473661851381</v>
+        <v>63.81473661851301</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>62.06996581922745</v>
+        <v>62.06996581922844</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>67.35207980587239</v>
+        <v>67.35207980587404</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>70.34168839018398</v>
+        <v>70.34168839018278</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.48677525611629</v>
+        <v>38.48677525611615</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>68.30740312066214</v>
+        <v>68.30740312066446</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>76.01097652596458</v>
+        <v>76.01097652596701</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.94294985585709</v>
+        <v>21.94294985585751</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>45.84356930061929</v>
+        <v>45.84356930062049</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>50.50891337532746</v>
+        <v>50.5089133753285</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.67634964356142</v>
+        <v>16.67634964355966</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>53.17727062070855</v>
+        <v>53.17727062070897</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>59.81375758885432</v>
+        <v>59.81375758885617</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.53762383106269</v>
+        <v>20.53762383105912</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>64.87591980759818</v>
+        <v>64.87591980759603</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>72.47767551961101</v>
+        <v>72.47767551961164</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>68.24130282751743</v>
+        <v>68.24130282751851</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>78.92601840561275</v>
+        <v>78.92601840561103</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>83.39125636640057</v>
+        <v>83.39125636640273</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>34.71652211736345</v>
+        <v>34.71652211736208</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>80.84383041630491</v>
+        <v>80.84383041630423</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>88.0859450085924</v>
+        <v>88.08594500859104</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.94752884548645</v>
+        <v>26.94752884548495</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>54.47490668898085</v>
+        <v>54.47490668898109</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>59.79930948501037</v>
+        <v>59.79930948500927</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>22.13724327575601</v>
+        <v>22.13724327575725</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.80239969228636</v>
+        <v>64.80239969228565</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>71.06953879346055</v>
+        <v>71.06953879346251</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>31.98697504714979</v>
+        <v>31.98697504714962</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>81.46588498871108</v>
+        <v>81.46588498871066</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>90.19258632052001</v>
+        <v>90.19258632051975</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>95.3048191450183</v>
+        <v>95.30481914501978</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>105.4845833244564</v>
+        <v>105.4845833244557</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>112.4220137454459</v>
+        <v>112.4220137454422</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>48.47073206370739</v>
+        <v>48.47073206370578</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>102.2083054640006</v>
+        <v>102.2083054639999</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>111.5496448288186</v>
+        <v>111.5496448288177</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>12.80524297532923</v>
+        <v>12.80524297532907</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>37.57197148765947</v>
+        <v>37.57197148765935</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>41.86201678757109</v>
+        <v>41.8620167875719</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>3.481797718227773</v>
+        <v>3.48179771822724</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>44.69254286393962</v>
+        <v>44.69254286393735</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>47.95578742118373</v>
+        <v>47.95578742118252</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>13.00163542931185</v>
+        <v>13.00163542931163</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>60.57893850394542</v>
+        <v>60.57893850394247</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>65.06471201023534</v>
+        <v>65.06471201023602</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>61.05327665572002</v>
+        <v>61.05327665571407</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>72.775533690093</v>
+        <v>72.7755336900909</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>74.09325606145433</v>
+        <v>74.09325606145158</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>20.71522257617952</v>
+        <v>20.71522257617799</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>68.68472097918718</v>
+        <v>68.68472097918905</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>72.80262273726392</v>
+        <v>72.80262273726601</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>7.864052597855908</v>
+        <v>7.864052597855478</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>39.05180639589344</v>
+        <v>39.05180639589184</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>43.2021286715145</v>
+        <v>43.20212867151393</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-2.076011450428174</v>
+        <v>-2.076011450426583</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>40.89824313782096</v>
+        <v>40.89824313782209</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>46.6551987804799</v>
+        <v>46.65519878047882</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>7.652667534189854</v>
+        <v>7.652667534188547</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>59.35331972431572</v>
+        <v>59.35331972431456</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>66.45116407353598</v>
+        <v>66.45116407353458</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>60.46564739706655</v>
+        <v>60.46564739706306</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>74.42318640467903</v>
+        <v>74.42318640467576</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>75.94807128415987</v>
+        <v>75.94807128416332</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>14.83967039955523</v>
+        <v>14.83967039955421</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>74.09863892824239</v>
+        <v>74.09863892824185</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>78.43655753222619</v>
+        <v>78.43655753222396</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>13.98598937578623</v>
+        <v>13.98598937578442</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>48.31651520697269</v>
+        <v>48.3165152069732</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>53.39402429415419</v>
+        <v>53.39402429415421</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.842602143023671</v>
+        <v>4.84260214302517</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>54.34425499352409</v>
+        <v>54.34425499352371</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>59.77026496352808</v>
+        <v>59.77026496352968</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>19.21171711800148</v>
+        <v>19.21171711799887</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>76.06923733026159</v>
+        <v>76.0692373302585</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>84.14871213764147</v>
+        <v>84.14871213764056</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>87.56395002802104</v>
+        <v>87.56395002801695</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>102.609256935725</v>
+        <v>102.6092569357224</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>107.2312886575091</v>
+        <v>107.2312886575057</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.74051902082033</v>
+        <v>31.74051902081897</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>98.7534967926953</v>
+        <v>98.7534967926936</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>104.9496567807495</v>
+        <v>104.9496567807492</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>8.171668120142256</v>
+        <v>8.171668120142835</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.19196257996261</v>
+        <v>19.19196257996329</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.5029563346089</v>
+        <v>21.50295633460836</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-2.511802247468689</v>
+        <v>-2.511802247466983</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.96961930008281</v>
+        <v>23.96961930008206</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.16413874964229</v>
+        <v>25.16413874964254</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>2.269298850747651</v>
+        <v>2.269298850748571</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>34.85785518975181</v>
+        <v>34.85785518975263</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>37.37832474597032</v>
+        <v>37.37832474596969</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.4108983128485</v>
+        <v>39.41089831284864</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>42.30304838986383</v>
+        <v>42.30304838986524</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>43.64598267752083</v>
+        <v>43.64598267752146</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.66471968889856</v>
+        <v>16.66471968889656</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>41.30848563740177</v>
+        <v>41.30848563740228</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>44.41850704037103</v>
+        <v>44.41850704037005</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>11.14766331127974</v>
+        <v>11.14766331127657</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.48259182258883</v>
+        <v>32.48259182258776</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>37.81359566391395</v>
+        <v>37.813595663915</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>5.650428022998161</v>
+        <v>5.650428023000527</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>38.26674200450251</v>
+        <v>38.26674200450437</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>45.56682389250054</v>
+        <v>45.56682389250211</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>10.37483846489408</v>
+        <v>10.37483846489531</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>50.98518848212732</v>
+        <v>50.98518848212793</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>59.19733574016492</v>
+        <v>59.19733574016825</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.88463772920098</v>
+        <v>54.88463772920127</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>63.03029608400988</v>
+        <v>63.03029608400789</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>69.19977069155422</v>
+        <v>69.19977069155769</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.19670650361972</v>
+        <v>21.19670650361774</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>63.2414702857861</v>
+        <v>63.24147028578663</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>70.90433434461632</v>
+        <v>70.90433434461588</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.73409749547008</v>
+        <v>21.73409749546892</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>47.38311872970505</v>
+        <v>47.38311872970442</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>53.96863951868433</v>
+        <v>53.96863951868539</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>13.70289381997198</v>
+        <v>13.70289381997295</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>53.55707132322384</v>
+        <v>53.55707132322526</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>60.9168547660008</v>
+        <v>60.91685476599886</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>23.62173554262937</v>
+        <v>23.62173554263029</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>70.27764295417587</v>
+        <v>70.27764295417799</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>79.89793493789682</v>
+        <v>79.89793493789583</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>81.64544491453978</v>
+        <v>81.64544491454041</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>89.56861911699349</v>
+        <v>89.56861911699278</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>98.48537201207552</v>
+        <v>98.48537201207645</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>35.55319790737974</v>
+        <v>35.55319790737813</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>86.32652854029622</v>
+        <v>86.32652854029426</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>96.41476962638038</v>
+        <v>96.41476962638069</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>9.990803510300656</v>
+        <v>9.990803510299665</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>22.47888228889384</v>
+        <v>22.47888228889272</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.00007810304672</v>
+        <v>28.00007810304714</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1.37924512994986</v>
+        <v>1.379245129951995</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.7228353831081</v>
+        <v>30.72283538310617</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.41890052823884</v>
+        <v>35.41890052823923</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>6.485293035920927</v>
+        <v>6.485293035922064</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.62681379106748</v>
+        <v>41.62681379106802</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>47.2722410620413</v>
+        <v>47.27224106204165</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>47.36151393185743</v>
+        <v>47.36151393185959</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>51.50514530163015</v>
+        <v>51.50514530163109</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>55.299605996929</v>
+        <v>55.29960599692861</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.87629007115687</v>
+        <v>25.87629007115883</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>53.07542054587814</v>
+        <v>53.07542054587984</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>61.88426882135577</v>
+        <v>61.88426882135688</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>8.891712225186692</v>
+        <v>8.891712225184191</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.85018374621718</v>
+        <v>30.85018374621649</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>37.05283140542819</v>
+        <v>37.05283140542934</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1.780053409835384</v>
+        <v>1.780053409834599</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.82871676028543</v>
+        <v>35.82871676028511</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>44.22765176681276</v>
+        <v>44.22765176680991</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>5.132369444797741</v>
+        <v>5.132369444801201</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>47.12908052643932</v>
+        <v>47.12908052644476</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>56.28888790500539</v>
+        <v>56.28888790501054</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>52.14889990396127</v>
+        <v>52.14889990396527</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>61.61679925704446</v>
+        <v>61.6167992570475</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>67.82840156827048</v>
+        <v>67.82840156827433</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>20.39023151553084</v>
+        <v>20.39023151553112</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>63.64088296915607</v>
+        <v>63.64088296915448</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>73.26972636673577</v>
+        <v>73.2697263667372</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>14.51310681650494</v>
+        <v>14.51310681650543</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>40.09534712173065</v>
+        <v>40.09534712173025</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>46.95764974081953</v>
+        <v>46.9576497408227</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.809360814405851</v>
+        <v>7.809360814408928</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>48.0077730459796</v>
+        <v>48.00777304597857</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>56.04048491749726</v>
+        <v>56.04048491749928</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>17.24752501235887</v>
+        <v>17.24752501236132</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>64.38400515579558</v>
+        <v>64.38400515579268</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>74.66166533350452</v>
+        <v>74.66166533350567</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>79.68147025426913</v>
+        <v>79.6814702542664</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>88.48823569365121</v>
+        <v>88.48823569364959</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>97.27793980120302</v>
+        <v>97.27793980120182</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>34.74586921794107</v>
+        <v>34.74586921793878</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>85.4995165220046</v>
+        <v>85.4995165220045</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>97.23887974195011</v>
+        <v>97.23887974195114</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>18.08803117295609</v>
+        <v>18.08803117295793</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>34.03223645941159</v>
+        <v>34.03223645940895</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>38.25346514918665</v>
+        <v>38.25346514918567</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>12.85566472226788</v>
+        <v>12.85566472226535</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>47.61467207581577</v>
+        <v>47.61467207581546</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>50.072555036593</v>
+        <v>50.07255503659414</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>19.19402905275315</v>
+        <v>19.19402905275099</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>59.95860553383781</v>
+        <v>59.95860553383766</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>63.65145882386449</v>
+        <v>63.6514588238621</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>61.7012316299511</v>
+        <v>61.70123162994824</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>69.89703542532135</v>
+        <v>69.89703542531929</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>71.44895502139941</v>
+        <v>71.44895502139866</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>35.68371792743215</v>
+        <v>35.68371792743087</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>68.42980842058599</v>
+        <v>68.42980842058535</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>74.71064675697272</v>
+        <v>74.71064675697468</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>14.28771347224467</v>
+        <v>14.28771347224285</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>38.77211977611774</v>
+        <v>38.77211977611799</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>43.1498178463799</v>
+        <v>43.14981784637958</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>6.394476731884376</v>
+        <v>6.39447673188341</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>44.99999386357922</v>
+        <v>44.99999386358181</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>50.3237845471396</v>
+        <v>50.32378454713997</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>12.63211653787075</v>
+        <v>12.63211653787136</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>59.57515876250467</v>
+        <v>59.57515876250381</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>66.04718474750631</v>
+        <v>66.0471847475042</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>62.16412286765381</v>
+        <v>62.16412286765269</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>73.67129948967333</v>
+        <v>73.67129948967418</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>76.58750854636241</v>
+        <v>76.58750854636153</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>27.08600447833543</v>
+        <v>27.08600447833607</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>75.01796031360485</v>
+        <v>75.01796031360404</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>80.59349676908809</v>
+        <v>80.59349676908997</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>19.28540424155842</v>
+        <v>19.28540424155705</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>48.13312489879963</v>
+        <v>48.13312489880008</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>52.46845775773377</v>
+        <v>52.46845775773347</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.25393048876873</v>
+        <v>12.25393048876719</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>58.07421961185688</v>
+        <v>58.074219611857</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>61.97340117746591</v>
+        <v>61.97340117746739</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>24.71936180134016</v>
+        <v>24.71936180133783</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>77.72488716771295</v>
+        <v>77.72488716771119</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>84.24771474420017</v>
+        <v>84.24771474419966</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>90.05408864735016</v>
+        <v>90.05408864735162</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>101.827013237694</v>
+        <v>101.8270132376931</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>104.8079684886161</v>
+        <v>104.8079684886164</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>41.05843669454146</v>
+        <v>41.05843669453979</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>98.33589597121117</v>
+        <v>98.33589597121171</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>103.9425867478208</v>
+        <v>103.9425867478206</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>13.33677445482784</v>
+        <v>13.33677445482886</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.13061676047057</v>
+        <v>38.13061676046971</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>41.85913607787808</v>
+        <v>41.85913607787792</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>5.664420753897305</v>
+        <v>5.664420753893852</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>47.78257019151226</v>
+        <v>47.78257019151163</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>50.31793432200039</v>
+        <v>50.31793432200188</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>14.77210036227859</v>
+        <v>14.77210036227776</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>62.95770061860284</v>
+        <v>62.95770061860362</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>66.81964164674926</v>
+        <v>66.81964164674955</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>63.49399206380817</v>
+        <v>63.49399206380635</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>75.11701513053733</v>
+        <v>75.11701513053367</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>75.27387871569761</v>
+        <v>75.27387871569623</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>21.81535801827386</v>
+        <v>21.81535801827471</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>69.679244201196</v>
+        <v>69.67924420119608</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>73.40128250416085</v>
+        <v>73.40128250416001</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>7.373583465590039</v>
+        <v>7.373583465588291</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.67019500030487</v>
+        <v>38.67019500030559</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>42.36313800199166</v>
+        <v>42.3631380019925</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-1.122980086867079</v>
+        <v>-1.122980086868585</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>42.6063260047387</v>
+        <v>42.60632600473892</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>47.86911880055137</v>
+        <v>47.86911880055006</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>7.828567384326876</v>
+        <v>7.828567384327977</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>60.06178282391971</v>
+        <v>60.06178282391796</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>66.71939129437091</v>
+        <v>66.71939129437095</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>62.16393489291758</v>
+        <v>62.16393489291696</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>75.60468566448807</v>
+        <v>75.60468566448596</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>76.60022243613844</v>
+        <v>76.60022243613963</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>15.50429649852357</v>
+        <v>15.50429649852897</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>74.71979593318733</v>
+        <v>74.71979593318753</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>78.83812103328918</v>
+        <v>78.83812103329218</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>13.79549350613411</v>
+        <v>13.79549350613503</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>47.53007574490497</v>
+        <v>47.53007574490618</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>52.37246729549528</v>
+        <v>52.37246729549825</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.053224285472632</v>
+        <v>4.053224285472675</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>53.13771698449369</v>
+        <v>53.137716984493</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>58.396222734909</v>
+        <v>58.39622273490945</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>17.39008810965879</v>
+        <v>17.39008810965635</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>73.80627763949522</v>
+        <v>73.80627763949691</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>81.76331210904958</v>
+        <v>81.76331210904907</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>85.37723149666597</v>
+        <v>85.37723149666554</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>98.86565094001089</v>
+        <v>98.86565094001048</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>103.1520787910378</v>
+        <v>103.1520787910356</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>28.38010281098526</v>
+        <v>28.38010281098646</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>93.78467858718506</v>
+        <v>93.78467858718778</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>100.3322759029817</v>
+        <v>100.3322759029843</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.444</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.185</v>
+        <v>17.262</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.668</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.545</v>
+        <v>12.543</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.834</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.846</v>
+        <v>9.699</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.09197371044342</v>
+        <v>11.60889032573304</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.51808550327981</v>
+        <v>22.49986886985943</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.15270139428708</v>
+        <v>25.59295646803189</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.629502509134271</v>
+        <v>0.5952616898728991</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35.46154328243774</v>
+        <v>25.01879585166592</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>39.00342990158292</v>
+        <v>28.21228542117757</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.37523808667272</v>
+        <v>5.193326241010173</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>48.23426468625579</v>
+        <v>35.31824255341103</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>52.90372894645508</v>
+        <v>38.37363394283449</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.39898019881387</v>
+        <v>39.5961481589643</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>58.38370168848022</v>
+        <v>44.28078500629417</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60.78922464692984</v>
+        <v>46.79899033225004</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.68225532133922</v>
+        <v>22.88975794070192</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>59.36740183658407</v>
+        <v>37.79955396887766</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>66.39507307513819</v>
+        <v>47.75454097421361</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.96311185043745</v>
+        <v>16.82278754710484</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>41.23941701310697</v>
+        <v>37.07203409565403</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>46.18098293902437</v>
+        <v>43.67242349458165</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.040059022299717</v>
+        <v>6.226409951733732</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>43.90836795026579</v>
+        <v>35.23858787421371</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50.76350769717885</v>
+        <v>44.01236175765216</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.77274762593523</v>
+        <v>12.3264873069295</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>57.84555605380402</v>
+        <v>50.715767672947</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>65.69954008754328</v>
+        <v>60.06564643511895</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62.48520144988619</v>
+        <v>55.78816343398682</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>73.10356754807532</v>
+        <v>65.49888502619412</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>77.35487948716805</v>
+        <v>70.76305637471843</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.84974791530584</v>
+        <v>26.73561832507318</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>75.17485521681924</v>
+        <v>65.28161044524211</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>82.53000825191103</v>
+        <v>72.62391713043331</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.67670839478186</v>
+        <v>24.92775252459825</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>52.93413404082673</v>
+        <v>47.81127411398798</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>58.61685073211299</v>
+        <v>53.53843674542287</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16.02363442649683</v>
+        <v>11.55773029291269</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>59.57110574287004</v>
+        <v>48.65890605816735</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>66.07925066567857</v>
+        <v>54.865750347019</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.80639935255843</v>
+        <v>23.40464880791573</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>78.43912060680522</v>
+        <v>68.89094061276531</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>87.45851559887417</v>
+        <v>77.68948021773136</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>93.64614179204095</v>
+        <v>83.93956692566219</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>104.0173199023917</v>
+        <v>91.60144126593079</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>110.8422940687826</v>
+        <v>98.8823736222988</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>45.65513351747406</v>
+        <v>41.933568420785</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>101.1633639409015</v>
+        <v>85.68758475256156</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>110.66156939857</v>
+        <v>94.72248851712028</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.50804461857025</v>
+        <v>15.6051248079999</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>39.28980154718117</v>
+        <v>40.28241119438302</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.91954716764375</v>
+        <v>43.77997830928307</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.583704779950454</v>
+        <v>6.797259105370351</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>49.52605191744883</v>
+        <v>47.60166757421153</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>51.74524502731042</v>
+        <v>49.47873435586575</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.67842649850569</v>
+        <v>17.88182778613098</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>64.79950924437092</v>
+        <v>65.10668554692478</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>68.14529926480219</v>
+        <v>67.60855183244125</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>61.30845801237285</v>
+        <v>62.08849180438234</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>75.26470281581794</v>
+        <v>70.52929145305814</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>76.60500377205619</v>
+        <v>73.98422257974669</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>23.1814675090022</v>
+        <v>27.01687361002399</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>70.24245605149898</v>
+        <v>63.58185261476567</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>73.85063438624292</v>
+        <v>69.62015023518482</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.9114681977936</v>
+        <v>13.69450089084489</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>44.81843269980643</v>
+        <v>41.22181900821741</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>49.05791277228253</v>
+        <v>45.41634757613581</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.18505677589547</v>
+        <v>3.929544277520815</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>48.79431332249108</v>
+        <v>42.76137455721299</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>54.34816308343309</v>
+        <v>48.42212472195622</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.99326682528132</v>
+        <v>14.29170900305322</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>68.20528143436124</v>
+        <v>62.83578154611908</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>74.8705727700102</v>
+        <v>69.35373370552227</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>68.18807227886441</v>
+        <v>65.05999443911666</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>82.57314868885487</v>
+        <v>76.84782367651351</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>85.44667964885986</v>
+        <v>79.54296329383921</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.47986767139754</v>
+        <v>26.49142063394359</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>82.24564767984977</v>
+        <v>75.81578273222978</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>86.99031012041975</v>
+        <v>80.07923005441273</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>19.46627891522015</v>
+        <v>17.97303892334709</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>54.37683321073043</v>
+        <v>49.8545817687851</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>59.26624281028676</v>
+        <v>54.57996595024574</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>10.89944834605677</v>
+        <v>6.166466160375958</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>62.15128448993585</v>
+        <v>53.29450500743402</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>66.87374711075138</v>
+        <v>58.3852006451599</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.64110035869265</v>
+        <v>20.60068237655031</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>85.04427058260795</v>
+        <v>77.10390506028118</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>92.08362293847895</v>
+        <v>83.75315889982552</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>93.72405393445082</v>
+        <v>84.85503739712557</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>110.2677694196286</v>
+        <v>97.56218029533714</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>113.1088011762497</v>
+        <v>101.3371833235859</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>39.52744421176827</v>
+        <v>34.40635564862536</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>106.2805472040339</v>
+        <v>93.20710229629272</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>111.160106966347</v>
+        <v>97.14908159707737</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.50804461857025</v>
+        <v>16.42637871815849</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.28980154718117</v>
+        <v>37.13128115992369</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42.91954716764375</v>
+        <v>39.89622350815822</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.583704779950454</v>
+        <v>6.269351391060649</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>49.52605191744883</v>
+        <v>42.46163751928302</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>51.74524502731042</v>
+        <v>43.50702087160302</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.67842649850569</v>
+        <v>15.92305430257633</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>64.79950924437092</v>
+        <v>58.7007843807273</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>68.14529926480219</v>
+        <v>60.54657093225194</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>61.30845801237285</v>
+        <v>58.22279307259113</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>75.26470281581794</v>
+        <v>65.83749702244494</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>76.60500377205619</v>
+        <v>68.54366169866344</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.1814675090022</v>
+        <v>27.24822915421983</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>70.24245605149898</v>
+        <v>58.98943754495676</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>73.85063438624292</v>
+        <v>64.08843456146479</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>13.9114681977936</v>
+        <v>18.28675867673437</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.81843269980643</v>
+        <v>43.70349928355427</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.05791277228253</v>
+        <v>46.53704742513118</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.18505677589547</v>
+        <v>7.406615499149549</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48.79431332249108</v>
+        <v>44.45743935239977</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>54.34816308343309</v>
+        <v>48.58541776093561</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.99326682528132</v>
+        <v>16.93846147008791</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>68.20528143436124</v>
+        <v>63.55904208520943</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>74.8705727700102</v>
+        <v>68.63638344302787</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>68.18807227886441</v>
+        <v>66.13735924873849</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>82.57314868885487</v>
+        <v>75.97512551119823</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>85.44667964885986</v>
+        <v>78.31493359998173</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.47986767139754</v>
+        <v>29.93236715272236</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>82.24564767984977</v>
+        <v>75.73618909470277</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>86.99031012041975</v>
+        <v>78.85563951286916</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>19.46627891522015</v>
+        <v>21.81496719590141</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>54.37683321073043</v>
+        <v>51.94432025796056</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>59.26624281028676</v>
+        <v>55.57523564355058</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.89944834605677</v>
+        <v>9.106114399973592</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>62.15128448993585</v>
+        <v>55.54592078794691</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>66.87374711075138</v>
+        <v>58.74167707503935</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.64110035869265</v>
+        <v>22.80572961945553</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>85.04427058260795</v>
+        <v>78.20593611274043</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>92.08362293847895</v>
+        <v>83.22868389923291</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>93.72405393445082</v>
+        <v>86.57053336656185</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>110.2677694196286</v>
+        <v>97.76419270664371</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>113.1088011762497</v>
+        <v>100.7924649816432</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.52744421176827</v>
+        <v>37.75034508191511</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>106.2805472040339</v>
+        <v>93.76081427716343</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>111.160106966347</v>
+        <v>96.52589498093326</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>12.51470510593694</v>
+        <v>13.5276150782532</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.91636548443259</v>
+        <v>22.08879544446149</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.63539681681038</v>
+        <v>25.06446390709424</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.191988821376347</v>
+        <v>3.987268220966193</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>27.65647977028857</v>
+        <v>24.8412367048569</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.32914328925367</v>
+        <v>28.03682931076</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.039100230037745</v>
+        <v>7.656055204744703</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>37.38866655338572</v>
+        <v>34.20754485647683</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>41.21812156384804</v>
+        <v>37.06808069504351</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>44.43934682950835</v>
+        <v>39.3240201502125</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.76124342235101</v>
+        <v>42.97976766493579</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>48.15467908506103</v>
+        <v>46.0076634594015</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.3984147288252</v>
+        <v>27.86655780172223</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>48.87485690286447</v>
+        <v>39.35213117248458</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>54.28207944053857</v>
+        <v>48.76388695567715</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.14034310203561</v>
+        <v>16.22941113465895</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.05043765823994</v>
+        <v>33.48647743941889</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>37.40127143368083</v>
+        <v>39.61715454691737</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4.440325572168961</v>
+        <v>7.506757260299892</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>35.80354617203371</v>
+        <v>32.77795347941021</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>42.20642757018017</v>
+        <v>40.98210235774299</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>6.718761082012401</v>
+        <v>11.9876219961801</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.04524122840073</v>
+        <v>46.24369458316614</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>54.44768981277014</v>
+        <v>54.8995595138972</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>52.21464662936705</v>
+        <v>49.74124260014653</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>60.03352829210165</v>
+        <v>59.23386558790094</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>64.72473286697014</v>
+        <v>64.84374338490497</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.52692149054074</v>
+        <v>26.121601272901</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>63.91125809998057</v>
+        <v>60.47554902628347</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>70.2476221310839</v>
+        <v>66.6449640315422</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.06372171455908</v>
+        <v>25.18918429782524</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>48.484896708959</v>
+        <v>45.17926096757795</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>53.62448495171241</v>
+        <v>50.61413516095678</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>14.19163025625373</v>
+        <v>12.06063420565044</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>53.13567929988987</v>
+        <v>45.76082216462142</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>59.12250184015133</v>
+        <v>51.86673159230801</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.83013936908491</v>
+        <v>23.05161996049541</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>70.50350384404788</v>
+        <v>64.74143127287547</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>79.01392782811959</v>
+        <v>73.24535011258884</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>85.79777787475851</v>
+        <v>77.08842699687483</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>93.6616309663893</v>
+        <v>84.05379841620814</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>100.6002815009853</v>
+        <v>91.72971266961838</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.86041294178877</v>
+        <v>40.70175278379352</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>92.46062785999244</v>
+        <v>80.107485772785</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>100.8721318663686</v>
+        <v>88.29619607705104</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.9393990749154</v>
+        <v>19.51718613658262</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.33954334923511</v>
+        <v>32.79954419005839</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>35.87943767849765</v>
+        <v>36.52153879971475</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.45109743772109</v>
+        <v>9.746879103054024</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>39.87019760946015</v>
+        <v>37.89762223671754</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>43.28613325059409</v>
+        <v>41.3865719035367</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.80753378503869</v>
+        <v>16.18126375224527</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>52.99960873021755</v>
+        <v>50.02967505224956</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>57.48968353210107</v>
+        <v>53.30293855508779</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>53.46561684483434</v>
+        <v>49.05520952219749</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>59.99069509132713</v>
+        <v>53.9012797483898</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>62.14812029009342</v>
+        <v>56.15377822004827</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.59365553479599</v>
+        <v>27.94567147437511</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>59.09731340883372</v>
+        <v>44.31458217879796</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>65.50040140111824</v>
+        <v>54.12167205394529</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18.18877098792299</v>
+        <v>25.03933375834731</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>45.95781668243229</v>
+        <v>46.73679059410865</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>49.31285181797676</v>
+        <v>50.87705628259484</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.219597543917986</v>
+        <v>14.24599711605322</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>49.35545976546511</v>
+        <v>46.41497694395441</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>54.57799027399806</v>
+        <v>52.24600608213024</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.43784672658514</v>
+        <v>22.67147842854423</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>64.40605490491086</v>
+        <v>63.79252336520658</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>70.75614903802116</v>
+        <v>70.19813695257064</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>66.90782003745501</v>
+        <v>66.75882057677546</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>79.69688814022595</v>
+        <v>77.58070451694907</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>82.5683658298512</v>
+        <v>81.44976046124614</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.73256009891844</v>
+        <v>37.47364267964753</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>81.74965225560213</v>
+        <v>77.60316084914389</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>21.47194761139455</v>
+        <v>28.56139035317961</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>52.82066713729539</v>
+        <v>52.18768079062002</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>57.43661407375122</v>
+        <v>56.80085344300409</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>12.39064032371092</v>
+        <v>14.28810565525622</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>59.65600546370309</v>
+        <v>53.31957306082823</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>65.191919714848</v>
+        <v>58.45197304472009</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>24.70831512705912</v>
+        <v>27.05945672868821</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>78.73366024305632</v>
+        <v>74.19948665894206</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>86.83256804120352</v>
+        <v>81.73414717593631</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>91.90321898467373</v>
+        <v>86.64521681379343</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>104.4667136018476</v>
+        <v>95.36770142972409</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>110.3565398824432</v>
+        <v>101.9378115355749</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>41.666333357304</v>
+        <v>45.01433414505829</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>101.3910709945243</v>
+        <v>89.95730194844512</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>109.4756022334392</v>
+        <v>96.74827538241516</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.38941253325775</v>
+        <v>16.25072524049041</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.02355241307453</v>
+        <v>33.9530289456869</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>38.55930521435886</v>
+        <v>38.86547786494955</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>5.961343172734145</v>
+        <v>8.728421437396811</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>46.64163530735244</v>
+        <v>42.90121456043053</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>48.19806488730382</v>
+        <v>45.88235361602243</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>14.33032664102278</v>
+        <v>17.02705245718797</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>61.02540832588223</v>
+        <v>56.08065917204905</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>63.6474319600439</v>
+        <v>59.08579543189718</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>52.57192601558526</v>
+        <v>49.51289026936824</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>63.85119841049214</v>
+        <v>54.92080580094618</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>64.73060799475923</v>
+        <v>57.32132276116855</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>17.03780271915935</v>
+        <v>20.49197536769154</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>56.69158385712939</v>
+        <v>42.75069828242019</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>60.09487137420806</v>
+        <v>48.49648445273661</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.8018774193899</v>
+        <v>23.19866499132533</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>53.1644632121163</v>
+        <v>49.968295693165</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>54.89765331835065</v>
+        <v>51.67975237763078</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>8.303405945369464</v>
+        <v>10.05768403887812</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>54.88249856254841</v>
+        <v>50.17023021981402</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>57.33553632102243</v>
+        <v>52.37539938291413</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.88244992564736</v>
+        <v>22.64695068220396</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>75.37967950868088</v>
+        <v>70.38779319293279</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>79.06645548731865</v>
+        <v>72.95997556861599</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>72.56383659970147</v>
+        <v>68.90667639441027</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>88.75657272508812</v>
+        <v>81.01763548537012</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>89.6724471512121</v>
+        <v>83.00306998779372</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.48290452804198</v>
+        <v>36.28581712665061</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>89.47923809835876</v>
+        <v>82.86078494549356</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>90.58565409642324</v>
+        <v>83.07838958026963</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.92731021455647</v>
+        <v>25.32161667271837</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>57.40187520451261</v>
+        <v>54.13919716366421</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>60.1886775242471</v>
+        <v>57.02540741775714</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.017819472366059</v>
+        <v>9.112023524666313</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>61.64529769161962</v>
+        <v>54.3005342524695</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>63.87705583981193</v>
+        <v>57.1315755465605</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>24.93474219400881</v>
+        <v>24.11393795671837</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>85.24944505641372</v>
+        <v>76.87139141822009</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>89.91884209017182</v>
+        <v>80.46021540520816</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>91.60730225105843</v>
+        <v>83.28872621888699</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>108.8631395211462</v>
+        <v>93.6153586584707</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>109.4147743098009</v>
+        <v>95.80737981247204</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>38.39516545594837</v>
+        <v>38.5770494582969</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>105.1233360308951</v>
+        <v>91.71529000355612</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>107.3507469306959</v>
+        <v>92.95056040616505</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1.400310812717384</v>
+        <v>5.55562427521825</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.63693970398688</v>
+        <v>13.98024001299764</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>17.74319912331993</v>
+        <v>15.27433145339484</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-8.354019073412632</v>
+        <v>-1.589751146191176</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.10995556062986</v>
+        <v>18.8697740001221</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.24402849018731</v>
+        <v>19.23048087942488</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-3.569239751266005</v>
+        <v>0.1222785400491873</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>33.67888967223879</v>
+        <v>25.06916062634926</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.08404673128326</v>
+        <v>25.63896656522904</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.560628798235</v>
+        <v>31.02213508917339</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>44.05766128278392</v>
+        <v>36.40363047783499</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>44.62688420328197</v>
+        <v>37.83095859496656</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.1708695831323</v>
+        <v>15.61959058414921</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>41.53161196363551</v>
+        <v>28.47053488158905</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>45.42268837983458</v>
+        <v>32.35342136433001</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>9.38631260328574</v>
+        <v>13.99452985114292</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>31.24795164470142</v>
+        <v>32.75582265230064</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.17405044432702</v>
+        <v>38.3607062150544</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-0.5676585946459678</v>
+        <v>5.830351025183752</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.39090933230138</v>
+        <v>34.10688388419162</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>40.07633081386379</v>
+        <v>41.11422267506108</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>6.452645270267654</v>
+        <v>11.3962472097175</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.34321202902712</v>
+        <v>47.50406424356576</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>57.02685899418404</v>
+        <v>54.80783625185337</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>53.4071797077432</v>
+        <v>50.0535791822273</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>63.72229815568375</v>
+        <v>58.99441559357952</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>67.07031783200152</v>
+        <v>62.84545579964278</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>20.40013091660236</v>
+        <v>22.59020316930305</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>64.30708071470717</v>
+        <v>58.10951745721212</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>69.95868846922599</v>
+        <v>63.19684379817424</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.38028520162258</v>
+        <v>20.55039832164947</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>46.62685391505315</v>
+        <v>43.05586751164505</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>51.56427913807333</v>
+        <v>47.91305873341547</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>10.47569506725449</v>
+        <v>10.57455547243871</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>54.15978894380559</v>
+        <v>47.42355277246612</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>58.25823662719625</v>
+        <v>51.75742649115745</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>24.12440069811149</v>
+        <v>22.054421701939</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>75.36185697042151</v>
+        <v>66.24412423435506</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>81.83167940025788</v>
+        <v>71.87774658365741</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>87.50271630153307</v>
+        <v>77.3208515267884</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>99.2742411336702</v>
+        <v>86.96251969802266</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>101.5183364225436</v>
+        <v>89.82474214270171</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>41.15123801059521</v>
+        <v>39.38952849917493</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>96.41881384574711</v>
+        <v>83.07411391114613</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>101.3882361093946</v>
+        <v>88.53893433418543</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>8.164695418277111</v>
+        <v>6.645410474800816</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>24.47027414238409</v>
+        <v>17.14425901242348</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.44589063448957</v>
+        <v>20.47025480079576</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2.853543302861086</v>
+        <v>-2.196997700509034</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>31.43230983762253</v>
+        <v>21.49400684622987</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.10430575461418</v>
+        <v>24.66352400926907</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>3.66561257467446</v>
+        <v>1.000569292725292</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>44.29710529170101</v>
+        <v>30.93894371631941</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.12824056436861</v>
+        <v>33.86354161223301</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>44.99775935994769</v>
+        <v>32.81394123174681</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>50.628268157138</v>
+        <v>36.96974641965448</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>52.27597604869664</v>
+        <v>39.53054054166436</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.90990744333354</v>
+        <v>15.129536711361</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>49.83835800862279</v>
+        <v>29.08450640738659</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>54.94874358614063</v>
+        <v>37.8414266731041</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>10.19518116221924</v>
+        <v>5.375951557544742</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>37.27904710593582</v>
+        <v>23.01922933073632</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>40.06064505054216</v>
+        <v>27.90994242268016</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-2.339200053117926</v>
+        <v>-3.584446037861362</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>38.14590157799166</v>
+        <v>22.77594713726536</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>42.63967942826592</v>
+        <v>29.13584726328092</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>4.863580694953706</v>
+        <v>0.5557884908641419</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>53.74622178422417</v>
+        <v>36.40129351496096</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>59.46909616187026</v>
+        <v>43.43488615139324</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>56.3724697150045</v>
+        <v>42.15628328133249</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>68.54967109839714</v>
+        <v>51.93367192267921</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>70.86801462377899</v>
+        <v>56.73448455464842</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>20.2581651787099</v>
+        <v>15.79240800699085</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>71.53914997799171</v>
+        <v>51.55684897713536</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>75.31210504037033</v>
+        <v>55.9197468632199</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>15.23797530279146</v>
+        <v>11.63016140194935</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>46.28055784572959</v>
+        <v>31.94543837270726</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>50.37585589384211</v>
+        <v>38.41390900556053</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>2.770221580675924</v>
+        <v>-0.9288541711558338</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>50.01423949427438</v>
+        <v>33.37816109998659</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>54.76876357076924</v>
+        <v>40.56971854239809</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>15.53193197694692</v>
+        <v>8.8239422135957</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>69.99910105699961</v>
+        <v>51.69281523669824</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>77.4242542993028</v>
+        <v>61.21628459997611</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>83.1054970433277</v>
+        <v>65.10042777364738</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>95.33928799911574</v>
+        <v>73.44956477705172</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>100.3585125702783</v>
+        <v>81.83497618271845</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>33.32369107999017</v>
+        <v>25.80672713303185</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>93.12100992111083</v>
+        <v>67.24184867028946</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>99.80703397932719</v>
+        <v>75.35044942495378</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.23172537868122</v>
+        <v>16.77865240507726</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>39.8391116921855</v>
+        <v>39.07179199304951</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>44.13276941547745</v>
+        <v>43.41229356308963</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.474662118826414</v>
+        <v>9.69983322556385</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>54.55369033364296</v>
+        <v>51.45931006242965</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>56.61595372976883</v>
+        <v>53.41011247481717</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.76758137003397</v>
+        <v>21.13635419698866</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>71.84596450724921</v>
+        <v>67.60193587734805</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>75.00674121655942</v>
+        <v>69.9304100158347</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>66.65966342324242</v>
+        <v>66.3888646195618</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>81.67356373528033</v>
+        <v>74.50674613263949</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>82.46540988935487</v>
+        <v>76.68242265240727</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.98529618913955</v>
+        <v>36.50464407456598</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>75.96191193053997</v>
+        <v>66.85360719731484</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>81.66784000038498</v>
+        <v>74.70322835325841</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>8.968819942820454</v>
+        <v>13.82571373523894</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>40.94010088949166</v>
+        <v>39.98979400181544</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>44.68602857002828</v>
+        <v>42.87466202961672</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-3.037957866943264</v>
+        <v>2.488145202712026</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>44.72101787455245</v>
+        <v>41.72475808369234</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>48.88207576320524</v>
+        <v>44.77825149500126</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>10.60482828927289</v>
+        <v>12.09438787688311</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>65.86377979828552</v>
+        <v>59.77019762021216</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>71.12748915180501</v>
+        <v>63.49840869609071</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>66.16196688019636</v>
+        <v>60.80710902202019</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>80.93401557343878</v>
+        <v>70.84029929429356</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>82.88110866465956</v>
+        <v>72.88989191142541</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.37203913186458</v>
+        <v>29.05376507717973</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>81.49183954838435</v>
+        <v>73.93103604254037</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>86.07533521208512</v>
+        <v>75.62368203417266</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>11.44876130885562</v>
+        <v>17.34695731913055</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>47.59876462258971</v>
+        <v>45.83131487125301</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>52.10529283470218</v>
+        <v>50.3795899188265</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>2.22695307517821</v>
+        <v>6.128594075623134</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>56.88514778175043</v>
+        <v>51.04701387148191</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>60.54440720817939</v>
+        <v>55.19198251583317</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>19.13678043730727</v>
+        <v>18.9002254059401</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>80.12302100407513</v>
+        <v>72.44694266038594</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>86.04874651410549</v>
+        <v>77.61715734435958</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>88.35287995028426</v>
+        <v>80.7817944660258</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>104.4192165964194</v>
+        <v>90.81026534639699</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>105.1305237494212</v>
+        <v>92.98509544194407</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>33.8081586128178</v>
+        <v>36.44922136314297</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>100.7765073824711</v>
+        <v>89.39903711036833</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>105.5255413034047</v>
+        <v>93.11872934209096</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>0.7205230622106686</v>
+        <v>5.150347912652837</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>12.82859698239612</v>
+        <v>15.03986668223556</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.95747602220706</v>
+        <v>16.5957896201383</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-5.855133818751019</v>
+        <v>-1.935148412768473</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.93246691402714</v>
+        <v>16.20092083413351</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.29508893938011</v>
+        <v>17.32291139967614</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-4.658944999763849</v>
+        <v>-0.200505487967451</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.45424108745296</v>
+        <v>23.36363536640336</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.98313649727767</v>
+        <v>25.04142067110759</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.17741161240073</v>
+        <v>26.64075976411342</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.48290057093885</v>
+        <v>31.32891362997651</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>37.13411261799883</v>
+        <v>34.1577152640406</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.511589987379589</v>
+        <v>6.840979292738741</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.10244882549638</v>
+        <v>24.93671483696746</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>34.21857476372241</v>
+        <v>27.74194994684686</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>3.533255951798219</v>
+        <v>8.576094219395948</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.482619198332</v>
+        <v>25.005073780192</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.48978973399319</v>
+        <v>31.81550470412957</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.5170943030513246</v>
+        <v>2.650143517237638</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.50318956641664</v>
+        <v>25.71299108880685</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.22172129705798</v>
+        <v>33.88358391164498</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>3.428154127802829</v>
+        <v>6.799084613645711</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.65426693286731</v>
+        <v>37.94241973847755</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>48.3129475155103</v>
+        <v>47.03428032852744</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>40.86534133082483</v>
+        <v>39.53000593429181</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>48.96481416911126</v>
+        <v>48.09671674454398</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>53.24913907551598</v>
+        <v>51.17141134091646</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>6.722786733404449</v>
+        <v>11.00197589555045</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>47.51339395987981</v>
+        <v>44.21635397337104</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>53.80906597371054</v>
+        <v>50.50712305602926</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>16.78766027833349</v>
+        <v>18.16788979812898</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>39.51873965466449</v>
+        <v>38.45464545139973</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.88145526281043</v>
+        <v>43.74283325963796</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>12.11040179402475</v>
+        <v>9.950862828968031</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>46.55893153445071</v>
+        <v>40.54475834393633</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>53.21047363590073</v>
+        <v>45.66300057550696</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.66650024973764</v>
+        <v>19.56121920047939</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>63.91240076082645</v>
+        <v>57.33533039111856</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>72.71524575935467</v>
+        <v>64.53773355943456</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>75.15351342719325</v>
+        <v>64.68511809507633</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>84.84763198096292</v>
+        <v>74.40486674332325</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>91.54622897571215</v>
+        <v>81.54544313478752</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.62233410708737</v>
+        <v>29.32035327065535</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>81.92966957699717</v>
+        <v>69.16360900379217</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>88.95149532686591</v>
+        <v>76.18425354044376</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>2.045623276819102</v>
+        <v>5.10878947348294</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.87162745111765</v>
+        <v>18.43502530328788</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.33615584356123</v>
+        <v>21.44083319762888</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-5.199649331871251</v>
+        <v>-3.582302154211344</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.22374269450566</v>
+        <v>21.08659490358499</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.56830675468458</v>
+        <v>22.66951491238952</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-0.6557859719351722</v>
+        <v>0.4555109751457778</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>40.53922555663156</v>
+        <v>31.68496950469152</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>42.98400320101775</v>
+        <v>33.89383522836913</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.97157189031061</v>
+        <v>31.10757811192103</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>46.25409372454632</v>
+        <v>35.00568280282977</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>47.21711753462651</v>
+        <v>37.73965571518767</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>4.177348053600772</v>
+        <v>6.370167314965791</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>42.03026791647738</v>
+        <v>27.55734234680333</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>43.12639204124615</v>
+        <v>31.18071723118649</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>12.43362998214622</v>
+        <v>17.68033649472103</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>39.69743228215206</v>
+        <v>39.34409926891928</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.95868146237561</v>
+        <v>40.90186339587776</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>4.06879320412123</v>
+        <v>7.138977649330922</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>42.29262770331708</v>
+        <v>39.20556616191104</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>46.00814596747531</v>
+        <v>41.99633586217468</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>12.04855115648128</v>
+        <v>15.61651836425843</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>58.94776841973875</v>
+        <v>56.22579183113575</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>63.8700436717044</v>
+        <v>59.82329226306199</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>58.21925559595957</v>
+        <v>58.57361804301735</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>71.04219814014037</v>
+        <v>67.58411344430117</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>72.55326126399666</v>
+        <v>68.91133119520889</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.56835242501913</v>
+        <v>26.71124769738849</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>71.83427470754367</v>
+        <v>67.23960855851716</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>73.32135706329936</v>
+        <v>68.69532699904185</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>20.17447011778582</v>
+        <v>23.13894979422459</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>51.3826211778533</v>
+        <v>49.86780148083166</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>54.54393100426214</v>
+        <v>52.37367988998491</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>9.634238407343675</v>
+        <v>9.359994014825851</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>55.5647961949134</v>
+        <v>51.2623627485804</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>58.75170070309365</v>
+        <v>53.20832026919103</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>23.36996716776045</v>
+        <v>22.03638740005755</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>76.49370871442318</v>
+        <v>71.54512264530176</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>82.03650668468589</v>
+        <v>75.15741381231319</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>84.46652084141422</v>
+        <v>79.39946624895114</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>99.63981513356485</v>
+        <v>89.31644261749646</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>101.9427315580996</v>
+        <v>91.87992406572646</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>35.5220860686469</v>
+        <v>34.96921716833211</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>96.54847425054878</v>
+        <v>85.47365152908608</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>98.92879237052304</v>
+        <v>86.27918042273262</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>3.667857212248419</v>
+        <v>8.222534218350994</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.95408384824576</v>
+        <v>18.17761041466435</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.94782028900686</v>
+        <v>19.7676847170341</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-3.013047207119302</v>
+        <v>-0.8157492649038183</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.90926711939631</v>
+        <v>19.21971798486661</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.69750849638304</v>
+        <v>19.93858447677975</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-2.316565458171025</v>
+        <v>2.42889503256081</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.05357305836094</v>
+        <v>27.87706763707079</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.01191547728798</v>
+        <v>29.08027507502164</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.61437471679838</v>
+        <v>29.13881559470993</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.74995092481112</v>
+        <v>33.44497054919988</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.19123791337026</v>
+        <v>37.01862826670194</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>11.31447295379659</v>
+        <v>12.76578752750294</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.600414348988</v>
+        <v>29.05155766834321</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>37.15382225628167</v>
+        <v>32.17825625182383</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1.895705175990214</v>
+        <v>4.672619852334776</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.6845712833647</v>
+        <v>16.88239020566605</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>18.77584441791821</v>
+        <v>22.22283933023784</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-6.934386291787822</v>
+        <v>-2.089456834045546</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>17.21079749073733</v>
+        <v>16.85999638070082</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.75676943365171</v>
+        <v>24.0253471528586</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-5.297967142835502</v>
+        <v>1.095143149912662</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.60979025432062</v>
+        <v>28.39370676543604</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.01867122849312</v>
+        <v>36.12859657640545</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.27245116555171</v>
+        <v>30.24568857992227</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.65975449881292</v>
+        <v>37.08038406649136</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.62318722311564</v>
+        <v>40.36650079175755</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>3.569644497578617</v>
+        <v>8.537167882616775</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>36.41436932548325</v>
+        <v>35.58076283745548</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>42.21947516542523</v>
+        <v>40.17633484943116</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>14.1121624651817</v>
+        <v>17.67399064965323</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>34.97366271596387</v>
+        <v>36.00314591948666</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.9468491724061</v>
+        <v>39.84432833064792</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.376886385466451</v>
+        <v>4.451905129308688</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>38.99018712780447</v>
+        <v>34.42930982104426</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>43.6849879657528</v>
+        <v>38.44672275186647</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.01072859806884</v>
+        <v>15.28629493995008</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>56.77835464454349</v>
+        <v>53.24327801517312</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>63.55994200862004</v>
+        <v>58.62308130864722</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>67.34067406852763</v>
+        <v>60.90228496093769</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>74.67921227950467</v>
+        <v>68.49352869553184</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>78.33058937132866</v>
+        <v>70.63427004894565</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.10973681406843</v>
+        <v>26.92237135056495</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>72.86694875855888</v>
+        <v>64.61530996411602</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>77.30678961559948</v>
+        <v>67.39574799506542</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-5.588434941459829</v>
+        <v>2.257109559081734</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.539392895572062</v>
+        <v>6.178471943221762</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1.009090335460522</v>
+        <v>7.257367453989868</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-11.38071386568718</v>
+        <v>-4.026178443030982</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.373423054034765</v>
+        <v>6.154822207086742</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>1.980566027900087</v>
+        <v>6.639539646542641</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-15.98953211446027</v>
+        <v>-4.578663646034311</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.900253695979101</v>
+        <v>10.92699137492114</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>6.679068417357486</v>
+        <v>11.82196388888628</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>9.84834909922599</v>
+        <v>11.65138389003618</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.335354913773907</v>
+        <v>12.96646675497357</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>9.286193670753638</v>
+        <v>16.75352598134054</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-4.627509683551187</v>
+        <v>2.111095465780163</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>8.407749423512039</v>
+        <v>10.17357839873784</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.105836638435365</v>
+        <v>12.34358000595928</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.968263702530512</v>
+        <v>0.4526792040405567</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.293553372216779</v>
+        <v>7.257281370066035</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>8.26151248638992</v>
+        <v>9.809866850712741</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-8.55390113245455</v>
+        <v>-3.884821766947709</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.125048672190966</v>
+        <v>7.466635255488178</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.65974135144712</v>
+        <v>11.24407235025892</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-10.82667085889658</v>
+        <v>-3.543088195001864</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>15.81879648841816</v>
+        <v>15.19754530960927</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.32230749745204</v>
+        <v>19.69437450193336</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.00494419429185</v>
+        <v>17.03867248060447</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.43896682402786</v>
+        <v>21.36937290543669</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.00918344718619</v>
+        <v>23.05325559182925</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-3.071006672071929</v>
+        <v>2.388910585448301</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.59213952306791</v>
+        <v>20.26760972156938</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.94750190154279</v>
+        <v>22.45359088863266</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>13.98470384729813</v>
+        <v>15.68497605584231</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.54106358649284</v>
+        <v>28.23097794351062</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.61897859793503</v>
+        <v>30.45552142714196</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>3.705425674549611</v>
+        <v>3.158536321225174</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.03002760537817</v>
+        <v>25.22717336303515</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.98571214835451</v>
+        <v>27.63287831954855</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.53470949562722</v>
+        <v>11.1043329950052</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>45.18027528344317</v>
+        <v>40.01537065125562</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>50.26399484140435</v>
+        <v>43.58151084231205</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>55.24717040264396</v>
+        <v>47.51583700332016</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>59.87202463486271</v>
+        <v>52.36425064630397</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>62.85889543630897</v>
+        <v>54.14308399598718</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.8851909758813</v>
+        <v>21.323984469656</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>59.34414503761788</v>
+        <v>48.93910800116647</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>61.02649670573429</v>
+        <v>50.4490688923841</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.659479159372145</v>
+        <v>17.06345354428559</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.8622454109987</v>
+        <v>28.55944113914905</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.91358722244997</v>
+        <v>32.48643263140728</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-3.716054928187505</v>
+        <v>4.578058239836121</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.61048430654011</v>
+        <v>29.75147159218582</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.39507357862689</v>
+        <v>33.48739892572668</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>1.83382169789842</v>
+        <v>11.14197699591156</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.8608432578135</v>
+        <v>42.16827862359857</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>41.88223203856475</v>
+        <v>45.91470760863866</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.88149371478773</v>
+        <v>47.11886095861715</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>48.36016796892864</v>
+        <v>51.76082039303643</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>50.26901040067163</v>
+        <v>54.84259027091061</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.38324069665137</v>
+        <v>31.25702210270036</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>49.99988715012741</v>
+        <v>47.55304169190349</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>55.86506939272501</v>
+        <v>57.25502649458227</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.041261280414014</v>
+        <v>12.92440261256603</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.34769535298363</v>
+        <v>31.52514837793451</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>36.22439603784294</v>
+        <v>37.55469255762456</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-3.023731280058106</v>
+        <v>-0.3594078347030134</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.61998073075114</v>
+        <v>26.59201075487242</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>38.26704508005592</v>
+        <v>34.07723745566469</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>2.051983136112975</v>
+        <v>5.298327689816336</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>45.60204814515019</v>
+        <v>41.82439137256558</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>53.30932936793381</v>
+        <v>50.09351984974916</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>51.07282737374003</v>
+        <v>46.50911957398402</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>60.30575555504691</v>
+        <v>55.10164488910862</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>64.42144867213084</v>
+        <v>59.22954496376944</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>18.36033374176387</v>
+        <v>21.44338785075134</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>63.19981170771808</v>
+        <v>57.52564889948292</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>69.99382741581995</v>
+        <v>62.93483757755428</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.82387105428874</v>
+        <v>23.89402467745446</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>46.65264279728316</v>
+        <v>45.46493951563095</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>52.15824312293766</v>
+        <v>51.0294486648499</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.375503633012217</v>
+        <v>7.644071602557993</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>50.54417796085347</v>
+        <v>43.25063032247645</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>56.57894316488296</v>
+        <v>48.63823210723272</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.28354527538876</v>
+        <v>19.91938336357759</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>70.11866790429632</v>
+        <v>64.1612718517065</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>78.75805927780063</v>
+        <v>72.28478156832038</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>85.97065422937662</v>
+        <v>78.28080606489657</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>95.26256919977776</v>
+        <v>84.70791156981062</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>101.5103420546672</v>
+        <v>91.31752942446761</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>39.26548279498633</v>
+        <v>38.16240301205177</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>93.29731790912034</v>
+        <v>80.05801542014061</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>101.8416224119071</v>
+        <v>88.19148767924364</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>15.68523019569927</v>
+        <v>18.20903800030118</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.42681538440771</v>
+        <v>37.37107443031738</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>42.47876961146287</v>
+        <v>40.79494620374134</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.732260312170039</v>
+        <v>9.873810346197899</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>46.53591192423691</v>
+        <v>41.57345663246593</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>49.80318293179582</v>
+        <v>44.08518617550245</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.16706550168434</v>
+        <v>19.14236460596291</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>60.13734818121613</v>
+        <v>56.33677898991789</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>64.46900766331224</v>
+        <v>59.73033354272897</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>60.77551657485336</v>
+        <v>57.71855588375504</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>72.71283383987389</v>
+        <v>65.02692738402995</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>75.07954563804537</v>
+        <v>68.24526890425479</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.25341458635427</v>
+        <v>27.34412962104228</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>69.09692334884842</v>
+        <v>58.0106406163993</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>72.87776577592157</v>
+        <v>64.23581239006265</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>10.28457333379208</v>
+        <v>15.47970868264928</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>37.22878504955571</v>
+        <v>36.38974853794866</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.65028521784443</v>
+        <v>41.09827033389413</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>4.360214865487061</v>
+        <v>6.61007930570926</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>41.23719238809618</v>
+        <v>36.67436195994787</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>48.34715633252008</v>
+        <v>42.67431490734947</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>12.37200777663998</v>
+        <v>14.65697339762453</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>57.68283157016844</v>
+        <v>53.09635549270302</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>65.82268301785348</v>
+        <v>60.19173719619663</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>58.03137992003414</v>
+        <v>55.69558072346864</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>70.55238560717309</v>
+        <v>64.74459921930735</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>74.20414734173107</v>
+        <v>66.08132285745457</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>18.08697767550834</v>
+        <v>22.22418263764662</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>69.95984423879014</v>
+        <v>61.74970577921721</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>76.04577434112693</v>
+        <v>67.21195877913949</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>15.83678580554144</v>
+        <v>18.82773166200043</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>46.02809229324178</v>
+        <v>44.57632026891444</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>52.13055702403027</v>
+        <v>49.16388259674491</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>9.447396390053308</v>
+        <v>8.029827669121286</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>53.20815489998322</v>
+        <v>46.91066954363367</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>59.67197255065167</v>
+        <v>51.73526719562022</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>22.48183741548949</v>
+        <v>20.18092086954696</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>73.2751549126973</v>
+        <v>66.52429119657923</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>81.89599396616987</v>
+        <v>73.37588999388154</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>82.6838415931913</v>
+        <v>74.26203878115342</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>97.1170387688307</v>
+        <v>85.38696087488491</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>102.9210363616019</v>
+        <v>90.64851204623648</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>33.95048113751182</v>
+        <v>31.02145722641578</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>94.09722748861391</v>
+        <v>80.1194236976786</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>101.0534180826967</v>
+        <v>85.52580026412122</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>17.2325754888538</v>
+        <v>17.64970492744273</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.3400602318743</v>
+        <v>35.39446662579334</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>43.14874065140477</v>
+        <v>39.97858862512905</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.549193553224713</v>
+        <v>8.164100437956431</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>48.1970734296336</v>
+        <v>43.57985573405676</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>51.59672408908321</v>
+        <v>47.35156306757594</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.62643345545743</v>
+        <v>16.67798853407458</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>63.76213890108126</v>
+        <v>57.91807308592387</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>68.31711915436856</v>
+        <v>61.73089911860461</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>64.37039878563742</v>
+        <v>58.07281738643046</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>73.46552301381348</v>
+        <v>63.94010893183349</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>75.38684380934477</v>
+        <v>66.70459434025183</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.27862475381955</v>
+        <v>33.01834352413329</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>72.54742860238827</v>
+        <v>56.71352038887728</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>79.71337218526773</v>
+        <v>68.27369411237112</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>13.83408542149656</v>
+        <v>16.39081100657823</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>43.49679765130545</v>
+        <v>40.60322937949643</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>47.45391093758623</v>
+        <v>45.39999761141642</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2.434496081811853</v>
+        <v>4.575721126807753</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>46.47768654429278</v>
+        <v>39.91090102292475</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>52.04527109958975</v>
+        <v>46.13517762875227</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>11.48830983842458</v>
+        <v>12.47755334930285</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>63.43085332714984</v>
+        <v>57.64243311320726</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>70.16355932158172</v>
+        <v>64.66869401096955</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>66.66111670613323</v>
+        <v>61.6547817851646</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>79.50818426656176</v>
+        <v>71.70537938916647</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>82.43962840615626</v>
+        <v>75.57180765627842</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.72180610458051</v>
+        <v>29.17455362277176</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>81.61126748047019</v>
+        <v>73.3783416646543</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>87.60218499554819</v>
+        <v>78.25478118774582</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>17.40887913779684</v>
+        <v>21.53450400608063</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>50.79926094158144</v>
+        <v>47.83084262673684</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>55.89598607612162</v>
+        <v>53.14269693846343</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>8.09787997894337</v>
+        <v>8.292088589323047</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>58.4338866159124</v>
+        <v>50.63290477396276</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>64.14003047072946</v>
+        <v>56.28506891365447</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>21.79619494559224</v>
+        <v>20.52203621286796</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>78.94076673017419</v>
+        <v>72.03531963645891</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>87.25390368382679</v>
+        <v>80.17865384990823</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>92.45720853965145</v>
+        <v>85.72824360199986</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>105.2791021915196</v>
+        <v>94.17743397602894</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>110.586334391682</v>
+        <v>100.7490297653492</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>39.10066283150881</v>
+        <v>39.42929004338393</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>102.1338780972682</v>
+        <v>89.40178446732968</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>110.6188960784332</v>
+        <v>96.82523895652794</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>21.96459065042416</v>
+        <v>20.8808680675093</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>36.250776674505</v>
+        <v>32.33137070050309</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>41.16316742819039</v>
+        <v>36.65419178350275</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.9971878121642</v>
+        <v>14.61471693454518</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>47.66037270100928</v>
+        <v>40.70158776398696</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>51.59504906049325</v>
+        <v>45.120178501594</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>21.49699019611844</v>
+        <v>19.66484523830816</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>58.84716147245673</v>
+        <v>50.87902261178813</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>63.81473661851301</v>
+        <v>55.02516765170461</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>62.06996581922844</v>
+        <v>52.63357295272226</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>67.35207980587404</v>
+        <v>57.31718567532917</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>70.34168839018278</v>
+        <v>60.1097383653121</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.48677525611615</v>
+        <v>35.02722407345312</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>68.30740312066446</v>
+        <v>49.61568718305677</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>76.01097652596701</v>
+        <v>61.87500853881427</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.94294985585751</v>
+        <v>20.67268325938972</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>45.84356930062049</v>
+        <v>39.741210140239</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>50.5089133753285</v>
+        <v>45.71521679311265</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.67634964355966</v>
+        <v>15.93970489053511</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>53.17727062070897</v>
+        <v>44.25919371242524</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>59.81375758885617</v>
+        <v>52.29817699514155</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.53762383105912</v>
+        <v>18.91409832709426</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>64.87591980759603</v>
+        <v>56.0125188912611</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>72.47767551961164</v>
+        <v>64.39837380660634</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>68.24130282751851</v>
+        <v>58.97175416484171</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>78.92601840561103</v>
+        <v>67.97906495341329</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>83.39125636640273</v>
+        <v>73.07736939886789</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>34.71652211736208</v>
+        <v>32.58945339530506</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>80.84383041630423</v>
+        <v>68.48799201269345</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>88.08594500859104</v>
+        <v>75.17167061085783</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.94752884548495</v>
+        <v>25.63289231877418</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>54.47490668898109</v>
+        <v>46.86583610708144</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>59.79930948500927</v>
+        <v>52.1351291064384</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>22.13724327575725</v>
+        <v>17.93224750106097</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.80239969228565</v>
+        <v>53.38810262933195</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>71.06953879346251</v>
+        <v>59.37954120262873</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>31.98697504714962</v>
+        <v>26.16728173748248</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>81.46588498871066</v>
+        <v>69.4720538566621</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>90.19258632051975</v>
+        <v>77.79632132881385</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>95.30481914501978</v>
+        <v>83.13326479332298</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>105.4845833244557</v>
+        <v>89.80256589904354</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>112.4220137454422</v>
+        <v>96.71120419338671</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>48.47073206370578</v>
+        <v>43.5677956908705</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>102.2083054639999</v>
+        <v>83.85069948234572</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>111.5496448288177</v>
+        <v>92.55805343178513</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>12.80524297532907</v>
+        <v>15.67662578538364</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>37.57197148765935</v>
+        <v>35.55540325229006</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>41.8620167875719</v>
+        <v>40.45474063867719</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>3.48179771822724</v>
+        <v>5.967482138102319</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>44.69254286393735</v>
+        <v>40.70872532816958</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>47.95578742118252</v>
+        <v>44.16717533426835</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>13.00163542931163</v>
+        <v>15.47492277133096</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>60.57893850394247</v>
+        <v>57.00375735099867</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>65.06471201023602</v>
+        <v>61.43194804843134</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>61.05327665571407</v>
+        <v>61.01635953981628</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>72.7755336900909</v>
+        <v>67.70876740224963</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>74.09325606145158</v>
+        <v>70.13015712210884</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>20.71522257617799</v>
+        <v>25.42211076088062</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>68.68472097918905</v>
+        <v>58.40541029598241</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>72.80262273726601</v>
+        <v>65.4809491574221</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>7.864052597855478</v>
+        <v>12.56624676580777</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>39.05180639589184</v>
+        <v>37.03583580502423</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>43.20212867151393</v>
+        <v>41.03901317238191</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-2.076011450426583</v>
+        <v>1.724795086384916</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>40.89824313782209</v>
+        <v>36.77724120469597</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>46.65519878047882</v>
+        <v>41.35758710192056</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>7.652667534188547</v>
+        <v>9.054997684822016</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>59.35331972431456</v>
+        <v>53.84626174523368</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>66.45116407353458</v>
+        <v>59.88759711831891</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>60.46564739706306</v>
+        <v>57.60733808092718</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>74.42318640467576</v>
+        <v>65.91560223132959</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>75.94807128416332</v>
+        <v>66.98571944607258</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>14.83967039955421</v>
+        <v>18.55932604811262</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>74.09863892824185</v>
+        <v>64.01963970904367</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>78.43655753222396</v>
+        <v>68.09730539172989</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>13.98598937578442</v>
+        <v>17.08334804356792</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>48.3165152069732</v>
+        <v>44.80596156639552</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>53.39402429415421</v>
+        <v>49.76965021728233</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.84260214302517</v>
+        <v>5.273100804814003</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>54.34425499352371</v>
+        <v>47.71106689327486</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>59.77026496352968</v>
+        <v>51.93538059515423</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>19.21171711799887</v>
+        <v>16.04057103357438</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>76.0692373302585</v>
+        <v>67.19607373693847</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>84.14871213764056</v>
+        <v>74.24720912041239</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>87.56395002801695</v>
+        <v>78.16098489967202</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>102.6092569357224</v>
+        <v>88.3161577833512</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>107.2312886575057</v>
+        <v>94.3723500517745</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.74051902081897</v>
+        <v>28.88337409985462</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>98.7534967926936</v>
+        <v>81.70731191181963</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>104.9496567807492</v>
+        <v>88.42911310161591</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>8.171668120142835</v>
+        <v>11.70465099448114</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.19196257996329</v>
+        <v>20.0299211980396</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.50295633460836</v>
+        <v>21.55569175495222</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-2.511802247466983</v>
+        <v>3.148921500359357</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.96961930008206</v>
+        <v>23.02005020949759</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.16413874964254</v>
+        <v>24.25600255937444</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>2.269298850748571</v>
+        <v>6.890404784103964</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>34.85785518975263</v>
+        <v>31.19197420808779</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>37.37832474596969</v>
+        <v>32.73690427362769</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.41089831284864</v>
+        <v>34.96500144223099</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>42.30304838986524</v>
+        <v>38.86277415070424</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>43.64598267752146</v>
+        <v>40.28659700008043</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.66471968889656</v>
+        <v>18.91785833777048</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>41.30848563740228</v>
+        <v>30.3407019675723</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>44.41850704037005</v>
+        <v>35.77594556283431</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>11.14766331127657</v>
+        <v>14.13142181527423</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.48259182258776</v>
+        <v>31.67827440148734</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>37.813595663915</v>
+        <v>38.35167841789823</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>5.650428023000527</v>
+        <v>7.4421471802324</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>38.26674200450437</v>
+        <v>33.59607408730643</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>45.56682389250211</v>
+        <v>41.77791970902702</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>10.37483846489531</v>
+        <v>12.30520531553075</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>50.98518848212793</v>
+        <v>45.67131811183924</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>59.19733574016825</v>
+        <v>54.80693901386623</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.88463772920127</v>
+        <v>50.01995305370885</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>63.03029608400789</v>
+        <v>58.80663100208949</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>69.19977069155769</v>
+        <v>62.53876572221374</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.19670650361774</v>
+        <v>21.37357021481107</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>63.24147028578663</v>
+        <v>54.60160099172516</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>70.90433434461588</v>
+        <v>62.95040899860422</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.73409749546892</v>
+        <v>21.48433613112756</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>47.38311872970442</v>
+        <v>42.20058421048212</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>53.96863951868539</v>
+        <v>48.38717073172738</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>13.70289381997295</v>
+        <v>11.40767595040258</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>53.55707132322526</v>
+        <v>45.2729424473761</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>60.91685476599886</v>
+        <v>51.36070655477847</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>23.62173554263029</v>
+        <v>19.88621050622101</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>70.27764295417799</v>
+        <v>60.00239086526874</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>79.89793493789583</v>
+        <v>68.66060547390062</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>81.64544491454041</v>
+        <v>70.44728400222991</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>89.56861911699278</v>
+        <v>78.58586174681085</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>98.48537201207645</v>
+        <v>83.99436964934088</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>35.55319790737813</v>
+        <v>32.89555494586968</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>86.32652854029426</v>
+        <v>72.48160856586128</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>96.41476962638069</v>
+        <v>81.68199465022413</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>9.990803510299665</v>
+        <v>14.54898404847676</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>22.47888228889272</v>
+        <v>24.47618010195551</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.00007810304714</v>
+        <v>28.4522950939322</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1.379245129951995</v>
+        <v>6.357986901742731</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.72283538310617</v>
+        <v>29.64375522196878</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.41890052823923</v>
+        <v>34.0276016738493</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>6.485293035922064</v>
+        <v>10.67747826422538</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.62681379106802</v>
+        <v>39.16183801691228</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>47.27224106204165</v>
+        <v>43.23804187621379</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>47.36151393185959</v>
+        <v>43.49763704603087</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>51.50514530163109</v>
+        <v>48.11699362548599</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>55.29960599692861</v>
+        <v>50.92460733882567</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.87629007115883</v>
+        <v>27.51665178834586</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>53.07542054587984</v>
+        <v>40.80855799144557</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>61.88426882135688</v>
+        <v>52.52545128982581</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>8.891712225184191</v>
+        <v>13.20662855948203</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.85018374621649</v>
+        <v>30.95348345381802</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>37.05283140542934</v>
+        <v>38.57770186523913</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1.780053409834599</v>
+        <v>7.339416143604964</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.82871676028511</v>
+        <v>33.26160374805348</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>44.22765176680991</v>
+        <v>43.4862545582062</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>5.132369444801201</v>
+        <v>9.837716419297781</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>47.12908052644476</v>
+        <v>44.56433638001684</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>56.28888790501054</v>
+        <v>55.00314282751046</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>52.14889990396527</v>
+        <v>49.19036816150973</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>61.6167992570475</v>
+        <v>58.03408808423517</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>67.82840156827433</v>
+        <v>64.40655339401218</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>20.39023151553112</v>
+        <v>23.52986436198658</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>63.64088296915448</v>
+        <v>57.94783915135083</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>73.2697263667372</v>
+        <v>66.51434690688812</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>14.51310681650543</v>
+        <v>18.75828570497576</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>40.09534712173025</v>
+        <v>38.69967580367464</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>46.9576497408227</v>
+        <v>45.35188045872177</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.809360814408928</v>
+        <v>9.381713838498918</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>48.00777304597857</v>
+        <v>42.5827229512914</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>56.04048491749928</v>
+        <v>50.26404132422209</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>17.24752501236132</v>
+        <v>17.17208516179749</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>64.38400515579268</v>
+        <v>58.184601504727</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>74.66166533350567</v>
+        <v>68.15139876583405</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>79.6814702542664</v>
+        <v>73.60068412763826</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>88.48823569364959</v>
+        <v>79.76274899011796</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>97.27793980120182</v>
+        <v>87.74198774021781</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>34.74586921793878</v>
+        <v>35.21494525161938</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>85.4995165220045</v>
+        <v>73.70497218905975</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>97.23887974195114</v>
+        <v>84.30575901178311</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>18.08803117295793</v>
+        <v>21.22037932482427</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>34.03223645940895</v>
+        <v>36.27780270570223</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>38.25346514918567</v>
+        <v>40.72292161034993</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>12.85566472226535</v>
+        <v>13.17579793151883</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>47.61467207581546</v>
+        <v>46.75861342748675</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>50.07255503659414</v>
+        <v>49.48059650397227</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>19.19402905275099</v>
+        <v>22.11014812046779</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>59.95860553383766</v>
+        <v>59.33478452349364</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>63.6514588238621</v>
+        <v>62.43248089568547</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>61.70123162994824</v>
+        <v>60.23978692082213</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>69.89703542531929</v>
+        <v>66.30934136224363</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>71.44895502139866</v>
+        <v>68.71578566037145</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>35.68371792743087</v>
+        <v>39.67501886636052</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>68.42980842058535</v>
+        <v>59.80823426502985</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>74.71064675697468</v>
+        <v>70.80006001539078</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>14.28771347224285</v>
+        <v>19.26351640023224</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>38.77211977611799</v>
+        <v>40.03273412840296</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>43.14981784637958</v>
+        <v>43.45174840333539</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>6.39447673188341</v>
+        <v>7.978649710912787</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>44.99999386358181</v>
+        <v>41.02483653164665</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>50.32378454713997</v>
+        <v>44.59777929823785</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>12.63211653787136</v>
+        <v>14.87346692820661</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>59.57515876250381</v>
+        <v>55.57486261405947</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>66.0471847475042</v>
+        <v>59.91936170880962</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>62.16412286765269</v>
+        <v>59.84333015600873</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>73.67129948967418</v>
+        <v>66.62988207056212</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>76.58750854636153</v>
+        <v>68.78899857452397</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>27.08600447833607</v>
+        <v>32.3339015529949</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>75.01796031360404</v>
+        <v>69.11844574394841</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>80.59349676908997</v>
+        <v>72.00007895323417</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>19.28540424155705</v>
+        <v>22.43354638094105</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>48.13312489880008</v>
+        <v>46.12343831604787</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>52.46845775773347</v>
+        <v>49.12710586976925</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.25393048876719</v>
+        <v>10.52377647459869</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>58.074219611857</v>
+        <v>50.5397695291563</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>61.97340117746739</v>
+        <v>52.99879489402865</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>24.71936180133783</v>
+        <v>22.73017469073293</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>77.72488716771119</v>
+        <v>69.98178402971972</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>84.24771474419966</v>
+        <v>74.10016400985701</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>90.05408864735162</v>
+        <v>81.5915259986817</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>101.8270132376931</v>
+        <v>88.75871412172549</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>104.8079684886164</v>
+        <v>90.85362318016026</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>41.05843669453979</v>
+        <v>40.99804266582284</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>98.33589597121171</v>
+        <v>84.08192311563485</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>103.9425867478206</v>
+        <v>89.15614445875239</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>13.33677445482886</v>
+        <v>15.7702041391925</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.13061676046971</v>
+        <v>35.6348632529658</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>41.85913607787792</v>
+        <v>39.73238758983599</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>5.664420753893852</v>
+        <v>7.650487710141643</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>47.78257019151163</v>
+        <v>42.98201852678166</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>50.31793432200188</v>
+        <v>45.69461382598809</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>14.77210036227776</v>
+        <v>15.82523882960451</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>62.95770061860362</v>
+        <v>57.40192538001112</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>66.81964164674955</v>
+        <v>61.07658333391099</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>63.49399206380635</v>
+        <v>61.84964818315684</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>75.11701513053367</v>
+        <v>68.76061413559165</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>75.27387871569623</v>
+        <v>70.07847103797067</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>21.81535801827471</v>
+        <v>25.97599343114431</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>69.67924420119608</v>
+        <v>58.28823414808427</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>73.40128250416001</v>
+        <v>65.01903631872237</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>7.373583465588291</v>
+        <v>12.08202491307856</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.67019500030559</v>
+        <v>36.62184273928123</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>42.3631380019925</v>
+        <v>40.77998372518166</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-1.122980086868585</v>
+        <v>2.276496247380003</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>42.60632600473892</v>
+        <v>37.71105892384652</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>47.86911880055006</v>
+        <v>42.67834263655861</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>7.828567384327977</v>
+        <v>9.366522684962892</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>60.06178282391796</v>
+        <v>54.13581282358464</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>66.71939129437095</v>
+        <v>60.61997474288995</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>62.16393489291696</v>
+        <v>58.41996744299745</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>75.60468566448596</v>
+        <v>66.59297617630983</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>76.60022243613963</v>
+        <v>67.7996458549347</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>15.50429649852897</v>
+        <v>19.43368001719495</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>74.71979593318753</v>
+        <v>65.43181455067688</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>78.83812103329218</v>
+        <v>69.12290634764886</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>13.79549350613503</v>
+        <v>16.56317876324074</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>47.53007574490618</v>
+        <v>43.40525657628672</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>52.37246729549825</v>
+        <v>48.66319204710317</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.053224285472675</v>
+        <v>5.176054987516302</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>53.137716984493</v>
+        <v>46.65129744650505</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>58.39622273490945</v>
+        <v>51.36796215527155</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>17.39008810965635</v>
+        <v>15.48693388102704</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>73.80627763949691</v>
+        <v>65.49213089551138</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>81.76331210904907</v>
+        <v>73.08264303616151</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>85.37723149666554</v>
+        <v>76.19593507032532</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>98.86565094001048</v>
+        <v>84.80797492798374</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>103.1520787910356</v>
+        <v>92.02734053381499</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>28.38010281098646</v>
+        <v>27.50428159547086</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>93.78467858718778</v>
+        <v>78.51447715288278</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>100.3322759029843</v>
+        <v>85.65121518516202</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.501</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.262</v>
+        <v>17.369</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.543</v>
+        <v>10.417</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.867</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.699</v>
+        <v>3.998</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.60889032573304</v>
+        <v>18.27827840178951</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.49986886985943</v>
+        <v>24.0645213328989</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.59295646803189</v>
+        <v>21.47675552287122</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5952616898728991</v>
+        <v>-0.47971380391472</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.01879585166592</v>
+        <v>23.64686154370175</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.21228542117757</v>
+        <v>22.03587788390523</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.193326241010173</v>
+        <v>3.850243808561181</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.31824255341103</v>
+        <v>32.09555184262715</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38.37363394283449</v>
+        <v>30.96811391697472</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.5961481589643</v>
+        <v>34.13641302090559</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>44.28078500629417</v>
+        <v>43.05283306315823</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>46.79899033225004</v>
+        <v>43.73566770017265</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.88975794070192</v>
+        <v>14.61840427949373</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.79955396887766</v>
+        <v>32.94235009841012</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>47.75454097421361</v>
+        <v>24.29924973051499</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.82278754710484</v>
+        <v>18.39207176409772</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37.07203409565403</v>
+        <v>36.4893918187221</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43.67242349458165</v>
+        <v>42.07109219278864</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.226409951733732</v>
+        <v>3.738042695604463</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35.23858787421371</v>
+        <v>33.93776649319435</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>44.01236175765216</v>
+        <v>52.221210043004</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.3264873069295</v>
+        <v>8.661921042195111</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>50.715767672947</v>
+        <v>62.2028826778611</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60.06564643511895</v>
+        <v>75.39831378022546</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>55.78816343398682</v>
+        <v>62.37181247998804</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>65.49888502619412</v>
+        <v>74.16552142270952</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>70.76305637471843</v>
+        <v>79.90099782934145</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.73561832507318</v>
+        <v>22.39788045983713</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>65.28161044524211</v>
+        <v>82.93485910505527</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>72.62391713043331</v>
+        <v>85.58535074259737</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.92775252459825</v>
+        <v>31.08192204613159</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.81127411398798</v>
+        <v>50.10211002736139</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>53.53843674542287</v>
+        <v>51.53953794934868</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>11.55773029291269</v>
+        <v>10.5310614104623</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48.65890605816735</v>
+        <v>46.23749983803006</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>54.865750347019</v>
+        <v>53.9491310481948</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23.40464880791573</v>
+        <v>16.09720291211784</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>68.89094061276531</v>
+        <v>81.96439314246491</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>77.68948021773136</v>
+        <v>82.44797136665727</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>83.93956692566219</v>
+        <v>94.98512056926391</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>91.60144126593079</v>
+        <v>99.78971523808514</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>98.8823736222988</v>
+        <v>103.6384422691228</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>41.933568420785</v>
+        <v>42.85416615936342</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>85.68758475256156</v>
+        <v>102.3536718681705</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>94.72248851712028</v>
+        <v>102.3563197443788</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.6051248079999</v>
+        <v>9.883184162920646</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.28241119438302</v>
+        <v>43.4569588008697</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>43.77997830928307</v>
+        <v>40.51001980261534</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.797259105370351</v>
+        <v>-1.488132475037595</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47.60166757421153</v>
+        <v>47.88510914920529</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>49.47873435586575</v>
+        <v>47.20997403672078</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>17.88182778613098</v>
+        <v>-1.667312561178267</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>65.10668554692478</v>
+        <v>66.28803495519983</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.60855183244125</v>
+        <v>61.41888634437456</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>62.08849180438234</v>
+        <v>64.52404750523553</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>70.52929145305814</v>
+        <v>69.6723165917694</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>73.98422257974669</v>
+        <v>70.45567624716406</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>27.01687361002399</v>
+        <v>10.81943394401729</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>63.58185261476567</v>
+        <v>65.79324906538363</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>69.62015023518482</v>
+        <v>66.50763572110554</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.69450089084489</v>
+        <v>13.37951475475978</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>41.22181900821741</v>
+        <v>41.11410934510812</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>45.41634757613581</v>
+        <v>46.66832075070455</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.929544277520815</v>
+        <v>0.5954560322693609</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.76137455721299</v>
+        <v>42.38489925771646</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>48.42212472195622</v>
+        <v>52.14205792506301</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>14.29170900305322</v>
+        <v>6.592235031401231</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>62.83578154611908</v>
+        <v>66.05437003723715</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>69.35373370552227</v>
+        <v>80.07343837317552</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>65.05999443911666</v>
+        <v>63.74268996150388</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>76.84782367651351</v>
+        <v>75.45002360138693</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>79.54296329383921</v>
+        <v>78.39468352303824</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.49142063394359</v>
+        <v>10.91107922876965</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>75.81578273222978</v>
+        <v>76.1557488225049</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>80.07923005441273</v>
+        <v>80.42926885692368</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.97303892334709</v>
+        <v>13.08724595409925</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>49.8545817687851</v>
+        <v>48.3410305341984</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>54.57996595024574</v>
+        <v>46.78491195496285</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6.166466160375958</v>
+        <v>0.645089992190595</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>53.29450500743402</v>
+        <v>54.10840450684057</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>58.3852006451599</v>
+        <v>58.00792190224048</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>20.60068237655031</v>
+        <v>5.277933833575794</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>77.10390506028118</v>
+        <v>82.18201475280114</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>83.75315889982552</v>
+        <v>85.3631114717448</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>84.85503739712557</v>
+        <v>89.10132582313273</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>97.56218029533714</v>
+        <v>99.26897051551336</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>101.3371833235859</v>
+        <v>99.11396963841437</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>34.40635564862536</v>
+        <v>11.4288353064319</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>93.20710229629272</v>
+        <v>92.92972376622956</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>97.14908159707737</v>
+        <v>93.19273141290107</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.42637871815849</v>
+        <v>36.84185553356083</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.13128115992369</v>
+        <v>48.53939172496669</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>39.89622350815822</v>
+        <v>48.25290272136448</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.269351391060649</v>
+        <v>8.622527709908827</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.46163751928302</v>
+        <v>49.22095268332625</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>43.50702087160302</v>
+        <v>47.79394347266312</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.92305430257633</v>
+        <v>9.412272002531793</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>58.7007843807273</v>
+        <v>67.93478286231483</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>60.54657093225194</v>
+        <v>61.10253390921669</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>58.22279307259113</v>
+        <v>65.97789847498419</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>65.83749702244494</v>
+        <v>75.66756478893475</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>68.54366169866344</v>
+        <v>73.52661148364183</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.24822915421983</v>
+        <v>29.74267975387108</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>58.98943754495676</v>
+        <v>69.57335294921829</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>64.08843456146479</v>
+        <v>68.71884032163408</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.28675867673437</v>
+        <v>26.59015152861424</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.70349928355427</v>
+        <v>47.58033406193537</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.53704742513118</v>
+        <v>51.36163089572769</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.406615499149549</v>
+        <v>5.310076950101781</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.45743935239977</v>
+        <v>46.32212332622372</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.58541776093561</v>
+        <v>52.58985080536683</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.93846147008791</v>
+        <v>10.53964641282237</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>63.55904208520943</v>
+        <v>70.48824660455857</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>68.63638344302787</v>
+        <v>80.55421004248026</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>66.13735924873849</v>
+        <v>67.49887476138851</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>75.97512551119823</v>
+        <v>80.30758917035175</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>78.31493359998173</v>
+        <v>79.39409083758669</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.93236715272236</v>
+        <v>30.37919650656074</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>75.73618909470277</v>
+        <v>80.92606184033687</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>78.85563951286916</v>
+        <v>79.74488927967376</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.81496719590141</v>
+        <v>36.00328202142914</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.94432025796056</v>
+        <v>55.56501615498604</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>55.57523564355058</v>
+        <v>53.93597733937168</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9.106114399973592</v>
+        <v>8.692561324488125</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>55.54592078794691</v>
+        <v>58.47371238713782</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>58.74167707503935</v>
+        <v>58.58357476823593</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>22.80572961945553</v>
+        <v>11.28135008221745</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>78.20593611274043</v>
+        <v>83.96718759980274</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>83.22868389923291</v>
+        <v>83.60052289256254</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>86.57053336656185</v>
+        <v>93.475445098595</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>97.76419270664371</v>
+        <v>97.57766776779489</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>100.7924649816432</v>
+        <v>100.4595809136447</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>37.75034508191511</v>
+        <v>39.27132908457754</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>93.76081427716343</v>
+        <v>98.60960087386883</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>96.52589498093326</v>
+        <v>95.92163611438139</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>13.5276150782532</v>
+        <v>18.59804273689089</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.08879544446149</v>
+        <v>25.28554605904057</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.06446390709424</v>
+        <v>24.44226243167209</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3.987268220966193</v>
+        <v>2.361304763225966</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.8412367048569</v>
+        <v>25.02090758044227</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.03682931076</v>
+        <v>27.71011370700606</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.656055204744703</v>
+        <v>5.939421499525157</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34.20754485647683</v>
+        <v>32.2928893206625</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>37.06808069504351</v>
+        <v>34.20412196508538</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.3240201502125</v>
+        <v>38.7701705353328</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.97976766493579</v>
+        <v>42.14845752963537</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>46.0076634594015</v>
+        <v>47.4066553439188</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.86655780172223</v>
+        <v>63.96783802501622</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39.35213117248458</v>
+        <v>67.03359529896775</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>48.76388695567715</v>
+        <v>64.50007118466991</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>16.22941113465895</v>
+        <v>17.60297353349742</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.48647743941889</v>
+        <v>41.10517442651809</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.61715454691737</v>
+        <v>43.32833377115202</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>7.506757260299892</v>
+        <v>8.213316343255212</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>32.77795347941021</v>
+        <v>44.27780378191052</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>40.98210235774299</v>
+        <v>56.12675091848067</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>11.9876219961801</v>
+        <v>17.70009711032862</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>46.24369458316614</v>
+        <v>69.46042511680534</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>54.8995595138972</v>
+        <v>79.42037071465553</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>49.74124260014653</v>
+        <v>62.84092428165579</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>59.23386558790094</v>
+        <v>73.331228985256</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>64.84374338490497</v>
+        <v>78.4137712807875</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.121601272901</v>
+        <v>20.16999813328009</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>60.47554902628347</v>
+        <v>76.06304340872248</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>66.6449640315422</v>
+        <v>82.87185990633462</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.18918429782524</v>
+        <v>29.88485590632039</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>45.17926096757795</v>
+        <v>49.55159761281926</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50.61413516095678</v>
+        <v>51.66516599953177</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.06063420565044</v>
+        <v>10.91114037276684</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>45.76082216462142</v>
+        <v>48.54613743753212</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.86673159230801</v>
+        <v>58.0048815744709</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.05161996049541</v>
+        <v>18.44058042380188</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>64.74143127287547</v>
+        <v>78.47487103227765</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>73.24535011258884</v>
+        <v>87.33563566827952</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>77.08842699687483</v>
+        <v>86.26498833584161</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>84.05379841620814</v>
+        <v>88.58052590859101</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>91.72971266961838</v>
+        <v>99.127706440989</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>40.70175278379352</v>
+        <v>43.95201668874651</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>80.107485772785</v>
+        <v>94.1772057434424</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>88.29619607705104</v>
+        <v>96.61949748260638</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.51718613658262</v>
+        <v>30.36798134972559</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>32.79954419005839</v>
+        <v>51.103526411739</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.52153879971475</v>
+        <v>45.97603465541479</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.746879103054024</v>
+        <v>8.78516211693449</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37.89762223671754</v>
+        <v>55.51987141587841</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>41.3865719035367</v>
+        <v>54.17927208832477</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.18126375224527</v>
+        <v>12.38298239841656</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>50.02967505224956</v>
+        <v>78.98359273957749</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>53.30293855508779</v>
+        <v>68.01269440561943</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>49.05520952219749</v>
+        <v>62.02614784584307</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>53.9012797483898</v>
+        <v>77.43365144547785</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>56.15377822004827</v>
+        <v>79.9793081537168</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.94567147437511</v>
+        <v>21.32497072571947</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>44.31458217879796</v>
+        <v>7.396742498061545</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>54.12167205394529</v>
+        <v>7.12726194889267</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.03933375834731</v>
+        <v>34.46314206585666</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>46.73679059410865</v>
+        <v>50.05025099954389</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>50.87705628259484</v>
+        <v>47.79089298608409</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.24599711605322</v>
+        <v>8.021705112794997</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.41497694395441</v>
+        <v>46.57590706487795</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>52.24600608213024</v>
+        <v>50.26186470158605</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.67147842854423</v>
+        <v>16.37481373793831</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>63.79252336520658</v>
+        <v>76.84017607078387</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>70.19813695257064</v>
+        <v>78.81143572829885</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>66.75882057677546</v>
+        <v>75.86279736531974</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>77.58070451694907</v>
+        <v>84.72545168732211</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>81.44976046124614</v>
+        <v>85.8591989157518</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>37.47364267964753</v>
+        <v>44.97587723462751</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>77.60316084914389</v>
+        <v>85.31247976290925</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.56139035317961</v>
+        <v>39.10974476840036</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>52.18768079062002</v>
+        <v>56.06951846106836</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.80085344300409</v>
+        <v>55.40660087749522</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>14.28810565525622</v>
+        <v>9.133958220968502</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>53.31957306082823</v>
+        <v>51.57011555148383</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>58.45197304472009</v>
+        <v>55.32007873203887</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.05945672868821</v>
+        <v>12.63162883233812</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>74.19948665894206</v>
+        <v>82.03457267832579</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>81.73414717593631</v>
+        <v>86.96244423986725</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>86.64521681379343</v>
+        <v>90.19995390507736</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>95.36770142972409</v>
+        <v>96.3004082146293</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>101.9378115355749</v>
+        <v>100.1359404839558</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>45.01433414505829</v>
+        <v>59.76714461402041</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>89.95730194844512</v>
+        <v>102.7380314407874</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>96.74827538241516</v>
+        <v>99.61548739592736</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16.25072524049041</v>
+        <v>25.60541912603604</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>33.9530289456869</v>
+        <v>42.52399935734111</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>38.86547786494955</v>
+        <v>42.62355078230543</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8.728421437396811</v>
+        <v>8.438165169762009</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>42.90121456043053</v>
+        <v>48.5846602030188</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>45.88235361602243</v>
+        <v>47.0097398943347</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>17.02705245718797</v>
+        <v>10.69088521326032</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>56.08065917204905</v>
+        <v>70.42712138976837</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>59.08579543189718</v>
+        <v>63.02922199874013</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.51289026936824</v>
+        <v>60.53084045343276</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>54.92080580094618</v>
+        <v>69.37227938710177</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>57.32132276116855</v>
+        <v>71.51772150985315</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>20.49197536769154</v>
+        <v>14.76298710160295</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.75069828242019</v>
+        <v>6.380780018168132</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>48.49648445273661</v>
+        <v>5.553448734392219</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>23.19866499132533</v>
+        <v>28.90148863157513</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>49.968295693165</v>
+        <v>53.45092172603822</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>51.67975237763078</v>
+        <v>52.40661251221405</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>10.05768403887812</v>
+        <v>3.684682026826323</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>50.17023021981402</v>
+        <v>50.06472897331336</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>52.37539938291413</v>
+        <v>51.19521957440281</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.64695068220396</v>
+        <v>10.5033638370263</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>70.38779319293279</v>
+        <v>76.12267399237687</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>72.95997556861599</v>
+        <v>77.72032385697898</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>68.90667639441027</v>
+        <v>70.08152876293566</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>81.01763548537012</v>
+        <v>81.12526629362216</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>83.00306998779372</v>
+        <v>83.46077658049022</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>36.28581712665061</v>
+        <v>31.8698347918488</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>82.86078494549356</v>
+        <v>83.17009634118931</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>83.07838958026963</v>
+        <v>83.93947669798457</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.32161667271837</v>
+        <v>29.03054065370931</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>54.13919716366421</v>
+        <v>51.3822300616855</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>57.02540741775714</v>
+        <v>52.63202992120159</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>9.112023524666313</v>
+        <v>6.492429728024952</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>54.3005342524695</v>
+        <v>53.55357002870185</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>57.1315755465605</v>
+        <v>56.82428566033173</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>24.11393795671837</v>
+        <v>10.61837686604664</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>76.87139141822009</v>
+        <v>76.7703830662354</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>80.46021540520816</v>
+        <v>79.75866635758578</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>83.28872621888699</v>
+        <v>83.90229422352043</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>93.6153586584707</v>
+        <v>90.84749554151006</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>95.80737981247204</v>
+        <v>92.11467237537853</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>38.5770494582969</v>
+        <v>35.3230052733421</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>91.71529000355612</v>
+        <v>92.31047084659276</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>92.95056040616505</v>
+        <v>90.10566461616406</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>5.55562427521825</v>
+        <v>12.93229372200589</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.98024001299764</v>
+        <v>12.67740055364254</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>15.27433145339484</v>
+        <v>15.99676882175931</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-1.589751146191176</v>
+        <v>2.998371143778435</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.8697740001221</v>
+        <v>18.31977685211745</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.23048087942488</v>
+        <v>18.98971482351347</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.1222785400491873</v>
+        <v>3.55934525897456</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.06916062634926</v>
+        <v>24.71856259682036</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.63896656522904</v>
+        <v>25.27296799738611</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.02213508917339</v>
+        <v>30.77071272507945</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.40363047783499</v>
+        <v>40.5140609503961</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>37.83095859496656</v>
+        <v>38.74063066556305</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>15.61959058414921</v>
+        <v>13.03150654638583</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.47053488158905</v>
+        <v>25.07539087896434</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.35342136433001</v>
+        <v>23.48004310641439</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>13.99452985114292</v>
+        <v>15.72726776350797</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.75582265230064</v>
+        <v>31.75289005470217</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.3607062150544</v>
+        <v>37.56116673833618</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5.830351025183752</v>
+        <v>2.14597012154772</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.10688388419162</v>
+        <v>30.97931822129052</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.11422267506108</v>
+        <v>41.23059197427921</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>11.3962472097175</v>
+        <v>8.381911905834652</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>47.50406424356576</v>
+        <v>49.26558692140576</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>54.80783625185337</v>
+        <v>59.66817647128772</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.0535791822273</v>
+        <v>48.06333105641351</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>58.99441559357952</v>
+        <v>56.66787655627905</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>62.84545579964278</v>
+        <v>60.54818525719625</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.59020316930305</v>
+        <v>18.16489057382424</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.10951745721212</v>
+        <v>58.27576767112556</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>63.19684379817424</v>
+        <v>60.03805259722597</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.55039832164947</v>
+        <v>24.07845224515806</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>43.05586751164505</v>
+        <v>40.28780738601204</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>47.91305873341547</v>
+        <v>45.25392657975465</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>10.57455547243871</v>
+        <v>9.154747782223577</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.42355277246612</v>
+        <v>46.56396243904849</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>51.75742649115745</v>
+        <v>54.50101032866311</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>22.054421701939</v>
+        <v>13.96335918387131</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>66.24412423435506</v>
+        <v>69.11699126897395</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>71.87774658365741</v>
+        <v>71.95708020563566</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>77.3208515267884</v>
+        <v>79.62980974853831</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>86.96251969802266</v>
+        <v>87.99727398083051</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>89.82474214270171</v>
+        <v>88.92748300115161</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>39.38952849917493</v>
+        <v>41.60168260945169</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.07411391114613</v>
+        <v>86.8331277276409</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>88.53893433418543</v>
+        <v>91.34908130562772</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>6.645410474800816</v>
+        <v>14.75958732050928</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>17.14425901242348</v>
+        <v>19.36847688914715</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>20.47025480079576</v>
+        <v>15.92521863621554</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2.196997700509034</v>
+        <v>2.280528179875418</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>21.49400684622987</v>
+        <v>18.16147594021458</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>24.66352400926907</v>
+        <v>23.13222182893579</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>1.000569292725292</v>
+        <v>0.8891457413567068</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.93894371631941</v>
+        <v>19.98368721494381</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.86354161223301</v>
+        <v>19.55190203487869</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>32.81394123174681</v>
+        <v>20.71083079606266</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.96974641965448</v>
+        <v>27.39790923903189</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.53054054166436</v>
+        <v>25.09556019795754</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15.129536711361</v>
+        <v>14.44398285421469</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.08450640738659</v>
+        <v>8.309826455779636</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>37.8414266731041</v>
+        <v>5.518446987558356</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5.375951557544742</v>
+        <v>6.260838315683003</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>23.01922933073632</v>
+        <v>12.11910482380136</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.90994242268016</v>
+        <v>14.38447403108675</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-3.584446037861362</v>
+        <v>-2.993073940965779</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>22.77594713726536</v>
+        <v>11.63541423578009</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.13584726328092</v>
+        <v>18.74178538097821</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.5557884908641419</v>
+        <v>-2.84558166376722</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>36.40129351496096</v>
+        <v>21.12466545195859</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.43488615139324</v>
+        <v>30.93464901074112</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>42.15628328133249</v>
+        <v>13.97143318132002</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>51.93367192267921</v>
+        <v>36.02933900593322</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>56.73448455464842</v>
+        <v>43.75166960594204</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>15.79240800699085</v>
+        <v>0.9947952177279618</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>51.55684897713536</v>
+        <v>26.82373080638085</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>55.9197468632199</v>
+        <v>21.27027734703103</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>11.63016140194935</v>
+        <v>6.946419085548637</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>31.94543837270726</v>
+        <v>18.2726335333835</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>38.41390900556053</v>
+        <v>33.2261882119013</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.9288541711558338</v>
+        <v>-2.478792644122564</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.37816109998659</v>
+        <v>21.11422397373777</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.56971854239809</v>
+        <v>46.45513523441977</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>8.8239422135957</v>
+        <v>-2.218575249869208</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>51.69281523669824</v>
+        <v>33.91804264342738</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>61.21628459997611</v>
+        <v>71.79993821724871</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>65.10042777364738</v>
+        <v>23.58552871623358</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>73.44956477705172</v>
+        <v>56.36134967014346</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>81.83497618271845</v>
+        <v>77.61073763437882</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.80672713303185</v>
+        <v>6.986855353172324</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>67.24184867028946</v>
+        <v>45.45519043040555</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>75.35044942495378</v>
+        <v>58.04403097754673</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.77865240507726</v>
+        <v>20.06535785944911</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>39.07179199304951</v>
+        <v>26.99392198137836</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>43.41229356308963</v>
+        <v>37.95881052522063</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>9.69983322556385</v>
+        <v>7.475793213092896</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>51.45931006242965</v>
+        <v>50.11395524924878</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>53.41011247481717</v>
+        <v>49.87475694111329</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.13635419698866</v>
+        <v>7.64519148979365</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>67.60193587734805</v>
+        <v>67.19988012059973</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>69.9304100158347</v>
+        <v>64.96900549064934</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>66.3888646195618</v>
+        <v>70.7906955152886</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>74.50674613263949</v>
+        <v>78.30559674794969</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>76.68242265240727</v>
+        <v>75.63099670365548</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.50464407456598</v>
+        <v>44.81381348187551</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>66.85360719731484</v>
+        <v>67.90324906915663</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>74.70322835325841</v>
+        <v>76.21274469264648</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>13.82571373523894</v>
+        <v>22.17899251761202</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.98979400181544</v>
+        <v>39.84607036015719</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>42.87466202961672</v>
+        <v>42.73817759482159</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>2.488145202712026</v>
+        <v>4.787858899467189</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>41.72475808369234</v>
+        <v>40.04374175108625</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>44.77825149500126</v>
+        <v>43.87229732146086</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>12.09438787688311</v>
+        <v>9.506508724886807</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>59.77019762021216</v>
+        <v>61.08704382617596</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>63.49840869609071</v>
+        <v>66.71032525645477</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>60.80710902202019</v>
+        <v>59.89048510630514</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>70.84029929429356</v>
+        <v>66.59729742531917</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>72.88989191142541</v>
+        <v>66.36237348809264</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.05376507717973</v>
+        <v>32.52526155542823</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>73.93103604254037</v>
+        <v>71.30687307888434</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>75.62368203417266</v>
+        <v>69.16607798236232</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>17.34695731913055</v>
+        <v>23.7759936101343</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>45.83131487125301</v>
+        <v>41.17710020285094</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>50.3795899188265</v>
+        <v>43.1786973448793</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>6.128594075623134</v>
+        <v>8.277491711613376</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>51.04701387148191</v>
+        <v>49.9702620532583</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>55.19198251583317</v>
+        <v>52.19337582165407</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>18.9002254059401</v>
+        <v>11.54024762538589</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>72.44694266038594</v>
+        <v>72.76241231160053</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>77.61715734435958</v>
+        <v>73.97341001112024</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>80.7817944660258</v>
+        <v>79.79796976741449</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>90.81026534639699</v>
+        <v>85.72217049990192</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>92.98509544194407</v>
+        <v>85.52300670590526</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.44922136314297</v>
+        <v>39.50294187713737</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>89.39903711036833</v>
+        <v>86.64583218205536</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>93.11872934209096</v>
+        <v>87.1525937353919</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>5.150347912652837</v>
+        <v>4.967965306644455</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>15.03986668223556</v>
+        <v>15.58503232703875</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.5957896201383</v>
+        <v>14.93215238100615</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1.935148412768473</v>
+        <v>2.335045283033832</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.20092083413351</v>
+        <v>15.10528082631556</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>17.32291139967614</v>
+        <v>19.44587752495917</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-0.200505487967451</v>
+        <v>0.2848019896325837</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.36363536640336</v>
+        <v>21.83500713952118</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.04142067110759</v>
+        <v>23.85400521640865</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.64075976411342</v>
+        <v>25.15306119398993</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.32891362997651</v>
+        <v>29.47772696132497</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>34.1577152640406</v>
+        <v>31.84567115323834</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>6.840979292738741</v>
+        <v>4.54087402074336</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>24.93671483696746</v>
+        <v>22.84124566067974</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.74194994684686</v>
+        <v>24.57215850394621</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.576094219395948</v>
+        <v>9.446484438515885</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.005073780192</v>
+        <v>25.31064300599864</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.81550470412957</v>
+        <v>30.36237956447056</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2.650143517237638</v>
+        <v>3.680042110496121</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.71299108880685</v>
+        <v>28.01140151587673</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>33.88358391164498</v>
+        <v>35.1614535299713</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>6.799084613645711</v>
+        <v>6.992289560886416</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.94241973847755</v>
+        <v>41.96614064539558</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>47.03428032852744</v>
+        <v>49.83087137083942</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>39.53000593429181</v>
+        <v>39.65004971242123</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>48.09671674454398</v>
+        <v>45.81540577985648</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>51.17141134091646</v>
+        <v>50.53883699929553</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.00197589555045</v>
+        <v>8.282154060469978</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>44.21635397337104</v>
+        <v>46.76934278503473</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>50.50712305602926</v>
+        <v>51.49464248082194</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.16788979812898</v>
+        <v>17.75705643032989</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>38.45464545139973</v>
+        <v>36.57322328962137</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>43.74283325963796</v>
+        <v>41.57083759363198</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>9.950862828968031</v>
+        <v>11.15525292208052</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>40.54475834393633</v>
+        <v>39.90756459730601</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>45.66300057550696</v>
+        <v>49.23764093057434</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.56121920047939</v>
+        <v>18.32697630755464</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>57.33533039111856</v>
+        <v>60.26107294772865</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>64.53773355943456</v>
+        <v>69.24122478082005</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>64.68511809507633</v>
+        <v>69.98996640251194</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>74.40486674332325</v>
+        <v>76.97744854255555</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>81.54544313478752</v>
+        <v>86.59213784646194</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.32035327065535</v>
+        <v>22.73119468558512</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>69.16360900379217</v>
+        <v>72.15926999209402</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>76.18425354044376</v>
+        <v>79.26112674899213</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>5.10878947348294</v>
+        <v>5.949688241486051</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.43502530328788</v>
+        <v>6.955736315378005</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.44083319762888</v>
+        <v>7.764696057642087</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-3.582302154211344</v>
+        <v>0.3306300244662985</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.08659490358499</v>
+        <v>8.852683081205651</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.66951491238952</v>
+        <v>13.41438728858359</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>0.4555109751457778</v>
+        <v>-2.351266657727439</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>31.68496950469152</v>
+        <v>9.189008295162516</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.89383522836913</v>
+        <v>12.31453687838803</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>31.10757811192103</v>
+        <v>12.40372894306824</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.00568280282977</v>
+        <v>16.33832476668346</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.73965571518767</v>
+        <v>20.89969972367029</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>6.370167314965791</v>
+        <v>-0.1479070113468914</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.55734234680333</v>
+        <v>4.60932281456008</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.18071723118649</v>
+        <v>11.10348932247703</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.68033649472103</v>
+        <v>21.40219561096944</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>39.34409926891928</v>
+        <v>38.69657075899595</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.90186339587776</v>
+        <v>40.21898431670463</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>7.138977649330922</v>
+        <v>4.183896699560467</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>39.20556616191104</v>
+        <v>37.60881874241317</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>41.99633586217468</v>
+        <v>41.45854261623562</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>15.61651836425843</v>
+        <v>8.998066210149464</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>56.22579183113575</v>
+        <v>57.23293173066079</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>59.82329226306199</v>
+        <v>63.47180089776664</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>58.57361804301735</v>
+        <v>56.06609316247351</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>67.58411344430117</v>
+        <v>63.23874199852483</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>68.91133119520889</v>
+        <v>63.96204425797494</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.71124769738849</v>
+        <v>22.62161743602141</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>67.23960855851716</v>
+        <v>64.86909301604069</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>68.69532699904185</v>
+        <v>63.9706856630013</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>23.13894979422459</v>
+        <v>28.34268863849329</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>49.86780148083166</v>
+        <v>46.65361926731322</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>52.37367988998491</v>
+        <v>47.8545762622164</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>9.359994014825851</v>
+        <v>9.562773433620006</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>51.2623627485804</v>
+        <v>54.83118015006499</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>53.20832026919103</v>
+        <v>56.27952127483233</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>22.03638740005755</v>
+        <v>10.87637282197841</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>71.54512264530176</v>
+        <v>74.29097714996908</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>75.15741381231319</v>
+        <v>74.82881285809182</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>79.39946624895114</v>
+        <v>84.68954616241973</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>89.31644261749646</v>
+        <v>90.71657454018847</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>91.87992406572646</v>
+        <v>91.06155251690419</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>34.96921716833211</v>
+        <v>30.68131176809668</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>85.47365152908608</v>
+        <v>89.24012856253513</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>86.27918042273262</v>
+        <v>83.4863918791531</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>8.222534218350994</v>
+        <v>15.44570937308516</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>18.17761041466435</v>
+        <v>20.56533906845067</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>19.7676847170341</v>
+        <v>20.98965800461021</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-0.8157492649038183</v>
+        <v>2.606264674298306</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.21971798486661</v>
+        <v>19.69903983629793</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>19.93858447677975</v>
+        <v>20.71905798710947</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>2.42889503256081</v>
+        <v>1.389268276597321</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.87706763707079</v>
+        <v>25.1245649684582</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.08027507502164</v>
+        <v>24.38007375683404</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.13881559470993</v>
+        <v>29.13298909203607</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.44497054919988</v>
+        <v>33.20233201463722</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.01862826670194</v>
+        <v>36.19375074571618</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>12.76578752750294</v>
+        <v>12.58076447770175</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.05155766834321</v>
+        <v>28.84638650132961</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.17825625182383</v>
+        <v>29.97898186521314</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>4.672619852334776</v>
+        <v>6.691435737860289</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>16.88239020566605</v>
+        <v>15.45204108685672</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.22283933023784</v>
+        <v>24.65514398717843</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-2.089456834045546</v>
+        <v>-2.421209402690998</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>16.85999638070082</v>
+        <v>13.66145562109676</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.0253471528586</v>
+        <v>27.48500025282601</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>1.095143149912662</v>
+        <v>-1.499104465938466</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.39370676543604</v>
+        <v>22.01311395091029</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.12859657640545</v>
+        <v>41.19163065475742</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.24568857992227</v>
+        <v>18.01156565772338</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>37.08038406649136</v>
+        <v>31.84600683196317</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.36650079175755</v>
+        <v>38.86541899161294</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>8.537167882616775</v>
+        <v>5.139009465749812</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>35.58076283745548</v>
+        <v>29.13882057279589</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.17633484943116</v>
+        <v>37.482022127698</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>17.67399064965323</v>
+        <v>22.25825310524333</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>36.00314591948666</v>
+        <v>32.94756185619291</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>39.84432833064792</v>
+        <v>37.29199195543163</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>4.451905129308688</v>
+        <v>4.904564025517566</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.42930982104426</v>
+        <v>30.96609873548968</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.44672275186647</v>
+        <v>37.99392924114793</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.28629493995008</v>
+        <v>10.60614691758737</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>53.24327801517312</v>
+        <v>52.05125566751785</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>58.62308130864722</v>
+        <v>58.45743887647237</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>60.90228496093769</v>
+        <v>57.30892614657176</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>68.49352869553184</v>
+        <v>64.68544392595848</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>70.63427004894565</v>
+        <v>68.54180544032216</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.92237135056495</v>
+        <v>33.79671013649755</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>64.61530996411602</v>
+        <v>60.96440715619443</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>67.39574799506542</v>
+        <v>64.34614671337329</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2.257109559081734</v>
+        <v>3.999183839725777</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.178471943221762</v>
+        <v>4.841631984444003</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.257367453989868</v>
+        <v>4.965563626119266</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-4.026178443030982</v>
+        <v>2.34460093880794</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>6.154822207086742</v>
+        <v>4.24504648974867</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.639539646542641</v>
+        <v>7.868741138343818</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-4.578663646034311</v>
+        <v>0.9890888123969539</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.92699137492114</v>
+        <v>1.984789584873194</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.82196388888628</v>
+        <v>5.909118328203714</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.65138389003618</v>
+        <v>5.684932028049651</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>12.96646675497357</v>
+        <v>6.586904584727293</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.75352598134054</v>
+        <v>9.346576082827585</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.111095465780163</v>
+        <v>5.179946887984197</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.17357839873784</v>
+        <v>10.29772743742692</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.34358000595928</v>
+        <v>13.03843430979541</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.4526792040405567</v>
+        <v>2.922444397661568</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.257281370066035</v>
+        <v>7.753862544739249</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.809866850712741</v>
+        <v>9.96562279239869</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-3.884821766947709</v>
+        <v>-1.493485723295922</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.466635255488178</v>
+        <v>7.011611987974391</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.24407235025892</v>
+        <v>11.45135226381491</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-3.543088195001864</v>
+        <v>-2.310380840089323</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>15.19754530960927</v>
+        <v>9.483764649721955</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.69437450193336</v>
+        <v>15.46425157449606</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>17.03867248060447</v>
+        <v>7.704193085831761</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.36937290543669</v>
+        <v>11.20691654344787</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.05325559182925</v>
+        <v>13.83046452597551</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.388910585448301</v>
+        <v>-2.426573758518732</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.26760972156938</v>
+        <v>11.10873822537293</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.45359088863266</v>
+        <v>13.11332691296567</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.68497605584231</v>
+        <v>19.18971666162</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.23097794351062</v>
+        <v>25.47278799248059</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.45552142714196</v>
+        <v>28.02817919506534</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>3.158536321225174</v>
+        <v>8.135761008648057</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.22717336303515</v>
+        <v>24.46171866201339</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.63287831954855</v>
+        <v>28.85379761883969</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.1043329950052</v>
+        <v>11.12215244062375</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>40.01537065125562</v>
+        <v>36.53533768638038</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>43.58151084231205</v>
+        <v>39.57999144687152</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>47.51583700332016</v>
+        <v>44.47075742820611</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>52.36425064630397</v>
+        <v>46.88200230275957</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>54.14308399598718</v>
+        <v>49.57922859761013</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.323984469656</v>
+        <v>26.24976007768619</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>48.93910800116647</v>
+        <v>40.16808006837821</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>50.4490688923841</v>
+        <v>43.49999149885025</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.06345354428559</v>
+        <v>22.53842040758331</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.55944113914905</v>
+        <v>33.43299788308564</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>32.48643263140728</v>
+        <v>34.1011495184821</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.578058239836121</v>
+        <v>4.358488788998336</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.75147159218582</v>
+        <v>32.04321747281256</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>33.48739892572668</v>
+        <v>34.57626621024123</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.14197699591156</v>
+        <v>11.02501931061008</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>42.16827862359857</v>
+        <v>45.96487293100074</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>45.91470760863866</v>
+        <v>47.60523827124037</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>47.11886095861715</v>
+        <v>50.13533656136617</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>51.76082039303643</v>
+        <v>60.53481290679768</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>54.84259027091061</v>
+        <v>63.84278903321879</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.25702210270036</v>
+        <v>35.96108666346063</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>47.55304169190349</v>
+        <v>60.53113472488863</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>57.25502649458227</v>
+        <v>66.07716944624002</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.92440261256603</v>
+        <v>14.35217019266605</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.52514837793451</v>
+        <v>28.25125352721531</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>37.55469255762456</v>
+        <v>29.51327513758333</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-0.3594078347030134</v>
+        <v>-1.530621566190547</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.59201075487242</v>
+        <v>19.86083349311048</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.07723745566469</v>
+        <v>28.24369124760528</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>5.298327689816336</v>
+        <v>1.172906308043931</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>41.82439137256558</v>
+        <v>40.86844168419983</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>50.09351984974916</v>
+        <v>44.86913995917455</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>46.50911957398402</v>
+        <v>43.66043733350077</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>55.10164488910862</v>
+        <v>52.54869038570124</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>59.22954496376944</v>
+        <v>52.4289339023005</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.44338785075134</v>
+        <v>24.43401441609437</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>57.52564889948292</v>
+        <v>57.7547061755542</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>62.93483757755428</v>
+        <v>59.88961277960462</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.89402467745446</v>
+        <v>27.1134133706198</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>45.46493951563095</v>
+        <v>42.78554755166596</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>51.0294486648499</v>
+        <v>46.67621740517615</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>7.644071602557993</v>
+        <v>6.703438366909875</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>43.25063032247645</v>
+        <v>38.60091263945391</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>48.63823210723272</v>
+        <v>46.35096292984072</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>19.91938336357759</v>
+        <v>12.5706069630188</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>64.1612718517065</v>
+        <v>69.7841747728534</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>72.28478156832038</v>
+        <v>72.48348322226693</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>78.28080606489657</v>
+        <v>86.26478041434513</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>84.70791156981062</v>
+        <v>87.67854455002413</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>91.31752942446761</v>
+        <v>90.44299430044131</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>38.16240301205177</v>
+        <v>44.67091499625766</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>80.05801542014061</v>
+        <v>84.06579222049454</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>88.19148767924364</v>
+        <v>89.15550801628029</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.20903800030118</v>
+        <v>17.76940167879938</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.37107443031738</v>
+        <v>38.89864978946578</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>40.79494620374134</v>
+        <v>38.04534276815113</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.873810346197899</v>
+        <v>9.681969931384511</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>41.57345663246593</v>
+        <v>45.43584541257057</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>44.08518617550245</v>
+        <v>46.94507157271492</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>19.14236460596291</v>
+        <v>10.07436477542815</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>56.33677898991789</v>
+        <v>59.02089804811042</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>59.73033354272897</v>
+        <v>58.29781817111069</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>57.71855588375504</v>
+        <v>68.98465457126655</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>65.02692738402995</v>
+        <v>74.0251666295123</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>68.24526890425479</v>
+        <v>73.20781056678106</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.34412962104228</v>
+        <v>22.12327693412881</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>58.0106406163993</v>
+        <v>69.05627013373848</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>64.23581239006265</v>
+        <v>70.00010809156684</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>15.47970868264928</v>
+        <v>16.52992432310127</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.38974853794866</v>
+        <v>35.40233546144324</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>41.09827033389413</v>
+        <v>39.71082086672059</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>6.61007930570926</v>
+        <v>5.449720355406185</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.67436195994787</v>
+        <v>36.6393857697602</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.67431490734947</v>
+        <v>42.51231832700053</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>14.65697339762453</v>
+        <v>8.306758572397534</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>53.09635549270302</v>
+        <v>52.76466867543001</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>60.19173719619663</v>
+        <v>62.29309185055526</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.69558072346864</v>
+        <v>54.76798952097269</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>64.74459921930735</v>
+        <v>62.80826830800575</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>66.08132285745457</v>
+        <v>61.96216394684248</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>22.22418263764662</v>
+        <v>17.97847815760932</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>61.74970577921721</v>
+        <v>65.94567356070068</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>67.21195877913949</v>
+        <v>67.74809901542046</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.82773166200043</v>
+        <v>19.19467277556993</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>44.57632026891444</v>
+        <v>42.68114530137477</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>49.16388259674491</v>
+        <v>44.89171701074583</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>8.029827669121286</v>
+        <v>6.313614999454618</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>46.91066954363367</v>
+        <v>45.50516322286268</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>51.73526719562022</v>
+        <v>50.9873070760929</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>20.18092086954696</v>
+        <v>8.253450203516994</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>66.52429119657923</v>
+        <v>64.74774142748205</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>73.37588999388154</v>
+        <v>71.60661370266575</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>74.26203878115342</v>
+        <v>80.24714570196542</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>85.38696087488491</v>
+        <v>85.51107258622231</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>90.64851204623648</v>
+        <v>91.07186600054068</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>31.02145722641578</v>
+        <v>20.163668543797</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>80.1194236976786</v>
+        <v>78.79510651314543</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>85.52580026412122</v>
+        <v>84.74359452717599</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>17.64970492744273</v>
+        <v>24.54856018244665</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.39446662579334</v>
+        <v>37.59249793633448</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>39.97858862512905</v>
+        <v>38.96168151246415</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>8.164100437956431</v>
+        <v>6.234004768529687</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.57985573405676</v>
+        <v>50.82588463094385</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.35156306757594</v>
+        <v>49.35238673869212</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.67798853407458</v>
+        <v>8.032580713249846</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>57.91807308592387</v>
+        <v>65.80972767616829</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>61.73089911860461</v>
+        <v>60.77403899253754</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>58.07281738643046</v>
+        <v>66.45812401339164</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>63.94010893183349</v>
+        <v>67.56898239658872</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>66.70459434025183</v>
+        <v>71.13019799704394</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>33.01834352413329</v>
+        <v>41.49684164285663</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>56.71352038887728</v>
+        <v>63.0320214013403</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>68.27369411237112</v>
+        <v>68.09236401880216</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>16.39081100657823</v>
+        <v>25.64099270941885</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>40.60322937949643</v>
+        <v>39.85722049828668</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.39999761141642</v>
+        <v>41.14078060746849</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>4.575721126807753</v>
+        <v>4.1962135263345</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>39.91090102292475</v>
+        <v>35.49817984194575</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>46.13517762875227</v>
+        <v>43.63619992239574</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>12.47755334930285</v>
+        <v>6.992817660878789</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>57.64243311320726</v>
+        <v>61.26627405505405</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>64.66869401096955</v>
+        <v>67.57872809001644</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>61.6547817851646</v>
+        <v>60.73845702965603</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>71.70537938916647</v>
+        <v>67.57460333180836</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>75.57180765627842</v>
+        <v>68.25951360287894</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.17455362277176</v>
+        <v>29.05259593672726</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>73.3783416646543</v>
+        <v>74.9867896983437</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>78.25478118774582</v>
+        <v>76.05255362792114</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>21.53450400608063</v>
+        <v>28.30950955318325</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>47.83084262673684</v>
+        <v>46.66586832202541</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>53.14269693846343</v>
+        <v>47.53072315962244</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>8.292088589323047</v>
+        <v>6.287634307630622</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>50.63290477396276</v>
+        <v>46.06837420526637</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>56.28506891365447</v>
+        <v>50.42866014197872</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>20.52203621286796</v>
+        <v>5.559088357769163</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>72.03531963645891</v>
+        <v>73.35891554393646</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>80.17865384990823</v>
+        <v>76.31535844648792</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>85.72824360199986</v>
+        <v>83.66467280995273</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>94.17743397602894</v>
+        <v>89.46055258869087</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>100.7490297653492</v>
+        <v>91.98636565252993</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>39.42929004338393</v>
+        <v>33.02687225115423</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>89.40178446732968</v>
+        <v>88.66393121855393</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>96.82523895652794</v>
+        <v>89.16078040278684</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>20.8808680675093</v>
+        <v>25.68335807974763</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>32.33137070050309</v>
+        <v>34.87671793184613</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>36.65419178350275</v>
+        <v>38.49118608865936</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>14.61471693454518</v>
+        <v>13.92127289577552</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>40.70158776398696</v>
+        <v>62.78827200388648</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>45.120178501594</v>
+        <v>59.8131848244915</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>19.66484523830816</v>
+        <v>13.45904246971043</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>50.87902261178813</v>
+        <v>66.41668418238073</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>55.02516765170461</v>
+        <v>64.34704536518555</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>52.63357295272226</v>
+        <v>74.24385156976646</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>57.31718567532917</v>
+        <v>76.65450368664979</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>60.1097383653121</v>
+        <v>76.64675217425403</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.02722407345312</v>
+        <v>52.88867907811666</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>49.61568718305677</v>
+        <v>68.03635971072258</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>61.87500853881427</v>
+        <v>71.93560469764977</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>20.67268325938972</v>
+        <v>27.43887979308599</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>39.741210140239</v>
+        <v>36.46197945806971</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>45.71521679311265</v>
+        <v>39.64266176260601</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.93970489053511</v>
+        <v>34.60779535961601</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>44.25919371242524</v>
+        <v>53.86549305160759</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>52.29817699514155</v>
+        <v>59.09710486630622</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>18.91409832709426</v>
+        <v>10.7114530396707</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>56.0125188912611</v>
+        <v>57.79013462252254</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>64.39837380660634</v>
+        <v>63.46214058631202</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>58.97175416484171</v>
+        <v>57.76731312887843</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>67.97906495341329</v>
+        <v>65.80315328177846</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>73.07736939886789</v>
+        <v>65.11881499339921</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>32.58945339530506</v>
+        <v>33.26450719542587</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>68.48799201269345</v>
+        <v>70.42794646746491</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>75.17167061085783</v>
+        <v>74.94287727652684</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.63289231877418</v>
+        <v>31.8955085818873</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>46.86583610708144</v>
+        <v>46.84373207683622</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>52.1351291064384</v>
+        <v>46.90236034885952</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>17.93224750106097</v>
+        <v>37.09755057398739</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>53.38810262933195</v>
+        <v>64.68127198517973</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>59.37954120262873</v>
+        <v>64.54055822871513</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>26.16728173748248</v>
+        <v>11.17866831105135</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>69.4720538566621</v>
+        <v>74.33897284329032</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>77.79632132881385</v>
+        <v>74.73078994115062</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>83.13326479332298</v>
+        <v>96.1816908097889</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>89.80256589904354</v>
+        <v>90.19847129973239</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>96.71120419338671</v>
+        <v>94.3469419629921</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>43.5677956908705</v>
+        <v>42.65553359511662</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>83.85069948234572</v>
+        <v>89.59996656897061</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>92.55805343178513</v>
+        <v>92.43437542518834</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>15.67662578538364</v>
+        <v>20.65191077161284</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>35.55540325229006</v>
+        <v>38.59076983366262</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>40.45474063867719</v>
+        <v>42.52816117912786</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.967482138102319</v>
+        <v>6.479642142863167</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>40.70872532816958</v>
+        <v>37.49096485551218</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>44.16717533426835</v>
+        <v>48.77406781892036</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>15.47492277133096</v>
+        <v>7.714988448704727</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>57.00375735099867</v>
+        <v>59.29579454093097</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>61.43194804843134</v>
+        <v>62.85156913099804</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>61.01635953981628</v>
+        <v>67.96283710941258</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>67.70876740224963</v>
+        <v>73.42530670665144</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>70.13015712210884</v>
+        <v>74.76447757073774</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.42211076088062</v>
+        <v>14.41204334589547</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>58.40541029598241</v>
+        <v>68.84076756111952</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>65.4809491574221</v>
+        <v>71.75474041379708</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>12.56624676580777</v>
+        <v>17.35842899998224</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>37.03583580502423</v>
+        <v>36.81876864431265</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>41.03901317238191</v>
+        <v>38.41637110309797</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1.724795086384916</v>
+        <v>2.646204528786587</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.77724120469597</v>
+        <v>36.03443434209793</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>41.35758710192056</v>
+        <v>40.12786844036101</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>9.054997684822016</v>
+        <v>6.154935053911004</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>53.84626174523368</v>
+        <v>55.93832318306907</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>59.88759711831891</v>
+        <v>61.41245983606321</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>57.60733808092718</v>
+        <v>55.76199280903207</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>65.91560223132959</v>
+        <v>63.31585113166958</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>66.98571944607258</v>
+        <v>62.66413087379004</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>18.55932604811262</v>
+        <v>12.44396324474171</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>64.01963970904367</v>
+        <v>54.43621479294173</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>68.09730539172989</v>
+        <v>66.37152680095934</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>17.08334804356792</v>
+        <v>17.26586199344077</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.80596156639552</v>
+        <v>40.83818006891853</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.76965021728233</v>
+        <v>43.26995481152613</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>5.273100804814003</v>
+        <v>2.434324851323403</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.71106689327486</v>
+        <v>47.46781320403979</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>51.93538059515423</v>
+        <v>51.01145739920322</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>16.04057103357438</v>
+        <v>4.263610135731113</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>67.19607373693847</v>
+        <v>67.30479843020676</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>74.24720912041239</v>
+        <v>73.44729153314327</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>78.16098489967202</v>
+        <v>80.68156606247845</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>88.3161577833512</v>
+        <v>84.71416855940882</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>94.3723500517745</v>
+        <v>91.13661916113499</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.88337409985462</v>
+        <v>6.520698157077927</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>81.70731191181963</v>
+        <v>78.91995125035622</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>88.42911310161591</v>
+        <v>83.1843364737573</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>11.70465099448114</v>
+        <v>16.703017002837</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.0299211980396</v>
+        <v>21.47541626188376</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.55569175495222</v>
+        <v>21.05423837162052</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>3.148921500359357</v>
+        <v>7.414093823545564</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.02005020949759</v>
+        <v>22.10287388234113</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.25600255937444</v>
+        <v>23.49327895439668</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>6.890404784103964</v>
+        <v>9.751318013900832</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.19197420808779</v>
+        <v>28.67051371037155</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.73690427362769</v>
+        <v>29.79172923287751</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.96500144223099</v>
+        <v>32.58726776813666</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>38.86277415070424</v>
+        <v>37.06726694232391</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>40.28659700008043</v>
+        <v>38.52498259659093</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.91785833777048</v>
+        <v>17.42937553197959</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.3407019675723</v>
+        <v>28.83553766771373</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>35.77594556283431</v>
+        <v>30.03833980405756</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.13142181527423</v>
+        <v>14.18072140610213</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.67827440148734</v>
+        <v>31.14132731643699</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>38.35167841789823</v>
+        <v>35.48275608924703</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>7.4421471802324</v>
+        <v>5.304581319814069</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>33.59607408730643</v>
+        <v>32.71127397678714</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.77791970902702</v>
+        <v>42.96770703578665</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>12.30520531553075</v>
+        <v>9.673334843177042</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>45.67131811183924</v>
+        <v>52.57204484849056</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>54.80693901386623</v>
+        <v>61.08532732800411</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>50.01995305370885</v>
+        <v>51.68625157921697</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.80663100208949</v>
+        <v>56.24075986285244</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>62.53876572221374</v>
+        <v>62.29457573631754</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.37357021481107</v>
+        <v>15.62511036328312</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>54.60160099172516</v>
+        <v>56.86349682045683</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>62.95040899860422</v>
+        <v>62.2819696547808</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.48433613112756</v>
+        <v>23.41166892642769</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>42.20058421048212</v>
+        <v>41.27481977017271</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>48.38717073172738</v>
+        <v>45.62622354638636</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>11.40767595040258</v>
+        <v>10.79422536742243</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>45.2729424473761</v>
+        <v>43.81612059387859</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>51.36070655477847</v>
+        <v>52.14352674741603</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>19.88621050622101</v>
+        <v>18.84988831664789</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>60.00239086526874</v>
+        <v>69.23214162837041</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>68.66060547390062</v>
+        <v>75.42014772013071</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>70.44728400222991</v>
+        <v>76.00400572212997</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>78.58586174681085</v>
+        <v>76.45660119482588</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>83.99436964934088</v>
+        <v>89.70244408532021</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>32.89555494586968</v>
+        <v>34.65788448932314</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>72.48160856586128</v>
+        <v>75.87667270766487</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>81.68199465022413</v>
+        <v>86.9937714814946</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>14.54898404847676</v>
+        <v>15.56807402545214</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>24.47618010195551</v>
+        <v>18.20267197289057</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.4522950939322</v>
+        <v>19.81778700467027</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>6.357986901742731</v>
+        <v>-0.1757466497109128</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.64375522196878</v>
+        <v>21.98230853524356</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.0276016738493</v>
+        <v>22.79773113957879</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>10.67747826422538</v>
+        <v>3.777973332448454</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.16183801691228</v>
+        <v>27.29788773096251</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.23804187621379</v>
+        <v>31.62442965653981</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.49763704603087</v>
+        <v>43.54921887701815</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>48.11699362548599</v>
+        <v>54.53094105139496</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>50.92460733882567</v>
+        <v>61.68480687001184</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.51665178834586</v>
+        <v>19.02717820235353</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>40.80855799144557</v>
+        <v>33.04297693900564</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>52.52545128982581</v>
+        <v>33.9468428780003</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>13.20662855948203</v>
+        <v>8.188217718634586</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>30.95348345381802</v>
+        <v>15.55660367959107</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>38.57770186523913</v>
+        <v>32.9641250002728</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>7.339416143604964</v>
+        <v>7.669943978354112</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.26160374805348</v>
+        <v>16.82832642470105</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>43.4862545582062</v>
+        <v>59.65280525627617</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>9.837716419297781</v>
+        <v>-0.5115181607867534</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>44.56433638001684</v>
+        <v>33.693741581478</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>55.00314282751046</v>
+        <v>64.41393669100907</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>49.19036816150973</v>
+        <v>39.74329310843885</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>58.03408808423517</v>
+        <v>53.35308017087446</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>64.40655339401218</v>
+        <v>64.508541438387</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>23.52986436198658</v>
+        <v>10.60690789634457</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>57.94783915135083</v>
+        <v>53.00614029895667</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>66.51434690688812</v>
+        <v>71.26475382438795</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>18.75828570497576</v>
+        <v>22.42693961944349</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>38.69967580367464</v>
+        <v>32.51881089120306</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>45.35188045872177</v>
+        <v>42.15988949507422</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>9.381713838498918</v>
+        <v>7.669861856885458</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.5827229512914</v>
+        <v>20.98117436364286</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>50.26404132422209</v>
+        <v>47.80830128827202</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>17.17208516179749</v>
+        <v>4.216174433485754</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>58.184601504727</v>
+        <v>51.43362865864299</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>68.15139876583405</v>
+        <v>69.06860586615932</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>73.60068412763826</v>
+        <v>76.93258460380952</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>79.76274899011796</v>
+        <v>74.64071388747185</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>87.74198774021781</v>
+        <v>87.15799702346413</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>35.21494525161938</v>
+        <v>19.44428429328182</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>73.70497218905975</v>
+        <v>61.4098679389987</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>84.30575901178311</v>
+        <v>84.52499828609407</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>21.22037932482427</v>
+        <v>22.95910410328853</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>36.27780270570223</v>
+        <v>32.61713472489021</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>40.72292161034993</v>
+        <v>37.2041614208885</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>13.17579793151883</v>
+        <v>8.750782341806826</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>46.75861342748675</v>
+        <v>49.48931917700499</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>49.48059650397227</v>
+        <v>49.12067502532875</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>22.11014812046779</v>
+        <v>13.66475317674289</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>59.33478452349364</v>
+        <v>62.44571369728916</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>62.43248089568547</v>
+        <v>59.88955473553192</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>60.23978692082213</v>
+        <v>65.92762939275285</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>66.30934136224363</v>
+        <v>71.04837378378954</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>68.71578566037145</v>
+        <v>71.65542640577068</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>39.67501886636052</v>
+        <v>40.27590772533401</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>59.80823426502985</v>
+        <v>61.29420650235187</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>70.80006001539078</v>
+        <v>78.1605308057957</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>19.26351640023224</v>
+        <v>28.37632779553414</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>40.03273412840296</v>
+        <v>41.1891163388596</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>43.45174840333539</v>
+        <v>42.50313487688737</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>7.978649710912787</v>
+        <v>7.939440102532611</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>41.02483653164665</v>
+        <v>37.25877247806575</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>44.59777929823785</v>
+        <v>38.24661079181737</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>14.87346692820661</v>
+        <v>9.989265385691027</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>55.57486261405947</v>
+        <v>55.96640290618947</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>59.91936170880962</v>
+        <v>57.44447882785226</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>59.84333015600873</v>
+        <v>59.35107150907227</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>66.62988207056212</v>
+        <v>62.81898808495671</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>68.78899857452397</v>
+        <v>61.54365403481468</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>32.3339015529949</v>
+        <v>31.46190550609585</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>69.11844574394841</v>
+        <v>65.44183735150131</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>72.00007895323417</v>
+        <v>63.5106569201975</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>22.43354638094105</v>
+        <v>27.84304229037838</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>46.12343831604787</v>
+        <v>44.86042448164494</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>49.12710586976925</v>
+        <v>46.36410825005817</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>10.52377647459869</v>
+        <v>9.979295740890624</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>50.5397695291563</v>
+        <v>49.76680485481565</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>52.99879489402865</v>
+        <v>48.93248875786232</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.73017469073293</v>
+        <v>10.5831036426187</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>69.98178402971972</v>
+        <v>70.21811064703795</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>74.10016400985701</v>
+        <v>69.78206639682631</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>81.5915259986817</v>
+        <v>83.64920293178034</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>88.75871412172549</v>
+        <v>83.10148492829158</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>90.85362318016026</v>
+        <v>86.2071520842745</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>40.99804266582284</v>
+        <v>39.43985693031402</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>84.08192311563485</v>
+        <v>79.75991860848698</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>89.15614445875239</v>
+        <v>82.63753045243151</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>15.7702041391925</v>
+        <v>20.41350354873431</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>35.6348632529658</v>
+        <v>37.33868051495779</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>39.73238758983599</v>
+        <v>40.06785166412934</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.650487710141643</v>
+        <v>8.589173798715564</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>42.98201852678166</v>
+        <v>44.10384782043681</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>45.69461382598809</v>
+        <v>48.89696923401766</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>15.82523882960451</v>
+        <v>9.190258961032768</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>57.40192538001112</v>
+        <v>60.09730364544572</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>61.07658333391099</v>
+        <v>61.86311553227399</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>61.84964818315684</v>
+        <v>63.08651158071288</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>68.76061413559165</v>
+        <v>73.02980016630629</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>70.07847103797067</v>
+        <v>73.53702791245932</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.97599343114431</v>
+        <v>14.56139116666234</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>58.28823414808427</v>
+        <v>66.50325393865008</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>65.01903631872237</v>
+        <v>72.80620286375313</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>12.08202491307856</v>
+        <v>17.08453623876403</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.62184273928123</v>
+        <v>35.7224082498978</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>40.77998372518166</v>
+        <v>37.54813203398847</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>2.276496247380003</v>
+        <v>3.254321993101925</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>37.71105892384652</v>
+        <v>36.9949049418862</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>42.67834263655861</v>
+        <v>41.88122755178726</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>9.366522684962892</v>
+        <v>7.899680751375012</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>54.13581282358464</v>
+        <v>57.02874557224818</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>60.61997474288995</v>
+        <v>63.93534779226728</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>58.41996744299745</v>
+        <v>59.60768740089738</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>66.59297617630983</v>
+        <v>66.41014963744085</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>67.7996458549347</v>
+        <v>64.64960332040178</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>19.43368001719495</v>
+        <v>14.00801377532023</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>65.43181455067688</v>
+        <v>69.33832421054653</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>69.12290634764886</v>
+        <v>67.58478571872308</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>16.56317876324074</v>
+        <v>17.02797831194948</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>43.40525657628672</v>
+        <v>39.07108971388223</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>48.66319204710317</v>
+        <v>42.0627037184969</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.176054987516302</v>
+        <v>5.291424303280998</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>46.65129744650505</v>
+        <v>47.25772023258374</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>51.36796215527155</v>
+        <v>51.19544398496259</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>15.48693388102704</v>
+        <v>7.10999278258549</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>65.49213089551138</v>
+        <v>66.02620224488909</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>73.08264303616151</v>
+        <v>73.22593756471707</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>76.19593507032532</v>
+        <v>77.72778297377079</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>84.80797492798374</v>
+        <v>81.65468208164171</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>92.02734053381499</v>
+        <v>89.6582170553787</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>27.50428159547086</v>
+        <v>13.16030621628543</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>78.51447715288278</v>
+        <v>75.29988834088675</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>85.65121518516202</v>
+        <v>81.91986153579063</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.497</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.369</v>
+        <v>17.326</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.868</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.417</v>
+        <v>11.707</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.977</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.998</v>
+        <v>6.882</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.27827840178951</v>
+        <v>14.34817024501663</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.0645213328989</v>
+        <v>19.97503734587122</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.47675552287122</v>
+        <v>21.28938450182689</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.47971380391472</v>
+        <v>-2.502370034635206</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.64686154370175</v>
+        <v>23.31108770831615</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.03587788390523</v>
+        <v>24.72263200081584</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.850243808561181</v>
+        <v>1.035192206509542</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.09555184262715</v>
+        <v>34.64449503431868</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.96811391697472</v>
+        <v>34.35820208499972</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.13641302090559</v>
+        <v>39.48282577219464</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43.05283306315823</v>
+        <v>45.23239974013356</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.73566770017265</v>
+        <v>47.25447677511118</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.61840427949373</v>
+        <v>16.75641079183364</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.94235009841012</v>
+        <v>39.48392438192739</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.29924973051499</v>
+        <v>41.96643141847672</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.39207176409772</v>
+        <v>16.32904991409875</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.4893918187221</v>
+        <v>37.26622853187266</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.07109219278864</v>
+        <v>44.38691815650169</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.738042695604463</v>
+        <v>3.916464497170423</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.93776649319435</v>
+        <v>36.78281873554209</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>52.221210043004</v>
+        <v>48.49354560645014</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.661921042195111</v>
+        <v>12.34707812337076</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>62.2028826778611</v>
+        <v>58.68571577643063</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>75.39831378022546</v>
+        <v>70.75929890033382</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62.37181247998804</v>
+        <v>62.06107363495235</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>74.16552142270952</v>
+        <v>72.52820017847118</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>79.90099782934145</v>
+        <v>77.30125418124719</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.39788045983713</v>
+        <v>24.90962248257808</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>82.93485910505527</v>
+        <v>73.94379058600902</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>85.58535074259737</v>
+        <v>82.17753913892311</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.08192204613159</v>
+        <v>24.36268521205228</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50.10211002736139</v>
+        <v>49.61167074862227</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.53953794934868</v>
+        <v>54.84307402718873</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.5310614104623</v>
+        <v>7.645287294058901</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.23749983803006</v>
+        <v>49.55585933742245</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53.9491310481948</v>
+        <v>56.69992720831935</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.09720291211784</v>
+        <v>17.05795074387507</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>81.96439314246491</v>
+        <v>74.66089906325264</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>82.44797136665727</v>
+        <v>82.81957317915122</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>94.98512056926391</v>
+        <v>96.4096191407799</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>99.78971523808514</v>
+        <v>99.81735901145743</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>103.6384422691228</v>
+        <v>105.0646656009198</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>42.85416615936342</v>
+        <v>39.42658174696932</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>102.3536718681705</v>
+        <v>96.54697122106556</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>102.3563197443788</v>
+        <v>102.7463288907605</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.883184162920646</v>
+        <v>11.60083528978623</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>43.4569588008697</v>
+        <v>39.93913974895515</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>40.51001980261534</v>
+        <v>42.77015589046702</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1.488132475037595</v>
+        <v>-0.3217847281488204</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47.88510914920529</v>
+        <v>47.83080581125928</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47.20997403672078</v>
+        <v>49.96595171446168</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-1.667312561178267</v>
+        <v>5.579617064520175</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>66.28803495519983</v>
+        <v>67.30578651917025</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>61.41888634437456</v>
+        <v>68.13398021608813</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>64.52404750523553</v>
+        <v>67.51275602770019</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>69.6723165917694</v>
+        <v>77.45398241588477</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>70.45567624716406</v>
+        <v>76.91404818606949</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10.81943394401729</v>
+        <v>19.54520557974951</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>65.79324906538363</v>
+        <v>67.38730709503646</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>66.50763572110554</v>
+        <v>70.61870864676408</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.37951475475978</v>
+        <v>12.21969668780792</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>41.11410934510812</v>
+        <v>42.50370853833634</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>46.66832075070455</v>
+        <v>47.68375152726611</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.5954560322693609</v>
+        <v>-2.434418466399201</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.38489925771646</v>
+        <v>42.15364504605461</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>52.14205792506301</v>
+        <v>51.72724759996915</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.592235031401231</v>
+        <v>6.843306369847426</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>66.05437003723715</v>
+        <v>67.2229532598223</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>80.07343837317552</v>
+        <v>77.06664941685924</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>63.74268996150388</v>
+        <v>66.53511532727588</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>75.45002360138693</v>
+        <v>77.53978194239357</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>78.39468352303824</v>
+        <v>81.50353791329334</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10.91107922876965</v>
+        <v>20.10835120059097</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>76.1557488225049</v>
+        <v>79.64939330859957</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>80.42926885692368</v>
+        <v>83.40259808299756</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13.08724595409925</v>
+        <v>13.79063484981971</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>48.3410305341984</v>
+        <v>49.89296009480989</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.78491195496285</v>
+        <v>53.17256830009723</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.645089992190595</v>
+        <v>-0.3128635810722749</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>54.10840450684057</v>
+        <v>54.56278848407583</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>58.00792190224048</v>
+        <v>59.74454300418827</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5.277933833575794</v>
+        <v>6.232065551623474</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>82.18201475280114</v>
+        <v>79.25822454892406</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>85.3631114717448</v>
+        <v>85.69300136853171</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>89.10132582313273</v>
+        <v>93.50835911287304</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>99.26897051551336</v>
+        <v>101.1434051850074</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>99.11396963841437</v>
+        <v>103.8664576030272</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>11.4288353064319</v>
+        <v>28.61605322828872</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>92.92972376622956</v>
+        <v>99.41532508006274</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>93.19273141290107</v>
+        <v>98.80733825321583</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.84185553356083</v>
+        <v>22.66368356744991</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>48.53939172496669</v>
+        <v>40.67751736619213</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>48.25290272136448</v>
+        <v>41.52468624573982</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8.622527709908827</v>
+        <v>7.533936047426941</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>49.22095268332625</v>
+        <v>44.28949992625878</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>47.79394347266312</v>
+        <v>44.53495403950863</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.412272002531793</v>
+        <v>12.87928827247935</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>67.93478286231483</v>
+        <v>63.91016734471077</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>61.10253390921669</v>
+        <v>62.83612727558537</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>65.97789847498419</v>
+        <v>67.22707512376526</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>75.66756478893475</v>
+        <v>77.29331658439935</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>73.52661148364183</v>
+        <v>75.51635466591443</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.74267975387108</v>
+        <v>30.84380585337684</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>69.57335294921829</v>
+        <v>68.36927405179036</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>68.71884032163408</v>
+        <v>68.336172590563</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.59015152861424</v>
+        <v>24.90280376654098</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>47.58033406193537</v>
+        <v>49.67170257635097</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>51.36163089572769</v>
+        <v>52.65399939337439</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.310076950101781</v>
+        <v>6.882404693868025</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>46.32212332622372</v>
+        <v>47.37379542044657</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.58985080536683</v>
+        <v>53.98083579394961</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10.53964641282237</v>
+        <v>16.24488736767029</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>70.48824660455857</v>
+        <v>72.09667361179675</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>80.55421004248026</v>
+        <v>79.54586636598169</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>67.49887476138851</v>
+        <v>70.87337146694779</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>80.30758917035175</v>
+        <v>80.42622238763042</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>79.39409083758669</v>
+        <v>82.75631815513711</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.37919650656074</v>
+        <v>30.04809575955606</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>80.92606184033687</v>
+        <v>81.69090077154857</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>79.74488927967376</v>
+        <v>82.77688436373643</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>36.00328202142914</v>
+        <v>23.35148580537298</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>55.56501615498604</v>
+        <v>55.53619092776266</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>53.93597733937168</v>
+        <v>56.13213299178412</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.692561324488125</v>
+        <v>8.163702380022027</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>58.47371238713782</v>
+        <v>61.4084553330193</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>58.58357476823593</v>
+        <v>62.4097271206135</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.28135008221745</v>
+        <v>13.64334520700267</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>83.96718759980274</v>
+        <v>84.57882707971055</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>83.60052289256254</v>
+        <v>87.42539467117844</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>93.475445098595</v>
+        <v>98.10676814577373</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>97.57766776779489</v>
+        <v>103.9982615500487</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>100.4595809136447</v>
+        <v>105.2447079860615</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.27132908457754</v>
+        <v>39.88762648020038</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>98.60960087386883</v>
+        <v>103.7306136437547</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>95.92163611438139</v>
+        <v>100.7227616972001</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18.59804273689089</v>
+        <v>17.50427332421889</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.28554605904057</v>
+        <v>22.04887600957477</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.44226243167209</v>
+        <v>23.43629744531338</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.361304763225966</v>
+        <v>1.975139610458974</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.02090758044227</v>
+        <v>24.06396487452016</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.71011370700606</v>
+        <v>26.41835832412531</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.939421499525157</v>
+        <v>4.84912683134133</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.2928893206625</v>
+        <v>34.63293648324879</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.20412196508538</v>
+        <v>34.85318159323339</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.7701705353328</v>
+        <v>42.28174422995133</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.14845752963537</v>
+        <v>46.62707600509016</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>47.4066553439188</v>
+        <v>50.24496690353378</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.96783802501622</v>
+        <v>38.54825919655345</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>67.03359529896775</v>
+        <v>55.59960291039065</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>64.50007118466991</v>
+        <v>57.86176859846717</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.60297353349742</v>
+        <v>19.22305644737955</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>41.10517442651809</v>
+        <v>37.88895880438746</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>43.32833377115202</v>
+        <v>44.98916376831439</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>8.213316343255212</v>
+        <v>11.13893443448468</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>44.27780378191052</v>
+        <v>40.23917271635406</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>56.12675091848067</v>
+        <v>52.48854279471121</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17.70009711032862</v>
+        <v>16.03194916899766</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>69.46042511680534</v>
+        <v>57.56087740492977</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>79.42037071465553</v>
+        <v>69.60806433722043</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>62.84092428165579</v>
+        <v>57.15854692313437</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>73.331228985256</v>
+        <v>64.86099723473531</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>78.4137712807875</v>
+        <v>74.01300284677082</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20.16999813328009</v>
+        <v>28.82715035926643</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>76.06304340872248</v>
+        <v>71.72142381788848</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>82.87185990633462</v>
+        <v>78.04031169367912</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.88485590632039</v>
+        <v>29.35020347413457</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>49.55159761281926</v>
+        <v>51.19234670773822</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>51.66516599953177</v>
+        <v>56.67292031615641</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.91114037276684</v>
+        <v>15.33073479426222</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>48.54613743753212</v>
+        <v>52.64227953149699</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>58.0048815744709</v>
+        <v>60.38786286129879</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>18.44058042380188</v>
+        <v>23.57669252964936</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>78.47487103227765</v>
+        <v>75.88220970779814</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>87.33563566827952</v>
+        <v>84.21141277502419</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>86.26498833584161</v>
+        <v>91.71705565211981</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>88.58052590859101</v>
+        <v>93.96309129032207</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>99.127706440989</v>
+        <v>103.2224314813491</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43.95201668874651</v>
+        <v>46.16550607832798</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>94.1772057434424</v>
+        <v>95.80803813442395</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>96.61949748260638</v>
+        <v>99.98188123002988</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>30.36798134972559</v>
+        <v>28.59450439127501</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>51.103526411739</v>
+        <v>44.83153638498067</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>45.97603465541479</v>
+        <v>43.27975280875054</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.78516211693449</v>
+        <v>9.91040804763319</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>55.51987141587841</v>
+        <v>50.40827548982089</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>54.17927208832477</v>
+        <v>48.2292767903387</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.38298239841656</v>
+        <v>17.87089186312637</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>78.98359273957749</v>
+        <v>66.30883193697007</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>68.01269440561943</v>
+        <v>62.08557424266385</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>62.02614784584307</v>
+        <v>57.60444637263076</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>77.43365144547785</v>
+        <v>64.73814049449817</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>79.9793081537168</v>
+        <v>63.67782171052514</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.32497072571947</v>
+        <v>25.46492215432161</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>7.396742498061545</v>
+        <v>51.98676954686179</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>7.12726194889267</v>
+        <v>51.54994694460321</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.46314206585666</v>
+        <v>30.32520669910811</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>50.05025099954389</v>
+        <v>54.68473550632554</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>47.79089298608409</v>
+        <v>55.06774561737258</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.021705112794997</v>
+        <v>12.59571063093454</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.57590706487795</v>
+        <v>53.42596342382467</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>50.26186470158605</v>
+        <v>57.80781868055186</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16.37481373793831</v>
+        <v>24.04866154204887</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>76.84017607078387</v>
+        <v>77.9039449706179</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>78.81143572829885</v>
+        <v>82.34927077291933</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>75.86279736531974</v>
+        <v>77.94747079328394</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>84.72545168732211</v>
+        <v>86.53365044123754</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>85.8591989157518</v>
+        <v>90.28614186932194</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>44.97587723462751</v>
+        <v>42.4767217517352</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>85.31247976290925</v>
+        <v>90.71109435748879</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>39.10974476840036</v>
+        <v>30.05853622347644</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>56.06951846106836</v>
+        <v>58.09868622905896</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>55.40660087749522</v>
+        <v>59.64186938379471</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>9.133958220968502</v>
+        <v>9.315893774286662</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>51.57011555148383</v>
+        <v>57.95884315253246</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>55.32007873203887</v>
+        <v>60.3514925147806</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12.63162883233812</v>
+        <v>20.21516179218253</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>82.03457267832579</v>
+        <v>84.15341997386825</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>86.96244423986725</v>
+        <v>87.80179121083778</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>90.19995390507736</v>
+        <v>99.92194526556146</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>96.3004082146293</v>
+        <v>102.5272308335331</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>100.1359404839558</v>
+        <v>108.9116201755784</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>59.76714461402041</v>
+        <v>44.43317416548307</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>102.7380314407874</v>
+        <v>102.5391889082551</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>99.61548739592736</v>
+        <v>103.0177669584924</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.60541912603604</v>
+        <v>21.02012406705471</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.52399935734111</v>
+        <v>37.94240250490214</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>42.62355078230543</v>
+        <v>40.79891012619974</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>8.438165169762009</v>
+        <v>6.595560340239224</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>48.5846602030188</v>
+        <v>48.74896565708985</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.0097398943347</v>
+        <v>47.38426137511764</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>10.69088521326032</v>
+        <v>12.93007734679847</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>70.42712138976837</v>
+        <v>67.30778202058843</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>63.02922199874013</v>
+        <v>64.33055210005298</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>60.53084045343276</v>
+        <v>57.50819420592905</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>69.37227938710177</v>
+        <v>62.75972578174739</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>71.51772150985315</v>
+        <v>58.94844662751901</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.76298710160295</v>
+        <v>14.80422693492361</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6.380780018168132</v>
+        <v>34.38381274945596</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5.553448734392219</v>
+        <v>35.75783076912775</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.90148863157513</v>
+        <v>27.81137574335607</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>53.45092172603822</v>
+        <v>56.70265296670475</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>52.40661251221405</v>
+        <v>57.94202607921969</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>3.684682026826323</v>
+        <v>2.719630402634497</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>50.06472897331336</v>
+        <v>51.55266342315791</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>51.19521957440281</v>
+        <v>55.25336695322004</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>10.5033638370263</v>
+        <v>14.87132593770539</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>76.12267399237687</v>
+        <v>78.68497371609679</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>77.72032385697898</v>
+        <v>81.48265738150621</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.08152876293566</v>
+        <v>73.31572114009518</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>81.12526629362216</v>
+        <v>83.48443442984487</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>83.46077658049022</v>
+        <v>86.3071615193744</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.8698347918488</v>
+        <v>33.31713930503484</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>83.17009634118931</v>
+        <v>88.23053683581595</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>83.93947669798457</v>
+        <v>86.92042599365239</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.03054065370931</v>
+        <v>28.31926955341606</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>51.3822300616855</v>
+        <v>59.89492541357584</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>52.63202992120159</v>
+        <v>63.15591154442993</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6.492429728024952</v>
+        <v>1.609688304217734</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>53.55357002870185</v>
+        <v>56.38560863663558</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>56.82428566033173</v>
+        <v>59.43163056652722</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.61837686604664</v>
+        <v>10.15411687554883</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>76.7703830662354</v>
+        <v>82.36807899531669</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>79.75866635758578</v>
+        <v>85.02574276343708</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>83.90229422352043</v>
+        <v>93.15296081023224</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>90.84749554151006</v>
+        <v>98.98499482260475</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>92.11467237537853</v>
+        <v>101.16008955675</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.3230052733421</v>
+        <v>33.42213593566458</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>92.31047084659276</v>
+        <v>97.98228897025642</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>90.10566461616406</v>
+        <v>95.50676526836794</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>12.93229372200589</v>
+        <v>9.206697986646827</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.67740055364254</v>
+        <v>7.774959530667335</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>15.99676882175931</v>
+        <v>10.7050568613157</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>2.998371143778435</v>
+        <v>-3.367308098933101</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.31977685211745</v>
+        <v>13.43937442429915</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.98971482351347</v>
+        <v>14.84456665248048</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>3.55934525897456</v>
+        <v>-2.520247646297562</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.71856259682036</v>
+        <v>23.74866554927585</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.27296799738611</v>
+        <v>24.09868239506086</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.77071272507945</v>
+        <v>31.68195406383364</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>40.5140609503961</v>
+        <v>40.05126254779076</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>38.74063066556305</v>
+        <v>39.16540658062551</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.03150654638583</v>
+        <v>13.29733663254694</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.07539087896434</v>
+        <v>26.14435021309014</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.48004310641439</v>
+        <v>24.82692063455606</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.72726776350797</v>
+        <v>12.89974319324562</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>31.75289005470217</v>
+        <v>30.25704680554145</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.56116673833618</v>
+        <v>39.67335078761833</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>2.14597012154772</v>
+        <v>1.289732005353478</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.97931822129052</v>
+        <v>31.51386945691226</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.23059197427921</v>
+        <v>43.53442555330322</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>8.381911905834652</v>
+        <v>7.070035866824306</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>49.26558692140576</v>
+        <v>50.72080857877506</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>59.66817647128772</v>
+        <v>62.83894303590707</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.06333105641351</v>
+        <v>50.67386022200644</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>56.66787655627905</v>
+        <v>61.06808343337647</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>60.54818525719625</v>
+        <v>65.91771061048</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>18.16489057382424</v>
+        <v>16.6610148194123</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.27576767112556</v>
+        <v>59.98857274822464</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>60.03805259722597</v>
+        <v>65.47284413587312</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.07845224515806</v>
+        <v>19.71218980163916</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>40.28780738601204</v>
+        <v>43.39303844875642</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>45.25392657975465</v>
+        <v>50.41381407024992</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>9.154747782223577</v>
+        <v>8.047185217100925</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.56396243904849</v>
+        <v>50.53376691350438</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>54.50101032866311</v>
+        <v>57.8816027448334</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>13.96335918387131</v>
+        <v>13.45854900120802</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>69.11699126897395</v>
+        <v>71.84384437685316</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>71.95708020563566</v>
+        <v>79.22262903944963</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>79.62980974853831</v>
+        <v>86.82548174648421</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>87.99727398083051</v>
+        <v>93.1123079456127</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>88.92748300115161</v>
+        <v>95.18993039642417</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>41.60168260945169</v>
+        <v>40.34084286242031</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>86.8331277276409</v>
+        <v>92.95722946201748</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>91.34908130562772</v>
+        <v>95.88453087925454</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>14.75958732050928</v>
+        <v>11.07351796775024</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>19.36847688914715</v>
+        <v>13.92235555236941</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>15.92521863621554</v>
+        <v>14.06931031300673</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>2.280528179875418</v>
+        <v>-4.494626256398028</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>18.16147594021458</v>
+        <v>16.55704387703951</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>23.13222182893579</v>
+        <v>16.26241088524458</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.8891457413567068</v>
+        <v>-7.806682628109861</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.98368721494381</v>
+        <v>23.27138343956551</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>19.55190203487869</v>
+        <v>20.95651571975982</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.71083079606266</v>
+        <v>25.4148965632078</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.39790923903189</v>
+        <v>30.05511976319651</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.09556019795754</v>
+        <v>29.69254668078175</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.44398285421469</v>
+        <v>6.100119060454372</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>8.309826455779636</v>
+        <v>20.54304617474552</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>5.518446987558356</v>
+        <v>18.79342933785102</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>6.260838315683003</v>
+        <v>1.596075004147117</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>12.11910482380136</v>
+        <v>10.41384571100515</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.38447403108675</v>
+        <v>15.48863283041082</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-2.993073940965779</v>
+        <v>-6.053529907142259</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>11.63541423578009</v>
+        <v>13.79188451954817</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>18.74178538097821</v>
+        <v>22.55722646876366</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-2.84558166376722</v>
+        <v>-5.373563719657152</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>21.12466545195859</v>
+        <v>28.83342265444973</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.93464901074112</v>
+        <v>38.00397647986367</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>13.97143318132002</v>
+        <v>31.69074664019292</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.02933900593322</v>
+        <v>38.19648070425161</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>43.75166960594204</v>
+        <v>48.11845575654127</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.9947952177279618</v>
+        <v>4.224693909498004</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.82373080638085</v>
+        <v>36.12470390806735</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.27027734703103</v>
+        <v>38.31898844194103</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>6.946419085548637</v>
+        <v>5.778913316473815</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.2726335333835</v>
+        <v>19.51499051362537</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.2261882119013</v>
+        <v>31.15397094944127</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-2.478792644122564</v>
+        <v>-4.655734295851907</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>21.11422397373777</v>
+        <v>24.96957393425826</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>46.45513523441977</v>
+        <v>37.70353651149939</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-2.218575249869208</v>
+        <v>-2.607097653862969</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.91804264342738</v>
+        <v>43.5774328108859</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>71.79993821724871</v>
+        <v>57.43895662825788</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>23.58552871623358</v>
+        <v>59.4188961715062</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>56.36134967014346</v>
+        <v>62.75939468326045</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>77.61073763437882</v>
+        <v>78.37573879849398</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>6.986855353172324</v>
+        <v>11.17293629973189</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>45.45519043040555</v>
+        <v>54.07763343543203</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>58.04403097754673</v>
+        <v>60.95631665983696</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.06535785944911</v>
+        <v>16.29650518660152</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.99392198137836</v>
+        <v>34.99884769453711</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>37.95881052522063</v>
+        <v>42.45729897960975</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.475793213092896</v>
+        <v>3.001185649059728</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>50.11395524924878</v>
+        <v>52.07648450014635</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>49.87475694111329</v>
+        <v>53.92672646056256</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>7.64519148979365</v>
+        <v>12.2074066812335</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>67.19988012059973</v>
+        <v>72.55289610443248</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>64.96900549064934</v>
+        <v>73.81487192934799</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>70.7906955152886</v>
+        <v>75.79692962622812</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>78.30559674794969</v>
+        <v>86.89675425077898</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>75.63099670365548</v>
+        <v>83.11146591418499</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>44.81381348187551</v>
+        <v>37.63410152599816</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>67.90324906915663</v>
+        <v>73.23110691282268</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>76.21274469264648</v>
+        <v>78.88846880852105</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.17899251761202</v>
+        <v>18.50269587598361</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.84607036015719</v>
+        <v>40.08284940684847</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>42.73817759482159</v>
+        <v>43.34957662553479</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>4.787858899467189</v>
+        <v>-0.9591561147212957</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>40.04374175108625</v>
+        <v>40.04614400777369</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>43.87229732146086</v>
+        <v>43.78232519898605</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>9.506508724886807</v>
+        <v>7.47247695940421</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>61.08704382617596</v>
+        <v>64.26018586828921</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>66.71032525645477</v>
+        <v>69.03626318397258</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>59.89048510630514</v>
+        <v>62.93085631803906</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>66.59729742531917</v>
+        <v>69.48417335118241</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>66.36237348809264</v>
+        <v>70.27077187689889</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>32.52526155542823</v>
+        <v>28.03265949044717</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>71.30687307888434</v>
+        <v>76.5472656985368</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>69.16607798236232</v>
+        <v>74.22659785039914</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.7759936101343</v>
+        <v>18.80036531232637</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.17710020285094</v>
+        <v>46.43906548786691</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.1786973448793</v>
+        <v>49.83915962102296</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.277491711613376</v>
+        <v>1.41888486040601</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>49.9702620532583</v>
+        <v>52.7128005848637</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.19337582165407</v>
+        <v>55.17316338423049</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>11.54024762538589</v>
+        <v>7.542444365023963</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>72.76241231160053</v>
+        <v>76.48194448526567</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>73.97341001112024</v>
+        <v>80.43809455073698</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>79.79796976741449</v>
+        <v>88.32017087416043</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>85.72217049990192</v>
+        <v>90.96675827470689</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>85.52300670590526</v>
+        <v>91.73154096761773</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>39.50294187713737</v>
+        <v>34.8753180393422</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>86.64583218205536</v>
+        <v>93.95994977559901</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>87.1525937353919</v>
+        <v>92.94335314252145</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>4.967965306644455</v>
+        <v>4.066066847069692</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>15.58503232703875</v>
+        <v>9.593406933488717</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.93215238100615</v>
+        <v>12.00722348460908</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.335045283033832</v>
+        <v>-2.433026281093319</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.10528082631556</v>
+        <v>10.61529276831236</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.44587752495917</v>
+        <v>14.09609012184517</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.2848019896325837</v>
+        <v>-2.68790880793933</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.83500713952118</v>
+        <v>21.40509811643717</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.85400521640865</v>
+        <v>23.83760239002052</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.15306119398993</v>
+        <v>26.07298782166032</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.47772696132497</v>
+        <v>31.01247607923612</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>31.84567115323834</v>
+        <v>33.04076673364334</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>4.54087402074336</v>
+        <v>1.867506285464213</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>22.84124566067974</v>
+        <v>23.25011362382066</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.57215850394621</v>
+        <v>24.06282231152927</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>9.446484438515885</v>
+        <v>6.694621606695222</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.31064300599864</v>
+        <v>24.11079857949221</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>30.36237956447056</v>
+        <v>31.88411831472386</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3.680042110496121</v>
+        <v>0.363875854160213</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.01140151587673</v>
+        <v>23.64712226111606</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.1614535299713</v>
+        <v>35.00031788342</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>6.992289560886416</v>
+        <v>5.129290895876451</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>41.96614064539558</v>
+        <v>40.95145826545419</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>49.83087137083942</v>
+        <v>52.5019729137492</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>39.65004971242123</v>
+        <v>40.05742255008834</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>45.81540577985648</v>
+        <v>46.44289362109538</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>50.53883699929553</v>
+        <v>52.67716081921454</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.282154060469978</v>
+        <v>7.217115731651393</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>46.76934278503473</v>
+        <v>46.44430217228695</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>51.49464248082194</v>
+        <v>55.16398622565688</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>17.75705643032989</v>
+        <v>17.86812599862858</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.57322328962137</v>
+        <v>38.94036655312374</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>41.57083759363198</v>
+        <v>45.96434101067143</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>11.15525292208052</v>
+        <v>9.597488208432914</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.90756459730601</v>
+        <v>41.43334550512587</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>49.23764093057434</v>
+        <v>50.06425325345427</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.32697630755464</v>
+        <v>15.56350141409662</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>60.26107294772865</v>
+        <v>62.06266236782501</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>69.24122478082005</v>
+        <v>71.49306246882519</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>69.98996640251194</v>
+        <v>72.2897933352038</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>76.97744854255555</v>
+        <v>78.84097020820496</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>86.59213784646194</v>
+        <v>88.46031527223697</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>22.73119468558512</v>
+        <v>29.4069915722846</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>72.15926999209402</v>
+        <v>76.84666552548239</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>79.26112674899213</v>
+        <v>83.29633879572528</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>5.949688241486051</v>
+        <v>3.694808998269707</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>6.955736315378005</v>
+        <v>10.24385137797919</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>7.764696057642087</v>
+        <v>8.843533211390927</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.3306300244662985</v>
+        <v>-6.818729197222275</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>8.852683081205651</v>
+        <v>10.93300151221108</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.41438728858359</v>
+        <v>10.4188304336924</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-2.351266657727439</v>
+        <v>-10.41041352367214</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.189008295162516</v>
+        <v>22.46837779223451</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>12.31453687838803</v>
+        <v>19.89186653446967</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>12.40372894306824</v>
+        <v>23.57380674264805</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.33832476668346</v>
+        <v>25.50972735828057</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>20.89969972367029</v>
+        <v>24.22015678273695</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-0.1479070113468914</v>
+        <v>-2.574719243164193</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.60932281456008</v>
+        <v>12.50144270958745</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>11.10348932247703</v>
+        <v>11.37747185560157</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.40219561096944</v>
+        <v>18.27885724391621</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>38.69657075899595</v>
+        <v>40.46793481870611</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.21898431670463</v>
+        <v>41.58002176595862</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>4.183896699560467</v>
+        <v>1.74788993308896</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.60881874241317</v>
+        <v>37.71661600412669</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>41.45854261623562</v>
+        <v>43.36111379225174</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>8.998066210149464</v>
+        <v>8.822962156458367</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>57.23293173066079</v>
+        <v>59.07600834556837</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>63.47180089776664</v>
+        <v>64.36220116992044</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.06609316247351</v>
+        <v>57.55907037383422</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>63.23874199852483</v>
+        <v>65.49422981196794</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>63.96204425797494</v>
+        <v>68.10490308541111</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.62161743602141</v>
+        <v>21.76683855382553</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>64.86909301604069</v>
+        <v>67.37572365830468</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>63.9706856630013</v>
+        <v>67.97144139376053</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.34268863849329</v>
+        <v>22.35830924922073</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>46.65361926731322</v>
+        <v>50.74891411646124</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>47.8545762622164</v>
+        <v>51.79549536493002</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>9.562773433620006</v>
+        <v>6.927000975812366</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>54.83118015006499</v>
+        <v>54.39732784346406</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>56.27952127483233</v>
+        <v>55.75750925605055</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.87637282197841</v>
+        <v>10.19677405807682</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>74.29097714996908</v>
+        <v>74.38970870317853</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>74.82881285809182</v>
+        <v>76.4063701934745</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>84.68954616241973</v>
+        <v>88.95166955260504</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>90.71657454018847</v>
+        <v>94.78925142096072</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>91.06155251690419</v>
+        <v>96.13207056217915</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.68131176809668</v>
+        <v>33.25079236482567</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>89.24012856253513</v>
+        <v>92.11480248345977</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>83.4863918791531</v>
+        <v>88.09598174860858</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>15.44570937308516</v>
+        <v>9.644661613727092</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.56533906845067</v>
+        <v>14.00258576668995</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.98965800461021</v>
+        <v>15.88569058064145</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>2.606264674298306</v>
+        <v>-1.724764176816976</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.69903983629793</v>
+        <v>12.87801450655265</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.71905798710947</v>
+        <v>16.1183266318931</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>1.389268276597321</v>
+        <v>-0.6365690660558201</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.1245649684582</v>
+        <v>25.53968739941281</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.38007375683404</v>
+        <v>27.38682919399842</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.13298909203607</v>
+        <v>28.87603290197584</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.20233201463722</v>
+        <v>34.99037357285095</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.19375074571618</v>
+        <v>37.17584495195522</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>12.58076447770175</v>
+        <v>13.48650015555948</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.84638650132961</v>
+        <v>27.71845558548805</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.97898186521314</v>
+        <v>29.85361839575246</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>6.691435737860289</v>
+        <v>3.96404009444867</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>15.45204108685672</v>
+        <v>12.25127427877538</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.65514398717843</v>
+        <v>21.6807338598322</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-2.421209402690998</v>
+        <v>-5.246364305071296</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>13.66145562109676</v>
+        <v>10.07618269197152</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>27.48500025282601</v>
+        <v>24.45260852962853</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-1.499104465938466</v>
+        <v>-3.356093863820583</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.01311395091029</v>
+        <v>24.86551969496593</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.19163065475742</v>
+        <v>39.356096166224</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>18.01156565772338</v>
+        <v>25.65601716453554</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.84600683196317</v>
+        <v>31.66631992970444</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.86541899161294</v>
+        <v>38.59563558267391</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>5.139009465749812</v>
+        <v>4.415156679468648</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.13882057279589</v>
+        <v>29.73620862585447</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.482022127698</v>
+        <v>38.24224744403489</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>22.25825310524333</v>
+        <v>17.18540306107796</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>32.94756185619291</v>
+        <v>33.14494413262755</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.29199195543163</v>
+        <v>37.74445466835321</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>4.904564025517566</v>
+        <v>3.152532346110647</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.96609873548968</v>
+        <v>31.88215976649222</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.99392924114793</v>
+        <v>38.64586947735327</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>10.60614691758737</v>
+        <v>9.042997112089648</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>52.05125566751785</v>
+        <v>53.73345171841187</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>58.45743887647237</v>
+        <v>61.11211817211682</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>57.30892614657176</v>
+        <v>65.52910664882941</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>64.68544392595848</v>
+        <v>68.33726493503124</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>68.54180544032216</v>
+        <v>71.57301551744251</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>33.79671013649755</v>
+        <v>32.15441897744875</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>60.96440715619443</v>
+        <v>67.0505357272344</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>64.34614671337329</v>
+        <v>68.06019225736799</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>3.999183839725777</v>
+        <v>5.076877689856763</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.841631984444003</v>
+        <v>1.795986975775964</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>4.965563626119266</v>
+        <v>-0.1550961117502716</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>2.34460093880794</v>
+        <v>0.458835525139687</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.24504648974867</v>
+        <v>0.3874650614546198</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.868741138343818</v>
+        <v>0.7916645493998971</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.9890888123969539</v>
+        <v>-5.730697716000805</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.984789584873194</v>
+        <v>5.639881265258188</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.909118328203714</v>
+        <v>4.379063434223227</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.684932028049651</v>
+        <v>7.24110486386498</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.586904584727293</v>
+        <v>7.229504446876795</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>9.346576082827585</v>
+        <v>8.511528035608698</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.179946887984197</v>
+        <v>3.707565121342629</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.29772743742692</v>
+        <v>5.246585064657706</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.03843430979541</v>
+        <v>3.730826551732179</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>2.922444397661568</v>
+        <v>-1.359423732967802</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.753862544739249</v>
+        <v>1.194667913715005</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.96562279239869</v>
+        <v>5.16483415658789</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1.493485723295922</v>
+        <v>-4.666020464404589</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>7.011611987974391</v>
+        <v>1.595218549987251</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.45135226381491</v>
+        <v>10.0282742005833</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-2.310380840089323</v>
+        <v>-8.790271085263008</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>9.483764649721955</v>
+        <v>8.866110551358464</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.46425157449606</v>
+        <v>16.8894878125226</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>7.704193085831761</v>
+        <v>7.008827500452313</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>11.20691654344787</v>
+        <v>9.271627337874609</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>13.83046452597551</v>
+        <v>13.62720933283795</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-2.426573758518732</v>
+        <v>-5.28273285643715</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>11.10873822537293</v>
+        <v>10.70544837068364</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>13.11332691296567</v>
+        <v>12.64486106725352</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>19.18971666162</v>
+        <v>17.51773762192282</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.47278799248059</v>
+        <v>24.59376970254591</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.02817919506534</v>
+        <v>27.81228775938183</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>8.135761008648057</v>
+        <v>7.70541383509655</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>24.46171866201339</v>
+        <v>23.97275796615184</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.85379761883969</v>
+        <v>28.77656746266167</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.12215244062375</v>
+        <v>7.128677561959208</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.53533768638038</v>
+        <v>37.90748256319024</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.57999144687152</v>
+        <v>42.72502450670197</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>44.47075742820611</v>
+        <v>49.3052492412327</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>46.88200230275957</v>
+        <v>48.5553380761903</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>49.57922859761013</v>
+        <v>51.58797574646063</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.24976007768619</v>
+        <v>25.33730449205805</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>40.16808006837821</v>
+        <v>46.9928543572085</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>43.49999149885025</v>
+        <v>45.72438971181662</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.53842040758331</v>
+        <v>21.63878876085591</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.43299788308564</v>
+        <v>30.47833940845788</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>34.1011495184821</v>
+        <v>33.82961123178343</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.358488788998336</v>
+        <v>1.946296907161937</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.04321747281256</v>
+        <v>29.92670792822386</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.57626621024123</v>
+        <v>33.11008613598347</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.02501931061008</v>
+        <v>9.240791809860823</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>45.96487293100074</v>
+        <v>45.8682884929615</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.60523827124037</v>
+        <v>47.33901972210994</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>50.13533656136617</v>
+        <v>52.81229397577421</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>60.53481290679768</v>
+        <v>59.35346765129341</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>63.84278903321879</v>
+        <v>62.42295254519904</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.96108666346063</v>
+        <v>34.1070632969914</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>60.53113472488863</v>
+        <v>61.01367610467703</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>66.07716944624002</v>
+        <v>63.53355301887097</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>14.35217019266605</v>
+        <v>11.32265222148856</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.25125352721531</v>
+        <v>27.12642031808724</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.51327513758333</v>
+        <v>32.59048883347313</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1.530621566190547</v>
+        <v>-3.737826229529919</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.86083349311048</v>
+        <v>22.28331863936732</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.24369124760528</v>
+        <v>30.88542291812975</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>1.172906308043931</v>
+        <v>2.275878482444874</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.86844168419983</v>
+        <v>42.37171250981471</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>44.86913995917455</v>
+        <v>51.76185451484747</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.66043733350077</v>
+        <v>45.49447608951778</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>52.54869038570124</v>
+        <v>51.77578475837081</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>52.4289339023005</v>
+        <v>53.98369450186534</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.43401441609437</v>
+        <v>19.08623025626371</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>57.7547061755542</v>
+        <v>59.78736827689314</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>59.88961277960462</v>
+        <v>63.43556712665763</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.1134133706198</v>
+        <v>23.81676751743582</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>42.78554755166596</v>
+        <v>44.43486168067776</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>46.67621740517615</v>
+        <v>49.53488572565365</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>6.703438366909875</v>
+        <v>6.157692192346195</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.60091263945391</v>
+        <v>42.58498558181294</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>46.35096292984072</v>
+        <v>48.2891951631151</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>12.5706069630188</v>
+        <v>15.39858319458925</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>69.7841747728534</v>
+        <v>68.06506930632193</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>72.48348322226693</v>
+        <v>74.93921681825032</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>86.26478041434513</v>
+        <v>88.8771332398599</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>87.67854455002413</v>
+        <v>88.62090104678411</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>90.44299430044131</v>
+        <v>91.41772169264883</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>44.67091499625766</v>
+        <v>38.04563627495598</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>84.06579222049454</v>
+        <v>87.02481005335974</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>89.15550801628029</v>
+        <v>91.36537101677412</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>17.76940167879938</v>
+        <v>16.59201669296437</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.89864978946578</v>
+        <v>38.90684558254111</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.04534276815113</v>
+        <v>41.78128033310205</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.681969931384511</v>
+        <v>7.39473919926006</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>45.43584541257057</v>
+        <v>44.49035681686251</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>46.94507157271492</v>
+        <v>47.91406909209107</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>10.07436477542815</v>
+        <v>13.96356709611712</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>59.02089804811042</v>
+        <v>62.86527889672261</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>58.29781817111069</v>
+        <v>65.01843913205238</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>68.98465457126655</v>
+        <v>70.08749141260037</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>74.0251666295123</v>
+        <v>79.06667233324751</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>73.20781056678106</v>
+        <v>79.71586916891027</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.12327693412881</v>
+        <v>24.7610196441176</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>69.05627013373848</v>
+        <v>69.28830395333702</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>70.00010809156684</v>
+        <v>72.56553749144007</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.52992432310127</v>
+        <v>15.04172300657648</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>35.40233546144324</v>
+        <v>38.618338643906</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>39.71082086672059</v>
+        <v>43.39023191762463</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>5.449720355406185</v>
+        <v>0.8735642874526732</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.6393857697602</v>
+        <v>36.14043719163722</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.51231832700053</v>
+        <v>44.44448553712388</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>8.306758572397534</v>
+        <v>7.627671686045746</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>52.76466867543001</v>
+        <v>55.92158416584901</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>62.29309185055526</v>
+        <v>64.72514241615549</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>54.76798952097269</v>
+        <v>57.0385269857063</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>62.80826830800575</v>
+        <v>64.69788064533208</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>61.96216394684248</v>
+        <v>65.64148060343889</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.97847815760932</v>
+        <v>17.193537877257</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>65.94567356070068</v>
+        <v>66.50936153303277</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>67.74809901542046</v>
+        <v>71.94207104779115</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>19.19467277556993</v>
+        <v>16.7594009738348</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>42.68114530137477</v>
+        <v>44.67204399036653</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.89171701074583</v>
+        <v>49.43974279538222</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.313614999454618</v>
+        <v>3.663155284330536</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.50516322286268</v>
+        <v>47.86299985913653</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>50.9873070760929</v>
+        <v>54.09387815703863</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>8.253450203516994</v>
+        <v>8.55715476895633</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>64.74774142748205</v>
+        <v>67.8848061885864</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>71.60661370266575</v>
+        <v>75.73956446039413</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>80.24714570196542</v>
+        <v>84.44044937452372</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>85.51107258622231</v>
+        <v>90.63927934094671</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>91.07186600054068</v>
+        <v>95.90590383189176</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>20.163668543797</v>
+        <v>28.3105126779526</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>78.79510651314543</v>
+        <v>87.61047108743337</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>84.74359452717599</v>
+        <v>91.72327983404399</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>24.54856018244665</v>
+        <v>21.69618666206859</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>37.59249793633448</v>
+        <v>38.44352981546983</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>38.96168151246415</v>
+        <v>42.39994889413802</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>6.234004768529687</v>
+        <v>6.038084264735783</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>50.82588463094385</v>
+        <v>49.95994337715756</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.35238673869212</v>
+        <v>51.85899066829467</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>8.032580713249846</v>
+        <v>12.86805505234875</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>65.80972767616829</v>
+        <v>65.67276318463064</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>60.77403899253754</v>
+        <v>66.06735593972139</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>66.45812401339164</v>
+        <v>65.6751564925306</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>67.56898239658872</v>
+        <v>72.57381385332562</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>71.13019799704394</v>
+        <v>72.40718912216876</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.49684164285663</v>
+        <v>30.35892271220798</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>63.0320214013403</v>
+        <v>65.75117395339333</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>68.09236401880216</v>
+        <v>71.48820265130794</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.64099270941885</v>
+        <v>16.76722482190068</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.85722049828668</v>
+        <v>39.98382769448174</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>41.14078060746849</v>
+        <v>43.04313822054122</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>4.1962135263345</v>
+        <v>0.5612093401968536</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.49817984194575</v>
+        <v>39.81779946835021</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>43.63619992239574</v>
+        <v>46.08547768559059</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>6.992817660878789</v>
+        <v>9.426221170022227</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>61.26627405505405</v>
+        <v>63.52977353561832</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>67.57872809001644</v>
+        <v>70.76586624403302</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>60.73845702965603</v>
+        <v>64.61551091677123</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>67.57460333180836</v>
+        <v>71.95973142429789</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>68.25951360287894</v>
+        <v>73.73722804167781</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.05259593672726</v>
+        <v>26.20455736699063</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>74.9867896983437</v>
+        <v>77.93708575678606</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>76.05255362792114</v>
+        <v>80.99497389199621</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.30950955318325</v>
+        <v>19.00356962582029</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>46.66586832202541</v>
+        <v>46.91872434203822</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>47.53072315962244</v>
+        <v>50.17259076767022</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>6.287634307630622</v>
+        <v>1.187251830893324</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>46.06837420526637</v>
+        <v>49.24212357748185</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>50.42866014197872</v>
+        <v>53.53635005892392</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>5.559088357769163</v>
+        <v>9.658171327979225</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>73.35891554393646</v>
+        <v>74.62181444099591</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>76.31535844648792</v>
+        <v>80.67279418477278</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>83.66467280995273</v>
+        <v>93.7943786358437</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>89.46055258869087</v>
+        <v>94.86840493511558</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>91.98636565252993</v>
+        <v>98.9781069469593</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>33.02687225115423</v>
+        <v>31.4114898871771</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>88.66393121855393</v>
+        <v>92.81935942336784</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>89.16078040278684</v>
+        <v>96.5763288364551</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.68335807974763</v>
+        <v>25.86469835024609</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.87671793184613</v>
+        <v>37.88499253548088</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>38.49118608865936</v>
+        <v>39.00692738551068</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>13.92127289577552</v>
+        <v>19.86644116576315</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>62.78827200388648</v>
+        <v>56.73572755054654</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>59.8131848244915</v>
+        <v>57.27851895031164</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>13.45904246971043</v>
+        <v>20.46740817984729</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>66.41668418238073</v>
+        <v>63.39604141443478</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>64.34704536518555</v>
+        <v>62.30060646609146</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>74.24385156976646</v>
+        <v>64.02115787847301</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>76.65450368664979</v>
+        <v>69.81968764677623</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>76.64675217425403</v>
+        <v>71.97559516953876</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>52.88867907811666</v>
+        <v>39.21634787245844</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>68.03635971072258</v>
+        <v>63.18956501630421</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>71.93560469764977</v>
+        <v>69.18903077058609</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>27.43887979308599</v>
+        <v>20.80210793564352</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.46197945806971</v>
+        <v>41.3495015964358</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>39.64266176260601</v>
+        <v>45.39833783927663</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.60779535961601</v>
+        <v>22.43411737354814</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>53.86549305160759</v>
+        <v>57.07487654236864</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>59.09710486630622</v>
+        <v>64.76231440216537</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.7114530396707</v>
+        <v>16.62343178485355</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>57.79013462252254</v>
+        <v>63.95698013804545</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>63.46214058631202</v>
+        <v>72.10565296356165</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>57.76731312887843</v>
+        <v>63.69593578533102</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>65.80315328177846</v>
+        <v>71.17498413610593</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>65.11881499339921</v>
+        <v>76.04656347276783</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.26450719542587</v>
+        <v>30.4467650617536</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>70.42794646746491</v>
+        <v>73.92915316431507</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>74.94287727652684</v>
+        <v>79.86440903256488</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.8955085818873</v>
+        <v>24.48670647971528</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>46.84373207683622</v>
+        <v>48.29375881565635</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>46.90236034885952</v>
+        <v>50.25178520210273</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.09755057398739</v>
+        <v>25.35983797467343</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.68127198517973</v>
+        <v>67.22635885096102</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.54055822871513</v>
+        <v>70.23129050760208</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>11.17866831105135</v>
+        <v>20.09084541436937</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>74.33897284329032</v>
+        <v>76.95731710129262</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>74.73078994115062</v>
+        <v>81.4763844374948</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>96.1816908097889</v>
+        <v>96.04708938736171</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>90.19847129973239</v>
+        <v>96.83985446543032</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>94.3469419629921</v>
+        <v>103.1143366403703</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>42.65553359511662</v>
+        <v>42.59751381452586</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>89.59996656897061</v>
+        <v>94.43402045258178</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>92.43437542518834</v>
+        <v>98.46748980110455</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.65191077161284</v>
+        <v>18.10952670604697</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.59076983366262</v>
+        <v>40.07052637438544</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>42.52816117912786</v>
+        <v>44.42336055653958</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>6.479642142863167</v>
+        <v>4.168675807369347</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.49096485551218</v>
+        <v>42.66064767234436</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>48.77406781892036</v>
+        <v>46.18913979368611</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>7.714988448704727</v>
+        <v>10.30617585871727</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>59.29579454093097</v>
+        <v>62.50296807682437</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.85156913099804</v>
+        <v>64.86068942570444</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>67.96283710941258</v>
+        <v>71.47741215703121</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>73.42530670665144</v>
+        <v>80.02501956199345</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>74.76447757073774</v>
+        <v>81.44286956848498</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>14.41204334589547</v>
+        <v>22.63972138898367</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>68.84076756111952</v>
+        <v>71.50701466939785</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>71.75474041379708</v>
+        <v>73.74996554646521</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.35842899998224</v>
+        <v>14.39227531557232</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.81876864431265</v>
+        <v>39.21685008894055</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.41637110309797</v>
+        <v>41.78167117758619</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>2.646204528786587</v>
+        <v>-1.240445466597386</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.03443434209793</v>
+        <v>36.38473459629666</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.12786844036101</v>
+        <v>41.53200249947683</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>6.154935053911004</v>
+        <v>5.02978593903638</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>55.93832318306907</v>
+        <v>57.63576708717335</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>61.41245983606321</v>
+        <v>64.17903104086312</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>55.76199280903207</v>
+        <v>58.30167131113942</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>63.31585113166958</v>
+        <v>64.80215986184213</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>62.66413087379004</v>
+        <v>65.98837596436924</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>12.44396324474171</v>
+        <v>12.23841121324833</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>54.43621479294173</v>
+        <v>65.45916106651694</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>66.37152680095934</v>
+        <v>70.27354917063474</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>17.26586199344077</v>
+        <v>14.70763311693329</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>40.83818006891853</v>
+        <v>44.52785362536081</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>43.26995481152613</v>
+        <v>48.66531700881778</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.434324851323403</v>
+        <v>2.519078377757957</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.46781320403979</v>
+        <v>50.02929396165256</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>51.01145739920322</v>
+        <v>54.11408849545243</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>4.263610135731113</v>
+        <v>6.246171351553375</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>67.30479843020676</v>
+        <v>70.56155765001202</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>73.44729153314327</v>
+        <v>76.98494597050197</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>80.68156606247845</v>
+        <v>85.9482373683296</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>84.71416855940882</v>
+        <v>92.75407857921471</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>91.13661916113499</v>
+        <v>98.34374416094575</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>6.520698157077927</v>
+        <v>22.40117825678659</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>78.91995125035622</v>
+        <v>87.35630857433161</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>83.1843364737573</v>
+        <v>93.57391973663876</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>16.703017002837</v>
+        <v>13.59301666993513</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.47541626188376</v>
+        <v>17.90113668470156</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.05423837162052</v>
+        <v>19.13898614103604</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.414093823545564</v>
+        <v>-0.7891464110788</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.10287388234113</v>
+        <v>19.30659821672225</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.49327895439668</v>
+        <v>20.57257202900569</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>9.751318013900832</v>
+        <v>1.947305242537638</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.67051371037155</v>
+        <v>30.48325508682231</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.79172923287751</v>
+        <v>30.487690449803</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>32.58726776813666</v>
+        <v>36.45375811130521</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>37.06726694232391</v>
+        <v>39.87665189569586</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.52498259659093</v>
+        <v>41.6656217880668</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.42937553197959</v>
+        <v>16.62763100460348</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.83553766771373</v>
+        <v>29.51271518396606</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.03833980405756</v>
+        <v>31.87707279013882</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.18072140610213</v>
+        <v>12.12800077152961</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.14132731643699</v>
+        <v>32.75045907312614</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.48275608924703</v>
+        <v>39.66811237507785</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>5.304581319814069</v>
+        <v>1.93066588769339</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>32.71127397678714</v>
+        <v>33.39289976189312</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>42.96770703578665</v>
+        <v>44.03218523799482</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>9.673334843177042</v>
+        <v>8.333080719080753</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>52.57204484849056</v>
+        <v>51.95227272264026</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>61.08532732800411</v>
+        <v>62.97732096716057</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>51.68625157921697</v>
+        <v>54.20168404168292</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>56.24075986285244</v>
+        <v>57.9318106457774</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>62.29457573631754</v>
+        <v>66.99443589664946</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.62511036328312</v>
+        <v>14.40770376590925</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.86349682045683</v>
+        <v>58.63126700328475</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>62.2819696547808</v>
+        <v>67.17146163206334</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.41166892642769</v>
+        <v>21.72942309040179</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>41.27481977017271</v>
+        <v>45.19288464779611</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>45.62622354638636</v>
+        <v>52.17481071015725</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>10.79422536742243</v>
+        <v>9.42130128353319</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.81612059387859</v>
+        <v>47.72224327632291</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>52.14352674741603</v>
+        <v>56.52681662644399</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>18.84988831664789</v>
+        <v>18.15426544873802</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>69.23214162837041</v>
+        <v>70.50212722941194</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>75.42014772013071</v>
+        <v>79.937165407745</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>76.00400572212997</v>
+        <v>81.96314761136162</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>76.45660119482588</v>
+        <v>80.8114803932252</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>89.70244408532021</v>
+        <v>93.38043250206552</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.65788448932314</v>
+        <v>33.62147558655762</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>75.87667270766487</v>
+        <v>82.56158076455722</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>86.9937714814946</v>
+        <v>92.87061890933994</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>15.56807402545214</v>
+        <v>12.73305663372734</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.20267197289057</v>
+        <v>18.41852637028277</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.81778700467027</v>
+        <v>20.54864500126047</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-0.1757466497109128</v>
+        <v>-0.8769675461591362</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>21.98230853524356</v>
+        <v>26.14896939728067</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>22.79773113957879</v>
+        <v>28.65695309793968</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>3.777973332448454</v>
+        <v>2.985025714225493</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>27.29788773096251</v>
+        <v>36.56619921415951</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.62442965653981</v>
+        <v>37.27959828858217</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.54921887701815</v>
+        <v>44.8752620827488</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>54.53094105139496</v>
+        <v>50.57237126849398</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>61.68480687001184</v>
+        <v>54.05028276852257</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>19.02717820235353</v>
+        <v>21.33709365456126</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>33.04297693900564</v>
+        <v>42.02654169125471</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.9468428780003</v>
+        <v>47.47673373363237</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>8.188217718634586</v>
+        <v>6.026975420961765</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>15.55660367959107</v>
+        <v>23.48907584895331</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>32.9641250002728</v>
+        <v>33.40181349018157</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>7.669943978354112</v>
+        <v>2.166095918844981</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>16.82832642470105</v>
+        <v>30.80771280048825</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>59.65280525627617</v>
+        <v>46.02136482918517</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-0.5115181607867534</v>
+        <v>2.165221699420204</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.693741581478</v>
+        <v>43.68539525822553</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>64.41393669100907</v>
+        <v>58.74340843003383</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.74329310843885</v>
+        <v>47.6208048269643</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>53.35308017087446</v>
+        <v>56.5201893101309</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>64.508541438387</v>
+        <v>64.91619004192003</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>10.60690789634457</v>
+        <v>12.85516224900714</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>53.00614029895667</v>
+        <v>55.41499011858445</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>71.26475382438795</v>
+        <v>66.32870904680311</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>22.42693961944349</v>
+        <v>12.73853918144546</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>32.51881089120306</v>
+        <v>32.35836328279989</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>42.15988949507422</v>
+        <v>39.9438417596819</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.669861856885458</v>
+        <v>4.297305870305504</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.98117436364286</v>
+        <v>38.98634458309152</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>47.80830128827202</v>
+        <v>49.55568732492472</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>4.216174433485754</v>
+        <v>5.281631740582664</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.43362865864299</v>
+        <v>55.19105681280779</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>69.06860586615932</v>
+        <v>66.55748914591534</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>76.93258460380952</v>
+        <v>78.81744418031968</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>74.64071388747185</v>
+        <v>79.28301186184717</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>87.15799702346413</v>
+        <v>88.73399068795142</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>19.44428429328182</v>
+        <v>25.15595377877492</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>61.4098679389987</v>
+        <v>72.76846086274745</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>84.52499828609407</v>
+        <v>83.3880179685724</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.95910410328853</v>
+        <v>21.9152028285341</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>32.61713472489021</v>
+        <v>35.4130319620977</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.2041614208885</v>
+        <v>39.52933244690195</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>8.750782341806826</v>
+        <v>7.47219468194449</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>49.48931917700499</v>
+        <v>50.24950277569172</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>49.12067502532875</v>
+        <v>51.72473494223848</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>13.66475317674289</v>
+        <v>14.49050593867395</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>62.44571369728916</v>
+        <v>65.11224438762321</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.88955473553192</v>
+        <v>65.7324912380661</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>65.92762939275285</v>
+        <v>65.13159934582168</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>71.04837378378954</v>
+        <v>74.38357192365555</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>71.65542640577068</v>
+        <v>75.49334319438138</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>40.27590772533401</v>
+        <v>43.85955884874145</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>61.29420650235187</v>
+        <v>66.29520679673091</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>78.1605308057957</v>
+        <v>77.83380044844463</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.37632779553414</v>
+        <v>24.42571794832297</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>41.1891163388596</v>
+        <v>42.93845283474363</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>42.50313487688737</v>
+        <v>44.75984146428228</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>7.939440102532611</v>
+        <v>5.57537585392058</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>37.25877247806575</v>
+        <v>42.48243012172449</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.24661079181737</v>
+        <v>45.36698384342336</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.989265385691027</v>
+        <v>9.322330245147098</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>55.96640290618947</v>
+        <v>60.45078951467409</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>57.44447882785226</v>
+        <v>63.98545453951688</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>59.35107150907227</v>
+        <v>62.1378669472948</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>62.81898808495671</v>
+        <v>66.7606947755761</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>61.54365403481468</v>
+        <v>67.82113337764012</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>31.46190550609585</v>
+        <v>31.06702260672993</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>65.44183735150131</v>
+        <v>72.01063081788871</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>63.5106569201975</v>
+        <v>73.54607404458886</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>27.84304229037838</v>
+        <v>23.7174799888309</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>44.86042448164494</v>
+        <v>46.84230936918296</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>46.36410825005817</v>
+        <v>48.2000935537316</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>9.979295740890624</v>
+        <v>8.083673224135479</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>49.76680485481565</v>
+        <v>53.80454561339078</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>48.93248875786232</v>
+        <v>54.58507760634212</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>10.5831036426187</v>
+        <v>11.42520907553324</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>70.21811064703795</v>
+        <v>73.73273000369497</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>69.78206639682631</v>
+        <v>75.58064284556184</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>83.64920293178034</v>
+        <v>90.38224397351246</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>83.10148492829158</v>
+        <v>90.1064697760611</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>86.2071520842745</v>
+        <v>92.58798204304095</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>39.43985693031402</v>
+        <v>40.04944605723977</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>79.75991860848698</v>
+        <v>88.94861417269918</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>82.63753045243151</v>
+        <v>90.45897674555142</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>20.41350354873431</v>
+        <v>17.56915587035368</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>37.33868051495779</v>
+        <v>38.72860871024651</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>40.06785166412934</v>
+        <v>42.12483376760611</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.589173798715564</v>
+        <v>5.89327543196735</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>44.10384782043681</v>
+        <v>45.68936536012971</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>48.89696923401766</v>
+        <v>47.90583212368323</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>9.190258961032768</v>
+        <v>9.623298563239103</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>60.09730364544572</v>
+        <v>62.24191242745931</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>61.86311553227399</v>
+        <v>63.75599929490002</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>63.08651158071288</v>
+        <v>67.72259861094572</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>73.02980016630629</v>
+        <v>80.93430751494813</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>73.53702791245932</v>
+        <v>76.31880277733998</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>14.56139116666234</v>
+        <v>20.47826021432647</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>66.50325393865008</v>
+        <v>70.20096642864135</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>72.80620286375313</v>
+        <v>69.78778836140108</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>17.08453623876403</v>
+        <v>12.35671454262683</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>35.7224082498978</v>
+        <v>38.7760560411425</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.54813203398847</v>
+        <v>40.81567711546721</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>3.254321993101925</v>
+        <v>-0.7215119011183759</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.9949049418862</v>
+        <v>39.69504813967428</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>41.88122755178726</v>
+        <v>44.32116741180084</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>7.899680751375012</v>
+        <v>6.741190980187939</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>57.02874557224818</v>
+        <v>61.6925428205097</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>63.93534779226728</v>
+        <v>68.15583264283723</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>59.60768740089738</v>
+        <v>62.00240332489601</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>66.41014963744085</v>
+        <v>68.56996672225746</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>64.64960332040178</v>
+        <v>67.41152902654119</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>14.00801377532023</v>
+        <v>12.16932477186026</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>69.33832421054653</v>
+        <v>70.82026504858428</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>67.58478571872308</v>
+        <v>72.65211146568504</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>17.02797831194948</v>
+        <v>14.80899316027464</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>39.07108971388223</v>
+        <v>44.10930628559683</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.0627037184969</v>
+        <v>47.27746181527154</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.291424303280998</v>
+        <v>2.802952229396666</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>47.25772023258374</v>
+        <v>49.94436867534752</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>51.19544398496259</v>
+        <v>53.10769698422421</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>7.10999278258549</v>
+        <v>6.098473978679497</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>66.02620224488909</v>
+        <v>69.67045786373487</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>73.22593756471707</v>
+        <v>75.6589507179655</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>77.72778297377079</v>
+        <v>83.21032198021214</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>81.65468208164171</v>
+        <v>88.24738198565716</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>89.6582170553787</v>
+        <v>94.15805205104174</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>13.16030621628543</v>
+        <v>18.63500338073915</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>75.29988834088675</v>
+        <v>81.26403495705956</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>81.91986153579063</v>
+        <v>87.13313056786453</v>
       </c>
     </row>
   </sheetData>
